--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6A9F53-9EF6-4567-A8CB-78A15EEF5BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50348DA4-3A9C-4574-A42F-D929C2D95F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
+    <workbookView xWindow="2670" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -44,130 +44,348 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>持ち物をオープン</t>
-    <rPh sb="0" eb="1">
-      <t>モ</t>
+    <t>CellName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home/CubeBtns/BagBtn</t>
+  </si>
+  <si>
+    <t>Bag(Clone)/Image/Scroll View/Viewport/Content/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MsgPosX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MsgPosY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MsgSizeX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MsgSizeY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>End</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「石のブロック」を選択してみよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムパレットをタップして、「石のブロック」をセットしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「空の設計図」を選択してみよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bag(Clone)/Image/SelectItemBar/Button (1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bag(Clone)/Image/Scroll View/Viewport/Content/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムパレットをタップして、「空の設計図」をセットしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bag(Clone)/Image/SelectItemBar/Button (2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×ボタンで、もちもの画面を閉じよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「石のブロック」をタップして、選択状態にしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home/CubeBtns/Grid/0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「石のブロック」を3つ積み上げてみよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「空の設計図」をタップして、選択状態にしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home/CubeBtns/Grid/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面をタップして、設計図の始点を決めよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面をタップして、設計図の終点を決めよう！これで、視点と終点で囲った範囲の建築物をコピーできる！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「設計図作成ボタン」をタップして、設計図を完成させよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前を設定したら「OKボタン」をタップして設計図を完成させよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「もちもの」ボタンをタップしてもちものを確認しましょう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分で作成した「設計図を」選択しよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムパレットをタップして、「設計図」をセットしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bag(Clone)/Image/Title/CloseBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「設計図」をタップして、選択状態にしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面をタップして、設計図を置きます。</t>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>モノ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「プロフィール」をタップしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニックネームを設定しよう！※後から変更することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×ボタンで、プロフィール画面を閉じよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もう一度、「メニュー」をタップしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「マイショップ」をタップしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップロード枠をタップしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「設計図を選択ボタン」をタップしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーへ公開する際の、設計図の値段を決めることができるけど、まずは気にせず「OKボタン」をタップしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これでアップロードが完了！「×ボタン」をタップして、マイショップ画面を閉じよう！※マイショップに設計図をアップロードしても、設計図は消費されません。※自分のホームへ設計図を設置した際に、設計図が消費されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後にもう一度、「メニュー」をタップしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ショップ」をタップしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ホーム」ボタンをタップしてチュートリアルを終了しましょ。</t>
+    <rPh sb="22" eb="24">
+      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CellName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Message</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロックを選択</t>
-    <rPh sb="5" eb="7">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>持ち物ボタンをクリックして持ち物を確認できます。</t>
-    <rPh sb="0" eb="1">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
+    <t>CreateBlock</t>
+  </si>
+  <si>
+    <t>HideHand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「もちもの」ボタンをタップして\nもちものを確認しましょう！</t>
+    <rPh sb="22" eb="24">
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Home/CubeBtns/BagBtn</t>
-  </si>
-  <si>
-    <t>Bag(Clone)/Image/Scroll View/Viewport/Content/1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bag(Clone)/Image/SelectItemBar/Button (1)</t>
-  </si>
-  <si>
-    <t>Bag(Clone)/Image/Title/CloseBtn</t>
-  </si>
-  <si>
-    <t>ブロックを選択してください。</t>
-    <rPh sb="5" eb="7">
-      <t>センタク</t>
+    <t>CreateBlock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home/BuilderPencil/BuilderBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前を設定してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BlueprintReName(Clone)/BG/InputField</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BlueprintReName(Clone)/BG/OkBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bag(Clone)/Image/Scroll View/Viewport/Content/3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「設計図」に必要なブロックなどのアイテムがあれば簡単にコピーした設計図を作れる！
+今回は「石のブロック」が足りないからキャンセルしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home/Blueprint/BlueprintBtns/BlueprintCancelBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「設計図」は建築のコピー以外に、全ユーザーに公開することもできる！
+「メニュー」をタップしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home/MenuBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu(Clone)/BG/PersonalMessageBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PersonalMessage(Clone)/Image/NickName/Show/ChangeBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニックネームを入力してください。</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブロックリストに設置</t>
-    <rPh sb="8" eb="10">
-      <t>セッチ</t>
+    <t>PersonalMessage(Clone)/Image/NickName/ChangeNickName/InputField</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PersonalMessage(Clone)/Image/NickName/ChangeNickName/OKBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKボタンをタップして確認します。</t>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブロックリストをクリックして、ブロックを装備します。</t>
-    <rPh sb="20" eb="22">
-      <t>ソウビ</t>
+    <t>PersonalMessage(Clone)/Image/Title/CloseBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home/MenuBtn</t>
+  </si>
+  <si>
+    <t>Menu(Clone)/BG/MyShopBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyShop(Clone)/BG/Btns/MyShopCell/Icon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HintBox(Clone)/BG/Btns/OKBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「OK」ボタンをタップしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計図を選択しよう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyShopSelectItem(Clone)/Image/Scroll View/Viewport/Content/IconItem(Clone)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyShopSelectItem(Clone)/Image/OKBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyShopUpload(Clone)/Image/Btns/OKBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyShop(Clone)/BG/Title/CloseBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu(Clone)/BG/ShopBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shop(Clone)/Image/Btns</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下にスクロールして「設計図市場（せっけいずいちば）タブ」をタップしよう！</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>持ち物を閉じる</t>
-    <rPh sb="0" eb="1">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Xボタンをクリックして持ち物画面を閉じます。</t>
-    <rPh sb="11" eb="12">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MsgPosX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MsgPosY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MsgSizeX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MsgSizeY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>End</t>
+    <t>ここでは、全ユーザーがアップロードした設計図を見ることができる！
+気に入った設計図があれば、ゲーム内アイテム「ポイント」を消費することで、簡単にユーザーの設計図をGET！設計図が購入されると、その設計図を作成したユーザーへ「ポイント」が贈られるぞ！
+×ボタンで、ショップ画面を閉じよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shop(Clone)/Image/Title/CloseBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんと「ポイント」は、設計図市場での交換だけじゃなく「Amazonギフト券」に交換することもできる！！
+どんどん「Amazonギフト券」を手に入れて、私生活も充実させちゃおう！詳しくは、「メニュー」→「お知らせ」→「ポイント交換について」を参照しよう！
+「メニュー」をタップして下さい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu(Clone)/BG/HomeBtn</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -214,8 +432,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -236,9 +457,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}" name="テーブル1" displayName="テーブル1" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}" name="テーブル1" displayName="テーブル1" ref="A1:I43" totalsRowShown="0">
+  <autoFilter ref="A1:I43" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4DFE80C9-2B21-485D-9D6B-903F491DD911}" name="ID"/>
     <tableColumn id="2" xr3:uid="{26AC1C6D-BEB5-4CFC-A3C3-EA035AA87DC0}" name="Des"/>
     <tableColumn id="4" xr3:uid="{89652C51-89E2-4DE8-9D02-D00D77EA8A96}" name="CellName"/>
@@ -247,6 +468,7 @@
     <tableColumn id="6" xr3:uid="{6A7AC854-0965-4974-B663-F7E4BCD59F5B}" name="MsgPosY"/>
     <tableColumn id="7" xr3:uid="{278C20F7-3452-4513-8919-E3803D41F0E2}" name="MsgSizeX"/>
     <tableColumn id="8" xr3:uid="{76220153-7491-44A8-A059-5B399462F567}" name="MsgSizeY"/>
+    <tableColumn id="9" xr3:uid="{94FD7B2F-D9CA-4F3E-A0CD-D082451C06AB}" name="HideHand"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -549,19 +771,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE3D9C-AA04-4128-A1A9-BF15679480E0}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="48.875" customWidth="1"/>
+    <col min="4" max="4" width="53.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,134 +792,991 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>200</v>
+        <v>-50</v>
       </c>
       <c r="G4">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
       <c r="E5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>-50</v>
+      </c>
+      <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>500</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>-100</v>
+      </c>
+      <c r="G9">
+        <v>500</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>-100</v>
+      </c>
+      <c r="G10">
+        <v>500</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>-100</v>
+      </c>
+      <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>-100</v>
+      </c>
+      <c r="G12">
+        <v>500</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>-100</v>
+      </c>
+      <c r="G13">
+        <v>500</v>
+      </c>
+      <c r="H13">
+        <v>150</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>-100</v>
+      </c>
+      <c r="G14">
+        <v>500</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>150</v>
+      </c>
+      <c r="G15">
+        <v>500</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>150</v>
+      </c>
+      <c r="G16">
+        <v>500</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="E6">
-        <v>200</v>
-      </c>
-      <c r="F6">
-        <v>200</v>
-      </c>
-      <c r="G6">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>150</v>
+      </c>
+      <c r="G17">
+        <v>500</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>-50</v>
+      </c>
+      <c r="G18">
+        <v>500</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>-50</v>
+      </c>
+      <c r="G19">
+        <v>500</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>500</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>-100</v>
+      </c>
+      <c r="G21">
+        <v>500</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>500</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>-100</v>
+      </c>
+      <c r="G23">
+        <v>500</v>
+      </c>
+      <c r="H23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>500</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>-100</v>
+      </c>
+      <c r="G25">
+        <v>500</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>150</v>
+      </c>
+      <c r="G26">
+        <v>500</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>150</v>
+      </c>
+      <c r="G27">
+        <v>500</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>150</v>
+      </c>
+      <c r="G28">
+        <v>500</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>500</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>500</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>500</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>-100</v>
+      </c>
+      <c r="G32">
+        <v>500</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>-150</v>
+      </c>
+      <c r="G33">
+        <v>500</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>-150</v>
+      </c>
+      <c r="G34">
+        <v>500</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>-100</v>
+      </c>
+      <c r="G35">
+        <v>500</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>500</v>
+      </c>
+      <c r="H36">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37">
+        <v>-100</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>500</v>
+      </c>
+      <c r="H37">
         <v>300</v>
       </c>
-      <c r="H6">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38">
+        <v>500</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>-150</v>
+      </c>
+      <c r="G39">
+        <v>500</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>500</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
         <v>80</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>500</v>
+      </c>
+      <c r="H41">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>500</v>
+      </c>
+      <c r="H42">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>-150</v>
+      </c>
+      <c r="G43">
+        <v>500</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50348DA4-3A9C-4574-A42F-D929C2D95F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E967D709-2821-44AA-A0DF-2A2B2C5A298C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
+    <workbookView xWindow="630" yWindow="2100" windowWidth="24525" windowHeight="12975" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテムパレットをタップして、「石のブロック」をセットしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「空の設計図」を選択してみよう！</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -99,93 +95,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテムパレットをタップして、「空の設計図」をセットしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Bag(Clone)/Image/SelectItemBar/Button (2)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>×ボタンで、もちもの画面を閉じよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「石のブロック」をタップして、選択状態にしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Home/CubeBtns/Grid/0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「石のブロック」を3つ積み上げてみよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「空の設計図」をタップして、選択状態にしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Home/CubeBtns/Grid/1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>地面をタップして、設計図の始点を決めよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>地面をタップして、設計図の終点を決めよう！これで、視点と終点で囲った範囲の建築物をコピーできる！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「設計図作成ボタン」をタップして、設計図を完成させよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前を設定したら「OKボタン」をタップして設計図を完成させよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「もちもの」ボタンをタップしてもちものを確認しましょう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自分で作成した「設計図を」選択しよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテムパレットをタップして、「設計図」をセットしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Bag(Clone)/Image/Title/CloseBtn</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「設計図」をタップして、選択状態にしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>地面をタップして、設計図を置きます。</t>
-    <rPh sb="13" eb="14">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「プロフィール」をタップしよう！</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ニックネームを設定しよう！※後から変更することができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>×ボタンで、プロフィール画面を閉じよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>もう一度、「メニュー」をタップしよう！</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -202,29 +131,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーへ公開する際の、設計図の値段を決めることができるけど、まずは気にせず「OKボタン」をタップしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これでアップロードが完了！「×ボタン」をタップして、マイショップ画面を閉じよう！※マイショップに設計図をアップロードしても、設計図は消費されません。※自分のホームへ設計図を設置した際に、設計図が消費されます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最後にもう一度、「メニュー」をタップしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「ショップ」をタップしよう！</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「ホーム」ボタンをタップしてチュートリアルを終了しましょ。</t>
-    <rPh sb="22" eb="24">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CreateBlock</t>
   </si>
   <si>
@@ -232,160 +142,725 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「もちもの」ボタンをタップして\nもちものを確認しましょう！</t>
-    <rPh sb="22" eb="24">
+    <t>CreateBlock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home/BuilderPencil/BuilderBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BlueprintReName(Clone)/BG/InputField</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BlueprintReName(Clone)/BG/OkBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bag(Clone)/Image/Scroll View/Viewport/Content/3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home/Blueprint/BlueprintBtns/BlueprintCancelBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home/MenuBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu(Clone)/BG/PersonalMessageBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PersonalMessage(Clone)/Image/NickName/Show/ChangeBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PersonalMessage(Clone)/Image/NickName/ChangeNickName/InputField</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PersonalMessage(Clone)/Image/NickName/ChangeNickName/OKBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PersonalMessage(Clone)/Image/Title/CloseBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home/MenuBtn</t>
+  </si>
+  <si>
+    <t>Menu(Clone)/BG/MyShopBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyShop(Clone)/BG/Btns/MyShopCell/Icon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HintBox(Clone)/BG/Btns/OKBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「OK」ボタンをタップしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計図を選択しよう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyShopSelectItem(Clone)/Image/Scroll View/Viewport/Content/IconItem(Clone)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyShopSelectItem(Clone)/Image/OKBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyShopUpload(Clone)/Image/Btns/OKBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyShop(Clone)/BG/Title/CloseBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu(Clone)/BG/ShopBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shop(Clone)/Image/Btns</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shop(Clone)/Image/Title/CloseBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu(Clone)/BG/HomeBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「もちもの」ボタンをタップして
+もちものを確認しましょう！</t>
+    <rPh sb="21" eb="23">
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CreateBlock</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Home/BuilderPencil/BuilderBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前を設定してください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BlueprintReName(Clone)/BG/InputField</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BlueprintReName(Clone)/BG/OkBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bag(Clone)/Image/Scroll View/Viewport/Content/3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「設計図」に必要なブロックなどのアイテムがあれば簡単にコピーした設計図を作れる！
-今回は「石のブロック」が足りないからキャンセルしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Home/Blueprint/BlueprintBtns/BlueprintCancelBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「設計図」は建築のコピー以外に、全ユーザーに公開することもできる！
-「メニュー」をタップしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Home/MenuBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Menu(Clone)/BG/PersonalMessageBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PersonalMessage(Clone)/Image/NickName/Show/ChangeBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ニックネームを入力してください。</t>
+    <t>アイテムパレットをタップして、
+「石のブロック」をセットしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムパレットをタップして、
+「空の設計図」をセットしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「設計図作成」ボタンをタップして、
+設計図を完成させよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計図の名前を設定しよう。</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「もちもの」ボタンをタップして
+もちものを確認しよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分で作成した「設計図」を選択しよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面をタップして、設計図を設置しよう。</t>
+    <rPh sb="13" eb="15">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニックネームを設定しよう！
+※後から変更できるよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニックネームを入力しよう。</t>
     <rPh sb="7" eb="9">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PersonalMessage(Clone)/Image/NickName/ChangeNickName/InputField</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PersonalMessage(Clone)/Image/NickName/ChangeNickName/OKBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OKボタンをタップして確認します。</t>
-    <rPh sb="11" eb="13">
-      <t>カクニン</t>
+    <t>これでチュートリアルは終わりだよ。
+「ホーム」ボタンをタップしてね。</t>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PersonalMessage(Clone)/Image/Title/CloseBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Home/MenuBtn</t>
-  </si>
-  <si>
-    <t>Menu(Clone)/BG/MyShopBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MyShop(Clone)/BG/Btns/MyShopCell/Icon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HintBox(Clone)/BG/Btns/OKBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「OK」ボタンをタップしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計図を選択しよう。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MyShopSelectItem(Clone)/Image/Scroll View/Viewport/Content/IconItem(Clone)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MyShopSelectItem(Clone)/Image/OKBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MyShopUpload(Clone)/Image/Btns/OKBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MyShop(Clone)/BG/Title/CloseBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Menu(Clone)/BG/ShopBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shop(Clone)/Image/Btns</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下にスクロールして「設計図市場（せっけいずいちば）タブ」をタップしよう！</t>
+    <r>
+      <t xml:space="preserve">「空の設計図」をタップして、
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;color=red&gt;選択中&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>にしよう！</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>ソラ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;設計図の値段を決めることができるよ。&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+まずは気にせず「OK」ボタンをタップしよう！</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ボタンで、
+もちもの画面を閉じよう！</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>「石のブロック」をタップして、
+&lt;color=red&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>選択中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>にしよう！</t>
+    </r>
+    <rPh sb="29" eb="30">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面をタップして、
+設計図の始点を決めよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>「設計図」をタップして、
+&lt;color=red&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>選択中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/color&gt;にしよう！</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「設計図」に必要なアイテムがあれば
+簡単にコピーした設計図を作れる！
+今回は「石のブロック」が足りないから
+キャンセルしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「設計図」は建築のコピー以外に、
+全ユーザーに公開することもできる！
+「メニュー」をタップしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「OK」ボタンをタップして設定しよう。</t>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ボタンで、
+プロフィール画面を閉じよう！</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>下にスクロールして
+「&lt;color=cyan&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>設計図市場（せっけいずいちば）&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」タブをタップしよう！</t>
+    </r>
     <rPh sb="0" eb="1">
       <t>シタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ここでは、全ユーザーがアップロードした設計図を見ることができる！
-気に入った設計図があれば、ゲーム内アイテム「ポイント」を消費することで、簡単にユーザーの設計図をGET！設計図が購入されると、その設計図を作成したユーザーへ「ポイント」が贈られるぞ！
-×ボタンで、ショップ画面を閉じよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shop(Clone)/Image/Title/CloseBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なんと「ポイント」は、設計図市場での交換だけじゃなく「Amazonギフト券」に交換することもできる！！
-どんどん「Amazonギフト券」を手に入れて、私生活も充実させちゃおう！詳しくは、「メニュー」→「お知らせ」→「ポイント交換について」を参照しよう！
-「メニュー」をタップして下さい。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Menu(Clone)/BG/HomeBtn</t>
+    <t>最後にもう一度、
+「メニュー」をタップしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前を設定したら「OK」ボタンを
+タップして設計図を完成させよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「石のブロック」を
+3つ積み上げてみよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムパレットをタップして、
+「設計図」をセットしよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面をタップして、
+設計図の終点を決めよう！
+これで、視点と終点で囲った範囲の建築物をコピーできる！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;b&gt;これでアップロード完了！&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">」ボタンをタップして、マイショップ画面を閉じよう！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;color=cyan&gt;※マイショップに設計図をアップロードしても、設計図は消費されないよ&lt;/color&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+※自分のホームへ設計図を設置した時に、消費されるよ</t>
+    </r>
+    <rPh sb="128" eb="129">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>なんと「&lt;color=yellow&gt;&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ポイント</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/b&gt;&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」は、
+「&lt;color=red&gt;&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Amazonギフト券&lt;/b&gt;&lt;/color&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">」
+に交換することもできる！！
+どんどん「Amazonギフト券」を手に入れて、私生活も充実しちゃおう！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;color=cyan&gt;詳しくは、「メニュー」→「お知らせ」→
+「ポイント交換について」を見てね！&lt;/color&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+「メニュー」をタップしよう。</t>
+    </r>
+    <rPh sb="178" eb="179">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ここでは、全ユーザーがアップロードした設計図を見れるよ！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;気に入った設計図は、ゲーム内アイテム
+「ポイント」を消費してゲットできる！&lt;/b&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+設計図を購入すると、その設計図を作成したユーザーへ「ポイント」が贈られるぞ！
+「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」ボタンで、
+ショップ画面を閉じよう！</t>
+    </r>
+    <rPh sb="23" eb="24">
+      <t>ミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -393,7 +868,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +881,85 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -432,12 +986,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,15 +1330,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE3D9C-AA04-4128-A1A9-BF15679480E0}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="8.625" customWidth="1"/>
     <col min="3" max="3" width="48.875" customWidth="1"/>
-    <col min="4" max="4" width="53.625" customWidth="1"/>
+    <col min="4" max="4" width="69" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
@@ -810,7 +1367,7 @@
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -821,15 +1378,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>48</v>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -867,15 +1424,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -895,10 +1452,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -913,15 +1470,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -936,16 +1493,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
         <v>18</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E8">
         <v>0</v>
       </c>
@@ -959,15 +1516,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -982,15 +1539,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1008,15 +1565,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1031,15 +1588,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1057,15 +1614,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
         <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1077,21 +1634,21 @@
         <v>500</v>
       </c>
       <c r="H13">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1111,10 +1668,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1129,15 +1686,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1152,15 +1709,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
-        <v>28</v>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1180,10 +1737,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1198,15 +1755,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1221,16 +1778,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
         <v>18</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E20">
         <v>0</v>
       </c>
@@ -1244,15 +1801,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1272,10 +1829,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1293,15 +1850,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1313,18 +1870,18 @@
         <v>500</v>
       </c>
       <c r="H23">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1336,7 +1893,7 @@
         <v>500</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
@@ -1344,10 +1901,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1362,15 +1919,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" t="s">
         <v>35</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1390,10 +1947,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
         <v>62</v>
-      </c>
-      <c r="D27" t="s">
-        <v>61</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1413,10 +1970,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1431,15 +1988,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1459,10 +2016,10 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1482,10 +2039,10 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1505,10 +2062,10 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1528,10 +2085,10 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1551,10 +2108,10 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1574,10 +2131,10 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1592,15 +2149,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1615,15 +2172,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="E37">
         <v>-100</v>
@@ -1635,18 +2192,18 @@
         <v>500</v>
       </c>
       <c r="H37">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1666,10 +2223,10 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1684,15 +2241,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" t="s">
-        <v>78</v>
+        <v>50</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -1704,21 +2261,21 @@
         <v>500</v>
       </c>
       <c r="H40">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="186" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1730,15 +2287,15 @@
         <v>500</v>
       </c>
       <c r="H41">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>81</v>
@@ -1753,18 +2310,18 @@
         <v>500</v>
       </c>
       <c r="H42">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E43">
         <v>0</v>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E967D709-2821-44AA-A0DF-2A2B2C5A298C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A4BF14-913E-43C7-8685-81EA4846862B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="2100" windowWidth="24525" windowHeight="12975" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -302,14 +293,6 @@
     <t>ニックネームを入力しよう。</t>
     <rPh sb="7" eb="9">
       <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これでチュートリアルは終わりだよ。
-「ホーム」ボタンをタップしてね。</t>
-    <rPh sb="11" eb="12">
-      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -700,6 +683,64 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">ここでは、全ユーザーがアップロードした設計図を見れるよ！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;気に入った設計図は、ゲーム内アイテム
+「ポイント」を消費してゲットできる！&lt;/b&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+設計図を購入すると、その設計図を作成したユーザーへ「ポイント」が贈られるぞ！
+「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」ボタンで、
+ショップ画面を閉じよう！</t>
+    </r>
+    <rPh sb="23" eb="24">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
       <t>なんと「&lt;color=yellow&gt;&lt;b&gt;</t>
     </r>
     <r>
@@ -785,7 +826,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">&lt;color=cyan&gt;詳しくは、「メニュー」→「お知らせ」→
-「ポイント交換について」を見てね！&lt;/color&gt;
+「各種アイテムについて」を見てね！&lt;/color&gt;
 </t>
     </r>
     <r>
@@ -800,66 +841,36 @@
       <t xml:space="preserve">
 「メニュー」をタップしよう。</t>
     </r>
+    <rPh sb="166" eb="168">
+      <t>カクシュ</t>
+    </rPh>
     <rPh sb="178" eb="179">
       <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ここでは、全ユーザーがアップロードした設計図を見れるよ！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;b&gt;気に入った設計図は、ゲーム内アイテム
-「ポイント」を消費してゲットできる！&lt;/b&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-設計図を購入すると、その設計図を作成したユーザーへ「ポイント」が贈られるぞ！
-「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>✕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>」ボタンで、
-ショップ画面を閉じよう！</t>
-    </r>
-    <rPh sb="23" eb="24">
-      <t>ミ</t>
+    <t>これでチュートリアルは終わりだよ。
+特別にブロックと空の設計図をプレゼントするから、
+遊んでみてね！
+「ホーム」ボタンをタップしてゲームを始めよう！</t>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ハジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1330,18 +1341,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE3D9C-AA04-4128-A1A9-BF15679480E0}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="48.875" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" customWidth="1"/>
+    <col min="3" max="3" width="48.8984375" customWidth="1"/>
     <col min="4" max="4" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1370,7 +1381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1378,7 +1389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1401,7 +1412,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1424,7 +1435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1447,7 +1458,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1470,7 +1481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1493,7 +1504,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1501,7 +1512,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1516,7 +1527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1524,7 +1535,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1539,7 +1550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1547,7 +1558,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1565,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1573,7 +1584,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1588,7 +1599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1596,7 +1607,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1614,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1622,7 +1633,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1640,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1663,7 +1674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1686,7 +1697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1694,7 +1705,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1709,7 +1720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1732,7 +1743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1755,7 +1766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1763,7 +1774,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1778,7 +1789,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1786,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1801,7 +1812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1809,7 +1820,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1824,7 +1835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1850,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1858,7 +1869,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1873,7 +1884,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" ht="72" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1881,7 +1892,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1896,7 +1907,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1919,7 +1930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1942,7 +1953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1965,7 +1976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1973,7 +1984,7 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1988,7 +1999,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1996,7 +2007,7 @@
         <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2011,7 +2022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2034,7 +2045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2057,7 +2068,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2080,7 +2091,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2103,7 +2114,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2126,7 +2137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2149,7 +2160,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2157,7 +2168,7 @@
         <v>47</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2172,7 +2183,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" ht="126" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2180,7 +2191,7 @@
         <v>48</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37">
         <v>-100</v>
@@ -2195,7 +2206,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2203,7 +2214,7 @@
         <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2218,7 +2229,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2241,7 +2252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2249,7 +2260,7 @@
         <v>50</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -2267,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="186" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="180" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2275,7 +2286,7 @@
         <v>51</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2290,7 +2301,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="168.75" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="162" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2313,7 +2324,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2321,7 +2332,7 @@
         <v>52</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E43">
         <v>0</v>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A4BF14-913E-43C7-8685-81EA4846862B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CC87FB-8FC8-47D9-816D-94ADA1D5F064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -366,50 +366,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>✕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ボタンで、
-もちもの画面を閉じよう！</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t>「石のブロック」をタップして、
 &lt;color=red&gt;</t>
     </r>
@@ -506,50 +462,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>✕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ボタンで、
-プロフィール画面を閉じよう！</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t>下にスクロールして
 「&lt;color=cyan&gt;</t>
     </r>
@@ -604,139 +516,6 @@
     <t>地面をタップして、
 設計図の終点を決めよう！
 これで、視点と終点で囲った範囲の建築物をコピーできる！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;b&gt;これでアップロード完了！&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>✕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">」ボタンをタップして、マイショップ画面を閉じよう！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;color=cyan&gt;※マイショップに設計図をアップロードしても、設計図は消費されないよ&lt;/color&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-※自分のホームへ設計図を設置した時に、消費されるよ</t>
-    </r>
-    <rPh sb="128" eb="129">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ここでは、全ユーザーがアップロードした設計図を見れるよ！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;b&gt;気に入った設計図は、ゲーム内アイテム
-「ポイント」を消費してゲットできる！&lt;/b&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-設計図を購入すると、その設計図を作成したユーザーへ「ポイント」が贈られるぞ！
-「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>✕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>」ボタンで、
-ショップ画面を閉じよう！</t>
-    </r>
-    <rPh sb="23" eb="24">
-      <t>ミ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -874,12 +653,67 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「x」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ボタンで、
+もちもの画面を閉じよう！</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「x」ボタンで、
+もちもの画面を閉じよう！</t>
+  </si>
+  <si>
+    <t>「x」ボタンで、
+プロフィール画面を閉じよう！</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;これでアップロード完了！&lt;/b&gt;
+「x」ボタンをタップして、マイショップ画面を閉じよう！
+&lt;color=cyan&gt;※マイショップに設計図をアップロードしても、設計図は消費されないよ&lt;/color&gt;
+※自分のホームへ設計図を設置した時に、消費されるよ</t>
+    <rPh sb="128" eb="129">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここでは、全ユーザーがアップロードした設計図を見れるよ！
+&lt;b&gt;気に入った設計図は、ゲーム内アイテム
+「ポイント」を消費してゲットできる！&lt;/b&gt;
+設計図を購入すると、その設計図を作成したユーザーへ「ポイント」が贈られるぞ！
+「x」ボタンで、
+ショップ画面を閉じよう！</t>
+    <rPh sb="23" eb="24">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,12 +735,6 @@
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1004,7 +832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1341,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE3D9C-AA04-4128-A1A9-BF15679480E0}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1512,7 +1340,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1535,7 +1363,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1558,7 +1386,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1607,7 +1435,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1633,7 +1461,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1705,7 +1533,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1774,7 +1602,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1797,7 +1625,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1820,7 +1648,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1869,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1892,7 +1720,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1984,7 +1812,7 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2007,7 +1835,7 @@
         <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2191,7 +2019,7 @@
         <v>48</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E37">
         <v>-100</v>
@@ -2214,7 +2042,7 @@
         <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2260,7 +2088,7 @@
         <v>50</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -2286,7 +2114,7 @@
         <v>51</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2309,7 +2137,7 @@
         <v>39</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2332,7 +2160,7 @@
         <v>52</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E43">
         <v>0</v>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CC87FB-8FC8-47D9-816D-94ADA1D5F064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA5C0D9-08BE-4A06-BA01-70AA3A56602E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
+    <workbookView xWindow="2364" yWindow="732" windowWidth="18972" windowHeight="10560" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1169,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE3D9C-AA04-4128-A1A9-BF15679480E0}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="D42" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2166,13 +2166,13 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-150</v>
+        <v>-50</v>
       </c>
       <c r="G43">
         <v>500</v>
       </c>
       <c r="H43">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA5C0D9-08BE-4A06-BA01-70AA3A56602E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56323D7A-9E4B-44FC-9952-10E083DAC573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2364" yWindow="732" windowWidth="18972" windowHeight="10560" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
@@ -438,13 +438,6 @@
       </rPr>
       <t>&lt;/color&gt;にしよう！</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「設計図」に必要なアイテムがあれば
-簡単にコピーした設計図を作れる！
-今回は「石のブロック」が足りないから
-キャンセルしよう！</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -706,6 +699,12 @@
     <rPh sb="23" eb="24">
       <t>ミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「設計図」に必要なアイテムがあれば
+簡単にコピーした設計図を作れる！
+今回は、キャンセルしよう！</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1169,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE3D9C-AA04-4128-A1A9-BF15679480E0}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D42" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1340,7 +1339,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1386,7 +1385,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1461,7 +1460,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1533,7 +1532,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1602,7 +1601,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1625,7 +1624,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1689,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="72" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1697,7 +1696,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1706,7 +1705,7 @@
         <v>-100</v>
       </c>
       <c r="G23">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="H23">
         <v>200</v>
@@ -1720,7 +1719,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1812,7 +1811,7 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1835,7 +1834,7 @@
         <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2019,7 +2018,7 @@
         <v>48</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37">
         <v>-100</v>
@@ -2042,7 +2041,7 @@
         <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2088,7 +2087,7 @@
         <v>50</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -2114,7 +2113,7 @@
         <v>51</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2137,7 +2136,7 @@
         <v>39</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2160,10 +2159,10 @@
         <v>52</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43">
         <v>-50</v>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56323D7A-9E4B-44FC-9952-10E083DAC573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D095D0A8-FCE4-4BF5-8880-0C19C316446D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2364" yWindow="732" windowWidth="18972" windowHeight="10560" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
+    <workbookView xWindow="2550" yWindow="1845" windowWidth="24525" windowHeight="12975" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -707,12 +708,76 @@
 今回は、キャンセルしよう！</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ガイドのステップ設定ファイルです。</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡単説明</t>
+    <rPh sb="0" eb="2">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したいObject</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表しするメッセージ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ座標</t>
+    <rPh sb="5" eb="7">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MsgPosX、MsgPosY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MsgSizeX、MsgSizeY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージボックスサイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンドを隠れるかのタグ</t>
+    <rPh sb="4" eb="5">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,21 +866,73 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -824,7 +941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,6 +950,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1168,18 +1294,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE3D9C-AA04-4128-A1A9-BF15679480E0}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.59765625" customWidth="1"/>
-    <col min="3" max="3" width="48.8984375" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="48.875" customWidth="1"/>
     <col min="4" max="4" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1216,7 +1345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1239,7 +1368,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1262,7 +1391,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1285,7 +1414,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1308,7 +1437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1331,7 +1460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1354,7 +1483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1377,7 +1506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1403,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1426,7 +1555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1452,7 +1581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1478,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1501,7 +1630,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1524,7 +1653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1547,7 +1676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1570,7 +1699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1593,7 +1722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1616,7 +1745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1639,7 +1768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1662,7 +1791,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1688,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="72" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1711,7 +1840,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="72" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1734,7 +1863,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1780,7 +1909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1803,7 +1932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1826,7 +1955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1849,7 +1978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1872,7 +2001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1895,7 +2024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1918,7 +2047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1941,7 +2070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1964,7 +2093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1987,7 +2116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2010,7 +2139,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="126" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2033,7 +2162,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2056,7 +2185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2079,7 +2208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2105,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="180" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2128,7 +2257,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="162" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2151,7 +2280,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2182,4 +2311,99 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1245AE-0402-421C-A669-D9EE8B3964BA}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D095D0A8-FCE4-4BF5-8880-0C19C316446D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2754CA-6222-48A7-9E38-0EBB7DCFB6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="1845" windowWidth="24525" windowHeight="12975" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
+    <workbookView xWindow="4275" yWindow="2490" windowWidth="24525" windowHeight="12975" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,10 +162,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Menu(Clone)/BG/PersonalMessageBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PersonalMessage(Clone)/Image/NickName/Show/ChangeBtn</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -185,10 +181,6 @@
     <t>Home/MenuBtn</t>
   </si>
   <si>
-    <t>Menu(Clone)/BG/MyShopBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MyShop(Clone)/BG/Btns/MyShopCell/Icon</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -221,19 +213,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Menu(Clone)/BG/ShopBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Shop(Clone)/Image/Btns</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Shop(Clone)/Image/Title/CloseBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Menu(Clone)/BG/HomeBtn</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -770,6 +754,22 @@
     <rPh sb="4" eb="5">
       <t>カク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu(Clone)/BG/Btns/MyShopBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu(Clone)/BG/Btns/ShopBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu(Clone)/BG/Btns/HomeBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu(Clone)/BG/Btns/PersonalMessageBtn</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1295,10 +1295,10 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1353,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
@@ -1891,10 +1891,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1914,10 +1914,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1960,10 +1960,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -2029,7 +2029,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -2052,7 +2052,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
         <v>23</v>
@@ -2075,10 +2075,10 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2121,10 +2121,10 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E37">
         <v>-100</v>
@@ -2170,7 +2170,7 @@
         <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2190,7 +2190,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
@@ -2213,10 +2213,10 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -2239,10 +2239,10 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2262,10 +2262,10 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2285,10 +2285,10 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -2328,7 +2328,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -2338,7 +2338,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -2348,7 +2348,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -2358,7 +2358,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -2368,27 +2368,27 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
@@ -2398,7 +2398,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2754CA-6222-48A7-9E38-0EBB7DCFB6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD31E398-ECA8-4784-97D9-A3CF9CA424AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="2490" windowWidth="24525" windowHeight="12975" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24525" windowHeight="12975" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>もう一度、「メニュー」をタップしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「マイショップ」をタップしよう！</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -123,10 +119,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「ショップ」をタップしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CreateBlock</t>
   </si>
   <si>
@@ -158,10 +150,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Home/MenuBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PersonalMessage(Clone)/Image/NickName/Show/ChangeBtn</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -178,13 +166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Home/MenuBtn</t>
-  </si>
-  <si>
-    <t>MyShop(Clone)/BG/Btns/MyShopCell/Icon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HintBox(Clone)/BG/Btns/OKBtn</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -194,38 +175,6 @@
   </si>
   <si>
     <t>設計図を選択しよう。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MyShopSelectItem(Clone)/Image/Scroll View/Viewport/Content/IconItem(Clone)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MyShopSelectItem(Clone)/Image/OKBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MyShopUpload(Clone)/Image/Btns/OKBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MyShop(Clone)/BG/Title/CloseBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shop(Clone)/Image/Btns</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shop(Clone)/Image/Title/CloseBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「もちもの」ボタンをタップして
-もちものを確認しましょう！</t>
-    <rPh sb="21" eb="23">
-      <t>カクニン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -468,11 +417,6 @@
     <rPh sb="0" eb="1">
       <t>シタ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最後にもう一度、
-「メニュー」をタップしよう！</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -607,31 +551,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>これでチュートリアルは終わりだよ。
-特別にブロックと空の設計図をプレゼントするから、
-遊んでみてね！
-「ホーム」ボタンをタップしてゲームを始めよう！</t>
-    <rPh sb="11" eb="12">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>トクベツ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>セッケイズ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>アソ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -757,19 +676,151 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Menu(Clone)/BG/Btns/MyShopBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Menu(Clone)/BG/Btns/ShopBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Menu(Clone)/BG/Btns/HomeBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Menu(Clone)/BG/Btns/PersonalMessageBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Message1~3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「もちもの」ボタンをタップして
+もちものを確認しましょう！111</t>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「もちもの」ボタンをタップして
+もちものを確認しましょう！222</t>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「もちもの」ボタンをタップして
+もちものを確認しましょう！333</t>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NextMask</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BlueprintReName(Clone)/BG/PhotographBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>撮影ボタンを押してください。</t>
+    <rPh sb="0" eb="2">
+      <t>サツエイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BlueprintPreview(Clone)/PhotographBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>撮影ボタンを押してください2。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home/MenuBtn/Image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準備は終了っぴ！「クラフト物語」の世界へようこそ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家に戻りましょ。</t>
+  </si>
+  <si>
+    <t>Home/MapBtn/Image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Map(Clone)/Image/HomeBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップボタンを押してください。</t>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイショップに行ってみましょ。</t>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AutoMove</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動中です。</t>
+    <rPh sb="0" eb="3">
+      <t>イドウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shop04(Clone)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShopBlueprint(Clone)/ToggleBtns/Toggle (3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShopBlueprint(Clone)/MyShop/MyShopCell (1)/Icon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShopBlueprintMyShopSelectItem(Clone)/Image/Scroll View/Viewport/Content/IconItem(Clone)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShopBlueprintMyShopSelectItem(Clone)/Image/OKBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShopBlueprintMyShopUpload(Clone)/Image/Btns/OKBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShopBlueprint(Clone)/BackBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップを閉じましょ。</t>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームに戻りましょ。</t>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShopBlueprint(Clone)/ToggleBtns/Toggle (1)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -978,9 +1029,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}" name="テーブル1" displayName="テーブル1" ref="A1:I43" totalsRowShown="0">
-  <autoFilter ref="A1:I43" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}" name="テーブル1" displayName="テーブル1" ref="A1:K51" totalsRowShown="0">
+  <autoFilter ref="A1:K51" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{4DFE80C9-2B21-485D-9D6B-903F491DD911}" name="ID"/>
     <tableColumn id="2" xr3:uid="{26AC1C6D-BEB5-4CFC-A3C3-EA035AA87DC0}" name="Des"/>
     <tableColumn id="4" xr3:uid="{89652C51-89E2-4DE8-9D02-D00D77EA8A96}" name="CellName"/>
@@ -990,6 +1041,8 @@
     <tableColumn id="7" xr3:uid="{278C20F7-3452-4513-8919-E3803D41F0E2}" name="MsgSizeX"/>
     <tableColumn id="8" xr3:uid="{76220153-7491-44A8-A059-5B399462F567}" name="MsgSizeY"/>
     <tableColumn id="9" xr3:uid="{94FD7B2F-D9CA-4F3E-A0CD-D082451C06AB}" name="HideHand"/>
+    <tableColumn id="10" xr3:uid="{6D710CC4-132D-45B1-AE78-E2D2FF886555}" name="NextMask"/>
+    <tableColumn id="11" xr3:uid="{2B826DA7-04E9-4545-9027-9D36246E55BE}" name="AutoMove"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1292,23 +1345,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE3D9C-AA04-4128-A1A9-BF15679480E0}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="8.625" customWidth="1"/>
     <col min="3" max="3" width="48.875" customWidth="1"/>
-    <col min="4" max="4" width="69" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1334,10 +1387,16 @@
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1345,15 +1404,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1367,22 +1423,25 @@
       <c r="H3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="D4" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="G4">
         <v>500</v>
@@ -1390,22 +1449,28 @@
       <c r="H4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G5">
         <v>500</v>
@@ -1414,15 +1479,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1437,15 +1502,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1460,21 +1525,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>-50</v>
       </c>
       <c r="G8">
         <v>500</v>
@@ -1483,21 +1548,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>500</v>
@@ -1506,21 +1571,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G10">
         <v>500</v>
@@ -1528,19 +1593,16 @@
       <c r="H10">
         <v>100</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1555,7 +1617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1563,7 +1625,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1581,15 +1643,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1601,21 +1663,18 @@
         <v>500</v>
       </c>
       <c r="H13">
-        <v>200</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1629,45 +1688,51 @@
       <c r="H14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="G15">
         <v>500</v>
       </c>
       <c r="H15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="G16">
         <v>500</v>
@@ -1676,15 +1741,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1704,16 +1769,16 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-50</v>
+        <v>150</v>
       </c>
       <c r="G18">
         <v>500</v>
@@ -1722,21 +1787,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-50</v>
+        <v>150</v>
       </c>
       <c r="G19">
         <v>500</v>
@@ -1750,16 +1815,16 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G20">
         <v>500</v>
@@ -1773,16 +1838,16 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-100</v>
+        <v>150</v>
       </c>
       <c r="G21">
         <v>500</v>
@@ -1796,16 +1861,16 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>-50</v>
       </c>
       <c r="G22">
         <v>500</v>
@@ -1813,65 +1878,62 @@
       <c r="H22">
         <v>100</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="G23">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="H23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24">
         <v>500</v>
       </c>
       <c r="H24">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1886,21 +1948,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G26">
         <v>500</v>
@@ -1908,68 +1970,71 @@
       <c r="H26">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="G27">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="H27">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
+        <v>86</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>500</v>
+      </c>
+      <c r="H28">
         <v>150</v>
       </c>
-      <c r="G28">
-        <v>500</v>
-      </c>
-      <c r="H28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G29">
         <v>500</v>
@@ -1978,21 +2043,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G30">
         <v>500</v>
@@ -2006,16 +2071,16 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G31">
         <v>500</v>
@@ -2029,16 +2094,16 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>-100</v>
+        <v>150</v>
       </c>
       <c r="G32">
         <v>500</v>
@@ -2047,21 +2112,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>500</v>
@@ -2070,21 +2135,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="C34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" t="s">
-        <v>42</v>
+      <c r="D34" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>500</v>
@@ -2092,22 +2154,28 @@
       <c r="H34">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" t="s">
-        <v>41</v>
+        <v>89</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>500</v>
@@ -2116,41 +2184,38 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>500</v>
       </c>
       <c r="H36">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="131.25" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>77</v>
+      <c r="D37" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="E37">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2159,24 +2224,30 @@
         <v>500</v>
       </c>
       <c r="H37">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>500</v>
@@ -2184,22 +2255,28 @@
       <c r="H38">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-150</v>
+        <v>100</v>
       </c>
       <c r="G39">
         <v>500</v>
@@ -2208,99 +2285,292 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>66</v>
+        <v>97</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
       </c>
       <c r="E40">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G40">
         <v>500</v>
       </c>
       <c r="H40">
-        <v>150</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="187.5" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>78</v>
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="G41">
         <v>500</v>
       </c>
       <c r="H41">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="168.75" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>72</v>
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="G42">
         <v>500</v>
       </c>
       <c r="H42">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="93.75" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
       </c>
       <c r="E43">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="G43">
         <v>500</v>
       </c>
       <c r="H43">
-        <v>300</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>500</v>
+      </c>
+      <c r="H44">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="168.75" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45">
+        <v>-100</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>500</v>
+      </c>
+      <c r="H45">
+        <v>350</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>500</v>
+      </c>
+      <c r="H46">
+        <v>150</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>500</v>
+      </c>
+      <c r="H47">
+        <v>400</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>500</v>
+      </c>
+      <c r="H48">
+        <v>350</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+      <c r="G49">
+        <v>500</v>
+      </c>
+      <c r="H49">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+      <c r="G50">
+        <v>500</v>
+      </c>
+      <c r="H50">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+      <c r="G51">
+        <v>500</v>
+      </c>
+      <c r="H51">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2318,7 +2588,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2328,7 +2598,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -2338,7 +2608,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -2348,7 +2618,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -2358,47 +2628,47 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD31E398-ECA8-4784-97D9-A3CF9CA424AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF543B7-1A56-400D-A7A0-7835D7138267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24525" windowHeight="12975" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24525" windowHeight="12975" activeTab="1" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="107">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -636,13 +636,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>指定したいObject</t>
-    <rPh sb="0" eb="2">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表しするメッセージ</t>
     <rPh sb="0" eb="1">
       <t>ヒョウ</t>
@@ -821,6 +814,78 @@
   </si>
   <si>
     <t>ShopBlueprint(Clone)/ToggleBtns/Toggle (1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数の会話が必要な場合１を設定します。（例えば、ボタンAをする前に会話したい場合）</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カイワ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したいObject（AutoMoveが１に設定されてある場合、移動したいObject名（会話できる商人とか）を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動移動が必要場合、１を設定します。</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1347,11 +1412,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE3D9C-AA04-4128-A1A9-BF15679480E0}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1390,10 +1455,10 @@
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
@@ -1409,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1435,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1464,7 +1529,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1769,10 +1834,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
         <v>82</v>
-      </c>
-      <c r="D18" t="s">
-        <v>83</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1792,10 +1857,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
         <v>84</v>
-      </c>
-      <c r="D19" t="s">
-        <v>85</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2002,7 +2067,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>52</v>
@@ -2025,7 +2090,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
@@ -2140,7 +2205,7 @@
         <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2166,10 +2231,10 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2189,10 +2254,10 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2212,7 +2277,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2238,10 +2303,10 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2267,7 +2332,7 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
         <v>20</v>
@@ -2290,7 +2355,7 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
         <v>21</v>
@@ -2336,7 +2401,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
         <v>37</v>
@@ -2359,7 +2424,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D43" t="s">
         <v>36</v>
@@ -2382,7 +2447,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>48</v>
@@ -2431,7 +2496,7 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>54</v>
@@ -2509,10 +2574,10 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2532,10 +2597,10 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2555,10 +2620,10 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2585,10 +2650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1245AE-0402-421C-A669-D9EE8B3964BA}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2628,37 +2693,37 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
@@ -2668,7 +2733,27 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF543B7-1A56-400D-A7A0-7835D7138267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BEC126-E4B9-4540-8003-0258540231DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24525" windowHeight="12975" activeTab="1" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
+    <workbookView xWindow="2895" yWindow="1485" windowWidth="24525" windowHeight="12975" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1412,11 +1412,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE3D9C-AA04-4128-A1A9-BF15679480E0}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1:K1"/>
+      <selection pane="bottomRight" activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2512,9 +2512,6 @@
       </c>
       <c r="H46">
         <v>150</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="206.25" x14ac:dyDescent="0.4">
@@ -2652,8 +2649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1245AE-0402-421C-A669-D9EE8B3964BA}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BEC126-E4B9-4540-8003-0258540231DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385CE4FE-AF12-4EC4-A9C4-8BEB076AB291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1485" windowWidth="24525" windowHeight="12975" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="16605" windowHeight="15000" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -71,14 +80,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「石のブロック」を選択してみよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「空の設計図」を選択してみよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Bag(Clone)/Image/SelectItemBar/Button (1)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -103,22 +104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「プロフィール」をタップしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「マイショップ」をタップしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アップロード枠をタップしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「設計図を選択ボタン」をタップしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CreateBlock</t>
   </si>
   <si>
@@ -170,81 +155,252 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「OK」ボタンをタップしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計図を選択しよう。</t>
+    <t>ガイドのステップ設定ファイルです。</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡単説明</t>
+    <rPh sb="0" eb="2">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表しするメッセージ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ座標</t>
+    <rPh sb="5" eb="7">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MsgPosX、MsgPosY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MsgSizeX、MsgSizeY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージボックスサイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンドを隠れるかのタグ</t>
+    <rPh sb="4" eb="5">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu(Clone)/BG/Btns/PersonalMessageBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Message1~3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NextMask</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BlueprintReName(Clone)/BG/PhotographBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BlueprintPreview(Clone)/PhotographBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home/MenuBtn/Image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home/MapBtn/Image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Map(Clone)/Image/HomeBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AutoMove</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shop04(Clone)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShopBlueprint(Clone)/ToggleBtns/Toggle (3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShopBlueprint(Clone)/MyShop/MyShopCell (1)/Icon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShopBlueprintMyShopSelectItem(Clone)/Image/Scroll View/Viewport/Content/IconItem(Clone)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShopBlueprintMyShopSelectItem(Clone)/Image/OKBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShopBlueprintMyShopUpload(Clone)/Image/Btns/OKBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShopBlueprint(Clone)/BackBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShopBlueprint(Clone)/ToggleBtns/Toggle (1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数の会話が必要な場合１を設定します。（例えば、ボタンAをする前に会話したい場合）</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カイワ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したいObject（AutoMoveが１に設定されてある場合、移動したいObject名（会話できる商人とか）を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動移動が必要場合、１を設定します。</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>『クラフト物語』の世界へようこそ！
+この世界は、すべてブロックでできてるぴ。</t>
+    <rPh sb="5" eb="7">
+      <t>モノガタリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「もちもの」ボタンをタップして
+もちものを確認してみるぴ。</t>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「石のブロック」を選択してみるぴ！</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>アイテムパレットをタップして、
-「石のブロック」をセットしよう！</t>
+「石のブロック」をセットするぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「空の設計図」を選択してみるぴ！</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>アイテムパレットをタップして、
-「空の設計図」をセットしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「設計図作成」ボタンをタップして、
-設計図を完成させよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計図の名前を設定しよう。</t>
-    <rPh sb="0" eb="3">
-      <t>セッケイズ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「もちもの」ボタンをタップして
-もちものを確認しよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自分で作成した「設計図」を選択しよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>地面をタップして、設計図を設置しよう。</t>
-    <rPh sb="13" eb="15">
-      <t>セッチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ニックネームを設定しよう！
-※後から変更できるよ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ニックネームを入力しよう。</t>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">「空の設計図」をタップして、
-</t>
-    </r>
+「空の設計図」をセットするぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="游ゴシック"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>&lt;color=red&gt;選択中&lt;/color&gt;</t>
+      <t>「x」</t>
     </r>
     <r>
       <rPr>
@@ -255,46 +411,8 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>にしよう！</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>ソラ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>セッケイズ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;b&gt;設計図の値段を決めることができるよ。&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-まずは気にせず「OK」ボタンをタップしよう！</t>
+      <t>ボタンで、
+もちもの画面を閉じるぴ。</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -333,7 +451,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>にしよう！</t>
+      <t>にするぴ。</t>
     </r>
     <rPh sb="29" eb="30">
       <t>チュウ</t>
@@ -341,8 +459,116 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>「石のブロック」を
+3つ積み上げてみるぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">「空の設計図」をタップして、
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;color=red&gt;選択中&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>にするぴ。</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>ソラ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>地面をタップして、
-設計図の始点を決めよう！</t>
+どこからコピーするかを決めるぴ。</t>
+    <rPh sb="21" eb="22">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面をタップして、
+コピーする範囲を決めるぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計図の名前を設定するぴ。</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>撮影ボタンを押してプレビューを開くぴ。</t>
+    <rPh sb="0" eb="2">
+      <t>サツエイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>撮影ボタンを押して撮影してみるぴ。</t>
+    <rPh sb="9" eb="11">
+      <t>サツエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前を設定したら「OK」ボタンを
+タップして設計図を完成させるぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「もちもの」ボタンをタップして
+もちものを確認するぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分で作成した「設計図」を選択するぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムパレットをタップして、
+「設計図」をセットするぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「x」ボタンで、
+もちもの画面を閉じるぴ！</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -370,165 +596,191 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;/color&gt;にしよう！</t>
+      <t>&lt;/color&gt;にするぴ！</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>地面をタップして、設計図を設置するぴ。</t>
+    <rPh sb="13" eb="15">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「設計図」に必要なアイテムがあれば
+簡単にコピーした設計図を作れるぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回は、キャンセルするぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>「設計図」は建築のコピー以外に、
-全ユーザーに公開することもできる！
-「メニュー」をタップしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「OK」ボタンをタップして設定しよう。</t>
+全ユーザーに公開することもできるぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計図を公開するにはニックネームが必要ぴ。
+「メニュー」をタップするぴ！</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「プロフィール」をタップするぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニックネームを設定してみるぴ！
+後から変更もできるぴ。</t>
+    <rPh sb="16" eb="17">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニックネームを入力するぴ。</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「OK」ボタンをタップして設定完了ぴ。</t>
     <rPh sb="13" eb="15">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>下にスクロールして
-「&lt;color=cyan&gt;</t>
-    </r>
+    <rPh sb="15" eb="17">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「x」ボタンで、
+プロフィール画面を閉じるぴ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準備は完了っぴ！
+「クラフト物語」の世界へようこそ！</t>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずは、ブロックを置いてみるぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここでは、ブロックを積み上げて、
+家や世界だってつくれるぴ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「設計図作成」ボタンをタップして、
+設計図を完成するぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「マップ」を押して、
+ブロックの世界へ飛び込むぴ！</t>
+    <rPh sb="16" eb="18">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ホーム」へ戻って、家を作ってみるぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムパレットへブロックをプレゼントしたので、使ってみてほしいぴ！</t>
+    <rPh sb="24" eb="25">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショップを閉じて、お買い物を楽しんでね！</t>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイショップに行ってみるぴ。</t>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～移動中～</t>
+    <rPh sb="1" eb="4">
+      <t>イドウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「マイショップ」をタップしてみるぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップロード枠をタップしてみるぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「設計図を選択ボタン」をタップするぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計図を選択してみるぴ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「OK」ボタンをタップするぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color theme="4"/>
+        <color theme="1"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>設計図市場（せっけいずいちば）&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>」タブをタップしよう！</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前を設定したら「OK」ボタンを
-タップして設計図を完成させよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「石のブロック」を
-3つ積み上げてみよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテムパレットをタップして、
-「設計図」をセットしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>地面をタップして、
-設計図の終点を決めよう！
-これで、視点と終点で囲った範囲の建築物をコピーできる！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>なんと「&lt;color=yellow&gt;&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ポイント</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/b&gt;&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>」は、
-「&lt;color=red&gt;&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Amazonギフト券&lt;/b&gt;&lt;/color&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">」
-に交換することもできる！！
-どんどん「Amazonギフト券」を手に入れて、私生活も充実しちゃおう！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;color=cyan&gt;詳しくは、「メニュー」→「お知らせ」→
-「各種アイテムについて」を見てね！&lt;/color&gt;
-</t>
+      <t>&lt;b&gt;設計図の値段を決めることができるぴ。&lt;/b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -540,351 +792,58 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-「メニュー」をタップしよう。</t>
+まずは気にせず「OK」ボタンをタップするぴ！</t>
     </r>
-    <rPh sb="166" eb="168">
-      <t>カクシュ</t>
-    </rPh>
-    <rPh sb="178" eb="179">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「x」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ボタンで、
-もちもの画面を閉じよう！</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「x」ボタンで、
-もちもの画面を閉じよう！</t>
-  </si>
-  <si>
-    <t>「x」ボタンで、
-プロフィール画面を閉じよう！</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;これでアップロード完了！&lt;/b&gt;
-「x」ボタンをタップして、マイショップ画面を閉じよう！
-&lt;color=cyan&gt;※マイショップに設計図をアップロードしても、設計図は消費されないよ&lt;/color&gt;
-※自分のホームへ設計図を設置した時に、消費されるよ</t>
-    <rPh sb="128" eb="129">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ここでは、全ユーザーがアップロードした設計図を見れるよ！
-&lt;b&gt;気に入った設計図は、ゲーム内アイテム
-「ポイント」を消費してゲットできる！&lt;/b&gt;
-設計図を購入すると、その設計図を作成したユーザーへ「ポイント」が贈られるぞ！
-「x」ボタンで、
-ショップ画面を閉じよう！</t>
-    <rPh sb="23" eb="24">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「設計図」に必要なアイテムがあれば
-簡単にコピーした設計図を作れる！
-今回は、キャンセルしよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ガイドのステップ設定ファイルです。</t>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>唯一のID</t>
-    <rPh sb="0" eb="2">
-      <t>ユイイツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>簡単説明</t>
-    <rPh sb="0" eb="2">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表しするメッセージ</t>
-    <rPh sb="0" eb="1">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メッセージ座標</t>
-    <rPh sb="5" eb="7">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MsgPosX、MsgPosY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MsgSizeX、MsgSizeY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メッセージボックスサイズ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハンドを隠れるかのタグ</t>
-    <rPh sb="4" eb="5">
-      <t>カク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Menu(Clone)/BG/Btns/PersonalMessageBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Message1~3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「もちもの」ボタンをタップして
-もちものを確認しましょう！111</t>
-    <rPh sb="21" eb="23">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「もちもの」ボタンをタップして
-もちものを確認しましょう！222</t>
-    <rPh sb="21" eb="23">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「もちもの」ボタンをタップして
-もちものを確認しましょう！333</t>
-    <rPh sb="21" eb="23">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NextMask</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BlueprintReName(Clone)/BG/PhotographBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>撮影ボタンを押してください。</t>
-    <rPh sb="0" eb="2">
-      <t>サツエイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BlueprintPreview(Clone)/PhotographBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>撮影ボタンを押してください2。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Home/MenuBtn/Image</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>準備は終了っぴ！「クラフト物語」の世界へようこそ！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家に戻りましょ。</t>
-  </si>
-  <si>
-    <t>Home/MapBtn/Image</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Map(Clone)/Image/HomeBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップボタンを押してください。</t>
-    <rPh sb="7" eb="8">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイショップに行ってみましょ。</t>
-    <rPh sb="7" eb="8">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AutoMove</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動中です。</t>
-    <rPh sb="0" eb="3">
-      <t>イドウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shop04(Clone)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ShopBlueprint(Clone)/ToggleBtns/Toggle (3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ShopBlueprint(Clone)/MyShop/MyShopCell (1)/Icon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ShopBlueprintMyShopSelectItem(Clone)/Image/Scroll View/Viewport/Content/IconItem(Clone)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ShopBlueprintMyShopSelectItem(Clone)/Image/OKBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ShopBlueprintMyShopUpload(Clone)/Image/Btns/OKBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ShopBlueprint(Clone)/BackBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ショップを閉じましょ。</t>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ホームに戻りましょ。</t>
-    <rPh sb="4" eb="5">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ShopBlueprint(Clone)/ToggleBtns/Toggle (1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>複数の会話が必要な場合１を設定します。（例えば、ボタンAをする前に会話したい場合）</t>
-    <rPh sb="0" eb="2">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイワ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>タト</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>カイワ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指定したいObject（AutoMoveが１に設定されてある場合、移動したいObject名（会話できる商人とか）を指定します。</t>
-    <rPh sb="0" eb="2">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自動移動が必要場合、１を設定します。</t>
-    <rPh sb="0" eb="2">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セッテイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;color=cyan&gt;マイショップに設計図をアップロードしても、設計図は消費されないぴ&lt;/color&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分のホームへ設計図を設置した時に、消費されるぴ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計図を購入すると、その設計図を作成したユーザーへ「ポイント」が贈られるぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんと「&lt;color=yellow&gt;&lt;b&gt;ポイント&lt;/b&gt;&lt;/color&gt; 」は、
+「&lt;color=red&gt;&lt;b&gt;Amazonギフト券&lt;/b&gt;&lt;/color&gt; 」
+に交換することもできるぴ！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんどん「Amazonギフト券」を手に入れて、私生活も充実しちゃおうぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;color=cyan&gt;詳しくは、「メニュー」→「お知らせ」→
+「各種アイテムについて」を見てぴ！&lt;/color&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;これでアップロード完了！&lt;/b&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここでは、クラフターの皆さんが
+アップロードした設計図を見れるぴ！</t>
+    <rPh sb="11" eb="12">
+      <t>ミナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気に入った設計図は、&lt;b&gt;ゲーム内アイテム
+「ポイント」を消費してゲットできるぴ！&lt;/b&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「&lt;color=blue&gt;クラフター市場&lt;/color&gt;」タブをタップするぴ！</t>
+    <rPh sb="18" eb="20">
+      <t>イチバ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -893,7 +852,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,32 +893,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -968,14 +901,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -1064,16 +989,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,8 +1019,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}" name="テーブル1" displayName="テーブル1" ref="A1:K51" totalsRowShown="0">
-  <autoFilter ref="A1:K51" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}" name="テーブル1" displayName="テーブル1" ref="A1:K59" totalsRowShown="0">
+  <autoFilter ref="A1:K59" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{4DFE80C9-2B21-485D-9D6B-903F491DD911}" name="ID"/>
     <tableColumn id="2" xr3:uid="{26AC1C6D-BEB5-4CFC-A3C3-EA035AA87DC0}" name="Des"/>
@@ -1410,13 +1335,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE3D9C-AA04-4128-A1A9-BF15679480E0}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L45" sqref="L45"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1452,13 +1377,13 @@
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
@@ -1474,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1500,7 +1425,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1521,15 +1446,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1543,22 +1465,28 @@
       <c r="H5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="G6">
         <v>500</v>
@@ -1567,21 +1495,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="G7">
         <v>500</v>
@@ -1590,21 +1518,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>500</v>
@@ -1613,21 +1541,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="G9">
         <v>500</v>
@@ -1641,16 +1569,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>500</v>
@@ -1667,13 +1595,13 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G11">
         <v>500</v>
@@ -1687,10 +1615,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1703,9 +1631,6 @@
       </c>
       <c r="H12">
         <v>100</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
@@ -1713,10 +1638,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1729,6 +1654,9 @@
       </c>
       <c r="H13">
         <v>100</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
@@ -1736,10 +1664,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1753,19 +1681,16 @@
       <c r="H14">
         <v>100</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1777,7 +1702,7 @@
         <v>500</v>
       </c>
       <c r="H15">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1788,10 +1713,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1805,22 +1730,25 @@
       <c r="H16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="G17">
         <v>500</v>
@@ -1829,15 +1757,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1852,15 +1780,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1875,15 +1803,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1898,15 +1826,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1921,21 +1849,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>-50</v>
+        <v>150</v>
       </c>
       <c r="G22">
         <v>500</v>
@@ -1944,15 +1872,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1967,21 +1895,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>-50</v>
       </c>
       <c r="G24">
         <v>500</v>
@@ -1990,21 +1918,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G25">
         <v>500</v>
@@ -2013,21 +1941,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G26">
         <v>500</v>
@@ -2035,65 +1963,68 @@
       <c r="H26">
         <v>100</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F27">
-        <v>-100</v>
+        <v>150</v>
       </c>
       <c r="G27">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="H27">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G28">
         <v>500</v>
       </c>
       <c r="H28">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2108,21 +2039,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="G30">
         <v>500</v>
@@ -2130,45 +2058,51 @@
       <c r="H30">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="G31">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="H31">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="G32">
         <v>500</v>
@@ -2182,16 +2116,16 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G33">
         <v>500</v>
@@ -2200,30 +2134,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>86</v>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G34">
         <v>500</v>
       </c>
       <c r="H34">
         <v>100</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -2231,16 +2162,16 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G35">
         <v>500</v>
@@ -2249,16 +2180,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E36">
         <v>0</v>
       </c>
@@ -2272,12 +2203,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2298,16 +2229,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="E38">
         <v>0</v>
       </c>
@@ -2319,29 +2250,20 @@
       </c>
       <c r="H38">
         <v>100</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D39" t="s">
-        <v>20</v>
-      </c>
       <c r="E39">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F39">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G39">
         <v>500</v>
@@ -2349,19 +2271,25 @@
       <c r="H39">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D40" t="s">
-        <v>21</v>
-      </c>
       <c r="E40">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F40">
         <v>-100</v>
@@ -2377,23 +2305,26 @@
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="C41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" t="s">
-        <v>22</v>
+      <c r="D41" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>500</v>
       </c>
       <c r="H41">
         <v>100</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -2401,22 +2332,28 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>-150</v>
+        <v>-100</v>
       </c>
       <c r="G42">
         <v>500</v>
       </c>
       <c r="H42">
         <v>100</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -2424,16 +2361,16 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G43">
         <v>500</v>
@@ -2442,197 +2379,399 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>101</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G44">
         <v>500</v>
       </c>
       <c r="H44">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="168.75" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>63</v>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" t="s">
+        <v>102</v>
       </c>
       <c r="E45">
         <v>-100</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G45">
         <v>500</v>
       </c>
       <c r="H45">
-        <v>350</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E46">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="G46">
         <v>500</v>
       </c>
       <c r="H46">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="206.25" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>64</v>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" t="s">
+        <v>104</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G47">
         <v>500</v>
       </c>
       <c r="H47">
-        <v>400</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="243.75" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>59</v>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="H48">
-        <v>350</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="C49" t="s">
-        <v>100</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F49">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G49">
         <v>500</v>
       </c>
       <c r="H49">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="C50" t="s">
-        <v>88</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F50">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G50">
         <v>500</v>
       </c>
       <c r="H50">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="C51" t="s">
-        <v>89</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F51">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G51">
         <v>500</v>
       </c>
       <c r="H51">
-        <v>150</v>
+        <v>100</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52">
+        <v>-100</v>
+      </c>
+      <c r="G52">
+        <v>500</v>
+      </c>
+      <c r="H52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>-100</v>
+      </c>
+      <c r="G53">
+        <v>500</v>
+      </c>
+      <c r="H53">
+        <v>100</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>-100</v>
+      </c>
+      <c r="G54">
+        <v>500</v>
+      </c>
+      <c r="H54">
+        <v>100</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>-100</v>
+      </c>
+      <c r="G55">
+        <v>500</v>
+      </c>
+      <c r="H55">
+        <v>100</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>-100</v>
+      </c>
+      <c r="G56">
+        <v>500</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>-100</v>
+      </c>
+      <c r="G57">
+        <v>500</v>
+      </c>
+      <c r="H57">
+        <v>100</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>-100</v>
+      </c>
+      <c r="G58">
+        <v>500</v>
+      </c>
+      <c r="H58">
+        <v>100</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>100</v>
+      </c>
+      <c r="G59">
+        <v>500</v>
+      </c>
+      <c r="H59">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2660,7 +2799,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -2670,7 +2809,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -2680,7 +2819,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -2690,67 +2829,67 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385CE4FE-AF12-4EC4-A9C4-8BEB076AB291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E350878A-0B2D-43FD-9CC2-D60F351FE462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="16605" windowHeight="15000" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -844,6 +842,20 @@
     <t>「&lt;color=blue&gt;クラフター市場&lt;/color&gt;」タブをタップするぴ！</t>
     <rPh sb="18" eb="20">
       <t>イチバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップボタンを押すぴ。</t>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームに戻るぴ！</t>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1019,8 +1031,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}" name="テーブル1" displayName="テーブル1" ref="A1:K59" totalsRowShown="0">
-  <autoFilter ref="A1:K59" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}" name="テーブル1" displayName="テーブル1" ref="A1:K61" totalsRowShown="0">
+  <autoFilter ref="A1:K61" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{4DFE80C9-2B21-485D-9D6B-903F491DD911}" name="ID"/>
     <tableColumn id="2" xr3:uid="{26AC1C6D-BEB5-4CFC-A3C3-EA035AA87DC0}" name="Des"/>
@@ -1335,13 +1347,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE3D9C-AA04-4128-A1A9-BF15679480E0}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="H60" sqref="H60:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2771,6 +2783,52 @@
         <v>500</v>
       </c>
       <c r="H59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>100</v>
+      </c>
+      <c r="G60">
+        <v>500</v>
+      </c>
+      <c r="H60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61">
+        <v>150</v>
+      </c>
+      <c r="F61">
+        <v>-100</v>
+      </c>
+      <c r="G61">
+        <v>500</v>
+      </c>
+      <c r="H61">
         <v>100</v>
       </c>
     </row>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E350878A-0B2D-43FD-9CC2-D60F351FE462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E23629F-16BE-4F09-B83C-876F4CA8C8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
@@ -795,10 +795,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;color=cyan&gt;マイショップに設計図をアップロードしても、設計図は消費されないぴ&lt;/color&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自分のホームへ設計図を設置した時に、消費されるぴ。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -807,18 +803,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>なんと「&lt;color=yellow&gt;&lt;b&gt;ポイント&lt;/b&gt;&lt;/color&gt; 」は、
-「&lt;color=red&gt;&lt;b&gt;Amazonギフト券&lt;/b&gt;&lt;/color&gt; 」
-に交換することもできるぴ！！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>どんどん「Amazonギフト券」を手に入れて、私生活も充実しちゃおうぴ！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;color=cyan&gt;詳しくは、「メニュー」→「お知らせ」→
-「各種アイテムについて」を見てぴ！&lt;/color&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -857,6 +842,21 @@
     <rPh sb="4" eb="5">
       <t>モド</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;color=blue&gt;マイショップに設計図をアップロードしても、設計図は消費されないぴ&lt;/color&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;color=blue&gt;詳しくは、「メニュー」→「お知らせ」→
+「各種アイテムについて」を見てぴ！&lt;/color&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんと「&lt;color=red&gt;&lt;b&gt;ポイント&lt;/b&gt;&lt;/color&gt; 」は、
+「&lt;color=red&gt;&lt;b&gt;Amazonギフト券&lt;/b&gt;&lt;/color&gt; 」
+に交換することもできるぴ！！</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1350,10 +1350,10 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H60" sqref="H60:H61"/>
+      <selection pane="bottomRight" activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2511,7 +2511,7 @@
         <v>47</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E49">
         <v>-100</v>
@@ -2537,7 +2537,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E50">
         <v>-100</v>
@@ -2563,7 +2563,7 @@
         <v>49</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E51">
         <v>-100</v>
@@ -2592,7 +2592,7 @@
         <v>55</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E52">
         <v>100</v>
@@ -2612,7 +2612,7 @@
         <v>51</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>52</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>53</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>54</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>55</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>56</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>45</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>46</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E61">
         <v>150</v>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E23629F-16BE-4F09-B83C-876F4CA8C8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FCD32D-B006-40E6-A345-B212195DEC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
+    <workbookView xWindow="11490" yWindow="420" windowWidth="17055" windowHeight="14760" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,10 +243,6 @@
   </si>
   <si>
     <t>AutoMove</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Shop04(Clone)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -857,6 +853,10 @@
     <t>なんと「&lt;color=red&gt;&lt;b&gt;ポイント&lt;/b&gt;&lt;/color&gt; 」は、
 「&lt;color=red&gt;&lt;b&gt;Amazonギフト券&lt;/b&gt;&lt;/color&gt; 」
 に交換することもできるぴ！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object_3d_063(Clone)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1350,10 +1350,10 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J64" sqref="J64"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1561,7 +1561,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1702,7 +1702,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1823,7 +1823,7 @@
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1984,7 +1984,7 @@
         <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27">
         <v>-50</v>
@@ -2007,7 +2007,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28">
         <v>-50</v>
@@ -2036,7 +2036,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2085,7 +2085,7 @@
         <v>44</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>28</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>45</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E39">
         <v>150</v>
@@ -2298,7 +2298,7 @@
         <v>46</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E40">
         <v>150</v>
@@ -2318,7 +2318,7 @@
         <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2344,10 +2344,10 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2373,10 +2373,10 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E45">
         <v>-100</v>
@@ -2442,10 +2442,10 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2465,10 +2465,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>47</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E49">
         <v>-100</v>
@@ -2537,7 +2537,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E50">
         <v>-100</v>
@@ -2563,7 +2563,7 @@
         <v>49</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E51">
         <v>-100</v>
@@ -2589,10 +2589,10 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E52">
         <v>100</v>
@@ -2612,7 +2612,7 @@
         <v>51</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>52</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>53</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>54</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>55</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>56</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2768,10 +2768,10 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>45</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>46</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E61">
         <v>150</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -2937,7 +2937,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
@@ -2947,7 +2947,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FCD32D-B006-40E6-A345-B212195DEC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FA13AE-B3B9-40CA-8854-7F462123C661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11490" yWindow="420" windowWidth="17055" windowHeight="14760" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -51,9 +51,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Home/CubeBtns/BagBtn</t>
-  </si>
-  <si>
     <t>Bag(Clone)/Image/Scroll View/Viewport/Content/1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -90,14 +87,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Home/CubeBtns/Grid/0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Home/CubeBtns/Grid/1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Bag(Clone)/Image/Title/CloseBtn</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -113,10 +102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Home/BuilderPencil/BuilderBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BlueprintReName(Clone)/BG/InputField</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -126,10 +111,6 @@
   </si>
   <si>
     <t>Bag(Clone)/Image/Scroll View/Viewport/Content/3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Home/Blueprint/BlueprintBtns/BlueprintCancelBtn</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -227,10 +208,6 @@
   </si>
   <si>
     <t>BlueprintPreview(Clone)/PhotographBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Home/MenuBtn/Image</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -857,6 +834,34 @@
   </si>
   <si>
     <t>object_3d_063(Clone)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home(Clone)/Items/BagBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home(Clone)/Items/Grid/0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home(Clone)/Items/Grid/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home(Clone)/BuilderPencil/BuilderBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home(Clone)/Blueprint/BlueprintBtns/BlueprintCancelBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home(Clone)/MenuBtn/Image</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home(Clone)/MapBtn/Image</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1350,10 +1355,10 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1377,25 +1382,25 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
         <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
@@ -1403,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
@@ -1411,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1437,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1463,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1489,10 +1494,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1512,10 +1517,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1535,10 +1540,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1558,10 +1563,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1581,10 +1586,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1604,10 +1609,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1627,10 +1632,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1650,10 +1655,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1676,10 +1681,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1699,10 +1704,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1725,10 +1730,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1751,10 +1756,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1774,10 +1779,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1797,10 +1802,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1820,10 +1825,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1843,10 +1848,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1866,10 +1871,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1889,10 +1894,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1912,10 +1917,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1935,10 +1940,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1958,10 +1963,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1981,10 +1986,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E27">
         <v>-50</v>
@@ -2007,7 +2012,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E28">
         <v>-50</v>
@@ -2033,10 +2038,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2056,7 +2061,7 @@
         <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2082,10 +2087,10 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2105,10 +2110,10 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2128,10 +2133,10 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2151,10 +2156,10 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2174,10 +2179,10 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2197,10 +2202,10 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2220,7 +2225,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2246,10 +2251,10 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2269,7 +2274,7 @@
         <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E39">
         <v>150</v>
@@ -2295,10 +2300,10 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E40">
         <v>150</v>
@@ -2318,7 +2323,7 @@
         <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2344,10 +2349,10 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2373,10 +2378,10 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2396,10 +2401,10 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2419,10 +2424,10 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E45">
         <v>-100</v>
@@ -2442,10 +2447,10 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2465,10 +2470,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2488,10 +2493,10 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2511,7 +2516,7 @@
         <v>47</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E49">
         <v>-100</v>
@@ -2537,7 +2542,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E50">
         <v>-100</v>
@@ -2563,7 +2568,7 @@
         <v>49</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E51">
         <v>-100</v>
@@ -2589,10 +2594,10 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E52">
         <v>100</v>
@@ -2612,7 +2617,7 @@
         <v>51</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2638,7 +2643,7 @@
         <v>52</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2664,7 +2669,7 @@
         <v>53</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2690,7 +2695,7 @@
         <v>54</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2716,7 +2721,7 @@
         <v>55</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2742,7 +2747,7 @@
         <v>56</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2768,10 +2773,10 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2791,10 +2796,10 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2814,10 +2819,10 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E61">
         <v>150</v>
@@ -2857,7 +2862,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -2867,7 +2872,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -2877,7 +2882,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -2887,67 +2892,67 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FA13AE-B3B9-40CA-8854-7F462123C661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0DAC20-6776-48F0-93E5-FC5E97B3D604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -208,10 +208,6 @@
   </si>
   <si>
     <t>BlueprintPreview(Clone)/PhotographBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Home/MapBtn/Image</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1355,10 +1351,10 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1400,7 +1396,7 @@
         <v>36</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
@@ -1416,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1442,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1468,7 +1464,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1494,10 +1490,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1520,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1543,7 +1539,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1566,7 +1562,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1589,7 +1585,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1612,7 +1608,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1632,10 +1628,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1658,7 +1654,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1681,10 +1677,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1707,7 +1703,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1733,7 +1729,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1756,10 +1752,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1782,7 +1778,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1805,7 +1801,7 @@
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1828,7 +1824,7 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1851,7 +1847,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1871,10 +1867,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1897,7 +1893,7 @@
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1920,7 +1916,7 @@
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1943,7 +1939,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1963,10 +1959,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1989,7 +1985,7 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27">
         <v>-50</v>
@@ -2012,7 +2008,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28">
         <v>-50</v>
@@ -2038,10 +2034,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2061,7 +2057,7 @@
         <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2087,10 +2083,10 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2113,7 +2109,7 @@
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2136,7 +2132,7 @@
         <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2159,7 +2155,7 @@
         <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2182,7 +2178,7 @@
         <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2205,7 +2201,7 @@
         <v>23</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2225,7 +2221,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2251,10 +2247,10 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2274,7 +2270,7 @@
         <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E39">
         <v>150</v>
@@ -2300,10 +2296,10 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E40">
         <v>150</v>
@@ -2323,7 +2319,7 @@
         <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2349,10 +2345,10 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2378,10 +2374,10 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2401,10 +2397,10 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2427,7 +2423,7 @@
         <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E45">
         <v>-100</v>
@@ -2447,10 +2443,10 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2470,10 +2466,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2493,10 +2489,10 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2516,7 +2512,7 @@
         <v>47</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E49">
         <v>-100</v>
@@ -2542,7 +2538,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E50">
         <v>-100</v>
@@ -2568,7 +2564,7 @@
         <v>49</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E51">
         <v>-100</v>
@@ -2594,10 +2590,10 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E52">
         <v>100</v>
@@ -2617,7 +2613,7 @@
         <v>51</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2643,7 +2639,7 @@
         <v>52</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2669,7 +2665,7 @@
         <v>53</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2695,7 +2691,7 @@
         <v>54</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2721,7 +2717,7 @@
         <v>55</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2747,7 +2743,7 @@
         <v>56</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2773,10 +2769,10 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2796,10 +2792,10 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2819,10 +2815,10 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E61">
         <v>150</v>
@@ -2892,7 +2888,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -2942,17 +2938,17 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D295D8B0-E4EE-4E30-BE55-6157AA2DABBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D25E59-ED48-4479-AC76-2B1922298EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
@@ -822,20 +822,6 @@
   </si>
   <si>
     <t>Home(Clone)/MenuBtn/Image</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計図を公開するにはニックネームが必要ぴ。
-「メニュー」をタップするぴ！</t>
-    <rPh sb="0" eb="3">
-      <t>セッケイズ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒツヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1124,6 +1110,10 @@
   </si>
   <si>
     <t>/Canvas2/Guide/BagMask</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「メニュー」をタップするぴ！</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1642,10 +1632,10 @@
   <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M31" sqref="M31"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1699,10 +1689,10 @@
         <v>138</v>
       </c>
       <c r="N1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2025,7 +2015,7 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="O14" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1">
@@ -2084,7 +2074,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2355,7 +2345,7 @@
       <c r="I27"/>
       <c r="J27"/>
       <c r="N27" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="4" customFormat="1" ht="37.5">
@@ -2419,7 +2409,7 @@
         <v>28</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2445,7 +2435,7 @@
         <v>29</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2471,7 +2461,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2518,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="4" customFormat="1" ht="37.5">
@@ -2529,7 +2519,7 @@
         <v>137</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2551,7 +2541,7 @@
         <v>37</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="4" customFormat="1" ht="37.5">
@@ -2580,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="4" customFormat="1" ht="37.5">
@@ -2614,7 +2604,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2661,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="37.5">
+    <row r="39" spans="1:15">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -2669,7 +2659,7 @@
         <v>141</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2689,10 +2679,10 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2712,7 +2702,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>100</v>
@@ -2735,10 +2725,10 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2758,7 +2748,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>119</v>
@@ -2781,7 +2771,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>60</v>
@@ -2804,7 +2794,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2830,7 +2820,7 @@
         <v>44</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2929,7 +2919,7 @@
         <v>101</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2955,7 +2945,7 @@
         <v>102</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3053,7 +3043,7 @@
         <v>11</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3076,7 +3066,7 @@
         <v>88</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3358,7 +3348,7 @@
         <v>88</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3505,7 +3495,7 @@
         <v>125</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3532,7 +3522,7 @@
         <v>126</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3778,7 +3768,7 @@
         <v>37</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4259,22 +4249,22 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D25E59-ED48-4479-AC76-2B1922298EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486807CC-1ADB-44F3-801F-A13439491EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
@@ -188,10 +188,6 @@
   </si>
   <si>
     <t>ShopBlueprint(Clone)/ToggleBtns/Toggle (3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ShopBlueprint(Clone)/MyShop/MyShopCell (1)/Icon</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1114,6 +1110,10 @@
   </si>
   <si>
     <t>「メニュー」をタップするぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShopBlueprint(Clone)/MyShop/MyShopCells/MyShopCell (1)/Icon</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1632,16 +1632,16 @@
   <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="48.875" customWidth="1"/>
+    <col min="3" max="3" width="62.125" customWidth="1"/>
     <col min="4" max="4" width="61" customWidth="1"/>
     <col min="12" max="12" width="13.5" customWidth="1"/>
     <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
@@ -1683,16 +1683,16 @@
         <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7">
         <v>-150</v>
@@ -1841,10 +1841,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>-150</v>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="C9"/>
       <c r="D9" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9">
         <v>-150</v>
@@ -1893,10 +1893,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10">
         <v>-150</v>
@@ -1918,7 +1918,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11">
         <v>-150</v>
@@ -1944,10 +1944,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12">
         <v>-150</v>
@@ -1969,7 +1969,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13">
         <v>-150</v>
@@ -1995,10 +1995,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E14">
         <v>-150</v>
@@ -2015,7 +2015,7 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="O14" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="4" customFormat="1">
@@ -2023,10 +2023,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2100,10 +2100,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2275,10 +2275,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2303,7 +2303,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2325,10 +2325,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2345,7 +2345,7 @@
       <c r="I27"/>
       <c r="J27"/>
       <c r="N27" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="4" customFormat="1" ht="37.5">
@@ -2356,7 +2356,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>27</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>28</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>29</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2461,7 +2461,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>31</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E33">
         <v>-130</v>
@@ -2508,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="4" customFormat="1" ht="37.5">
@@ -2516,10 +2516,10 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>37</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="4" customFormat="1" ht="37.5">
@@ -2549,7 +2549,7 @@
         <v>33</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="4" customFormat="1" ht="37.5">
@@ -2578,7 +2578,7 @@
         <v>34</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>36</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2656,10 +2656,10 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2702,10 +2702,10 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2748,10 +2748,10 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2771,10 +2771,10 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>44</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2847,7 +2847,7 @@
         <v>45</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2873,10 +2873,10 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E48">
         <v>150</v>
@@ -2899,7 +2899,7 @@
         <v>31</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E49">
         <v>150</v>
@@ -2919,7 +2919,7 @@
         <v>101</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2928,7 +2928,7 @@
         <v>-100</v>
       </c>
       <c r="G50">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="H50">
         <v>100</v>
@@ -2945,7 +2945,7 @@
         <v>102</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2971,10 +2971,10 @@
         <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>10</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>11</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3063,10 +3063,10 @@
         <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>12</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>12</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3138,10 +3138,10 @@
         <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>15</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>29</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>30</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>16</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3253,10 +3253,10 @@
         <v>115</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3276,10 +3276,10 @@
         <v>116</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>10</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>11</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3345,10 +3345,10 @@
         <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3371,7 +3371,7 @@
         <v>14</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E69">
         <v>-50</v>
@@ -3394,7 +3394,7 @@
         <v>121</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E70">
         <v>-50</v>
@@ -3420,10 +3420,10 @@
         <v>122</v>
       </c>
       <c r="C71" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>123</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>124</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>125</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3504,7 +3504,7 @@
         <v>-100</v>
       </c>
       <c r="G74">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="H74">
         <v>100</v>
@@ -3522,7 +3522,7 @@
         <v>126</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3549,10 +3549,10 @@
         <v>127</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3575,7 +3575,7 @@
         <v>31</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E77">
         <v>150</v>
@@ -3595,7 +3595,7 @@
         <v>201</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3621,10 +3621,10 @@
         <v>202</v>
       </c>
       <c r="C79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>33</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>204</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3699,7 +3699,7 @@
         <v>17</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E82">
         <v>-100</v>
@@ -3719,10 +3719,10 @@
         <v>206</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>207</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3765,10 +3765,10 @@
         <v>208</v>
       </c>
       <c r="C85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>209</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E86">
         <v>-100</v>
@@ -3814,7 +3814,7 @@
         <v>210</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E87">
         <v>-100</v>
@@ -3840,7 +3840,7 @@
         <v>211</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E88">
         <v>-100</v>
@@ -3866,10 +3866,10 @@
         <v>212</v>
       </c>
       <c r="C89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E89">
         <v>100</v>
@@ -3889,7 +3889,7 @@
         <v>213</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>214</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3941,7 +3941,7 @@
         <v>215</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3967,7 +3967,7 @@
         <v>216</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3993,7 +3993,7 @@
         <v>217</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>218</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4045,10 +4045,10 @@
         <v>219</v>
       </c>
       <c r="C96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4068,10 +4068,10 @@
         <v>220</v>
       </c>
       <c r="C97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -4094,7 +4094,7 @@
         <v>31</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E98">
         <v>150</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -4214,7 +4214,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -4224,47 +4224,47 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486807CC-1ADB-44F3-801F-A13439491EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1016DEC4-BE19-4FD2-9460-8B64DCAE8E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
@@ -1632,10 +1632,10 @@
   <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C81" sqref="C81"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2522,10 +2522,10 @@
         <v>168</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F34">
-        <v>-100</v>
+        <v>140</v>
       </c>
       <c r="G34">
         <v>730</v>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1016DEC4-BE19-4FD2-9460-8B64DCAE8E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FB1525-4885-402F-8BB3-6C849580C93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="196">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1116,12 +1116,146 @@
     <t>ShopBlueprint(Clone)/MyShop/MyShopCells/MyShopCell (1)/Icon</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Equip(Clone)/Image/Weapon/Weapon/WeaponIcon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器アイコンをタップしてみるぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器を装備してみよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EquipList(Clone)/Image/Scroll View/Viewport/Parent/10001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の剣をタップしてみよう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した装備のステータスを確認することができるよ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この武器はまだスキルがわからないね。
+「スキル判定」ボタンを押して鑑定してみよう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EquipList(Clone)/Image/Image/ParameterPlan/AppraisalBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EquipList(Clone)/Image/Image/ParameterPlan/EquipBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つぎは、鑑定したスキルを見てみよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EquipList(Clone)/Image/Scroll View/Viewport/Parent/10001/Skills/SkillCell (1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SkillExplanation(Clone)/Image/Title/CloseBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルアイコンをタップしてみるぴ！</t>
+  </si>
+  <si>
+    <t>武器によってスキルが違うから、
+いろんな武器を鑑定して、最強の武器を見つけてみてね！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の剣を装備してみよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ボタンを押すぴ。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これで装備は完了だぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備武器のスキルは、ここからも確認できるぴ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ボタンで閉じるぴ！</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Equip(Clone)/Image/Title/CloseBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Equip(Clone)/Image/Skill/Skill/GridPanel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これで装備の練習は完了ぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「マップ」から「装備」に行って、
+実際に好きな武器を装備してみよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器が装備できたら、冒険に出発するぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1179,6 +1313,24 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1246,7 +1398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,6 +1428,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,8 +1467,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}" name="テーブル1" displayName="テーブル1" ref="A1:O98" totalsRowShown="0">
-  <autoFilter ref="A1:O98" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}" name="テーブル1" displayName="テーブル1" ref="A1:O116" totalsRowShown="0">
+  <autoFilter ref="A1:O116" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{4DFE80C9-2B21-485D-9D6B-903F491DD911}" name="ID"/>
     <tableColumn id="2" xr3:uid="{26AC1C6D-BEB5-4CFC-A3C3-EA035AA87DC0}" name="Des"/>
@@ -1629,13 +1787,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE3D9C-AA04-4128-A1A9-BF15679480E0}">
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4063,7 +4221,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:15">
       <c r="A97">
         <v>220</v>
       </c>
@@ -4086,7 +4244,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:15">
       <c r="A98">
         <v>221</v>
       </c>
@@ -4108,6 +4266,471 @@
       <c r="H98">
         <v>100</v>
       </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99">
+        <v>301</v>
+      </c>
+      <c r="D99" t="s">
+        <v>174</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>-100</v>
+      </c>
+      <c r="G99">
+        <v>500</v>
+      </c>
+      <c r="H99">
+        <v>100</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="M99" s="4"/>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100">
+        <v>302</v>
+      </c>
+      <c r="C100" t="s">
+        <v>172</v>
+      </c>
+      <c r="D100" t="s">
+        <v>173</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>-100</v>
+      </c>
+      <c r="G100">
+        <v>500</v>
+      </c>
+      <c r="H100">
+        <v>100</v>
+      </c>
+      <c r="M100" s="4"/>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101">
+        <v>303</v>
+      </c>
+      <c r="C101" t="s">
+        <v>175</v>
+      </c>
+      <c r="D101" t="s">
+        <v>176</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>-100</v>
+      </c>
+      <c r="G101">
+        <v>500</v>
+      </c>
+      <c r="H101">
+        <v>100</v>
+      </c>
+      <c r="M101" s="4"/>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102">
+        <v>304</v>
+      </c>
+      <c r="D102" t="s">
+        <v>177</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>-100</v>
+      </c>
+      <c r="G102">
+        <v>500</v>
+      </c>
+      <c r="H102">
+        <v>100</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="M102" s="4"/>
+    </row>
+    <row r="103" spans="1:15" ht="37.5">
+      <c r="A103">
+        <v>305</v>
+      </c>
+      <c r="C103" t="s">
+        <v>179</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>-100</v>
+      </c>
+      <c r="G103">
+        <v>550</v>
+      </c>
+      <c r="H103">
+        <v>100</v>
+      </c>
+      <c r="M103" s="4"/>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104">
+        <v>306</v>
+      </c>
+      <c r="D104" t="s">
+        <v>181</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>-100</v>
+      </c>
+      <c r="G104">
+        <v>500</v>
+      </c>
+      <c r="H104">
+        <v>100</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="M104" s="4"/>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105">
+        <v>307</v>
+      </c>
+      <c r="C105" t="s">
+        <v>182</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>-100</v>
+      </c>
+      <c r="G105">
+        <v>500</v>
+      </c>
+      <c r="H105">
+        <v>100</v>
+      </c>
+      <c r="M105" s="4"/>
+    </row>
+    <row r="106" spans="1:15" ht="37.5">
+      <c r="A106">
+        <v>308</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>-150</v>
+      </c>
+      <c r="G106">
+        <v>620</v>
+      </c>
+      <c r="H106">
+        <v>100</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="M106" s="4"/>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107">
+        <v>309</v>
+      </c>
+      <c r="C107" t="s">
+        <v>183</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>-100</v>
+      </c>
+      <c r="G107">
+        <v>500</v>
+      </c>
+      <c r="H107">
+        <v>100</v>
+      </c>
+      <c r="M107" s="4"/>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108">
+        <v>310</v>
+      </c>
+      <c r="C108" t="s">
+        <v>180</v>
+      </c>
+      <c r="D108" t="s">
+        <v>186</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>-100</v>
+      </c>
+      <c r="G108">
+        <v>500</v>
+      </c>
+      <c r="H108">
+        <v>100</v>
+      </c>
+      <c r="M108" s="4"/>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109">
+        <v>311</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>-100</v>
+      </c>
+      <c r="G109">
+        <v>500</v>
+      </c>
+      <c r="H109">
+        <v>100</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="M109" s="4"/>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110">
+        <v>312</v>
+      </c>
+      <c r="D110" t="s">
+        <v>189</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>-100</v>
+      </c>
+      <c r="G110">
+        <v>540</v>
+      </c>
+      <c r="H110">
+        <v>100</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="M110" s="4"/>
+      <c r="N110" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111">
+        <v>313</v>
+      </c>
+      <c r="C111" t="s">
+        <v>191</v>
+      </c>
+      <c r="D111" t="s">
+        <v>187</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>-100</v>
+      </c>
+      <c r="G111">
+        <v>500</v>
+      </c>
+      <c r="H111">
+        <v>100</v>
+      </c>
+      <c r="M111" s="4"/>
+      <c r="O111" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112">
+        <v>314</v>
+      </c>
+      <c r="C112" t="s">
+        <v>89</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>100</v>
+      </c>
+      <c r="G112">
+        <v>500</v>
+      </c>
+      <c r="H112">
+        <v>100</v>
+      </c>
+      <c r="M112" s="4"/>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113">
+        <v>315</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E113">
+        <v>150</v>
+      </c>
+      <c r="F113">
+        <v>-100</v>
+      </c>
+      <c r="G113">
+        <v>500</v>
+      </c>
+      <c r="H113">
+        <v>100</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="M113" s="4"/>
+    </row>
+    <row r="114" spans="1:13" ht="37.5">
+      <c r="A114">
+        <v>316</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E114">
+        <v>150</v>
+      </c>
+      <c r="F114">
+        <v>-100</v>
+      </c>
+      <c r="G114">
+        <v>500</v>
+      </c>
+      <c r="H114">
+        <v>100</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="M114" s="4"/>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115">
+        <v>317</v>
+      </c>
+      <c r="D115" t="s">
+        <v>195</v>
+      </c>
+      <c r="E115">
+        <v>150</v>
+      </c>
+      <c r="F115">
+        <v>-100</v>
+      </c>
+      <c r="G115">
+        <v>500</v>
+      </c>
+      <c r="H115">
+        <v>100</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="M115" s="4"/>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116">
+        <v>318</v>
+      </c>
+      <c r="C116" t="s">
+        <v>31</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E116">
+        <v>150</v>
+      </c>
+      <c r="F116">
+        <v>-100</v>
+      </c>
+      <c r="G116">
+        <v>500</v>
+      </c>
+      <c r="H116">
+        <v>100</v>
+      </c>
+      <c r="M116" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FB1525-4885-402F-8BB3-6C849580C93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E96A80-CEFD-41B9-955B-E1A51663EBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="240">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1249,6 +1249,551 @@
   <si>
     <t>武器が装備できたら、冒険に出発するぴ！</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClickObject</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/Ground/Ingame_3d_001(Clone)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/Ground/Ingame_3d_003(Clone)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InitGuideEquip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AddGuideMonster1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AddGuideMonster2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetSkill2Enabled</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GenerateGate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GiftBox(Clone)/Image/GameObject/OKBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EndBraveGuide1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/Ground/Ingame_3d_007(Clone)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GuideLGMethodList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冒険エリアにようこそ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずは素材を集めてみよう！</t>
+    <rPh sb="3" eb="5">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右の「木」をタップしてみるぴ！</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次は、真ん中の「土」をタップしてみるぴ！</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今度は、左の「鉱石」をタップしてみるぴ！</t>
+    <rPh sb="0" eb="2">
+      <t>コンド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「木」をタップすると「木材」や「葉」がゲットできるぴ！
+「木材」を材料にして「木のブロック」などをクラフトできるよ！</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「土」をタップすると「土」「石材」「砂」がゲットできるぴ！
+「砂」は「木」とあわせて「ガラスのブロック」をクラフトできるんだ！</t>
+    <rPh sb="1" eb="2">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セキザイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スナ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スナ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冒険エリアでは、素材を集めたり、敵を倒してレベルアップできるぴ！</t>
+    <rPh sb="8" eb="10">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「鉱石」をタップすると「鉄鉱石」「銀鉱石」がゲットできるぴ！
+「鉄鉱石」や「銀鉱石」は、「延べ棒」をクラフトするのに必要だぴ！</t>
+    <rPh sb="1" eb="3">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ギン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ボウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次は、剣を使って敵をたおしてみるぴ！</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さっそく敵が出てきたぴ！
+剣ボタンをタップすると、剣を振って攻撃できるぴ！</t>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃スキルを使うと、たくさんの敵を一気に攻撃できるぴ！
+今度は攻撃スキルをを使ってみるぴ！</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イッキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コンド</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やったー！敵を一気に倒せたぴ！</t>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵から攻撃を受けると体力が減るぴ。
+だけど、減った体力は回復スキルで元にもどせるぴ！</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このボタンをタップして回復スキルを使ってみるぴ！</t>
+    <rPh sb="11" eb="13">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力が元に戻ったね！</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんな感じで、素材を集めながら、敵をどんどん倒していくぴ！</t>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を全部倒すと、次のフロアに進むための「転送門」が出てくるぴ！</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢印のほうに「転送門」があるので、そこまで進んでみるぴ！</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のフロアに進む前に、集めた素材や、敵が落としたアイテムが
+確認できるぴ！</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「２倍ボタン」や「３倍ボタン」を押して、受け取る数を
+増やすこともできるぴ！</t>
+    <rPh sb="2" eb="3">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回は「OKボタン」を押してみるぴ！</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のフロアにやってきたぴ！</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倒した敵のExpが表示されるぴ！
+Expがたまるとレベルアップできるぴ！</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これで冒険の練習は終わりだぴ！</t>
+    <rPh sb="3" eb="5">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「マップ」を押すぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ホーム」へ戻るぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このボタンをタップして、攻撃スキルを使ってみるぴ！
+一度使うとしばらくたつまで次に使うことができないので気を付けるぴ！</t>
+    <rPh sb="12" eb="14">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいぞ！敵を倒せたぴ！</t>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PreserveRuntimeData,DisableAllSkillUI,InitGuideEquip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DisableAllSkillUI</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1984,15 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1467,9 +2020,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}" name="テーブル1" displayName="テーブル1" ref="A1:O116" totalsRowShown="0">
-  <autoFilter ref="A1:O116" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}" name="テーブル1" displayName="テーブル1" ref="A1:R145" totalsRowShown="0">
+  <autoFilter ref="A1:R145" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{4DFE80C9-2B21-485D-9D6B-903F491DD911}" name="ID"/>
     <tableColumn id="2" xr3:uid="{26AC1C6D-BEB5-4CFC-A3C3-EA035AA87DC0}" name="Des"/>
     <tableColumn id="4" xr3:uid="{89652C51-89E2-4DE8-9D02-D00D77EA8A96}" name="CellName"/>
@@ -1482,9 +2035,12 @@
     <tableColumn id="10" xr3:uid="{6D710CC4-132D-45B1-AE78-E2D2FF886555}" name="NextMask"/>
     <tableColumn id="11" xr3:uid="{2B826DA7-04E9-4545-9027-9D36246E55BE}" name="AutoMove"/>
     <tableColumn id="12" xr3:uid="{FEDBBFCE-F017-4967-804E-AFA6924E9917}" name="ClickType"/>
-    <tableColumn id="13" xr3:uid="{FCB96A81-9E84-44BD-927F-E7FF463BAD62}" name="CreateBlockCount" dataDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{83E5CA6B-C766-4DAE-A53C-6A1B16B4A7B9}" name="ClickObject"/>
+    <tableColumn id="13" xr3:uid="{FCB96A81-9E84-44BD-927F-E7FF463BAD62}" name="CreateBlockCount" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{31E7E78C-A4AA-48F4-88D7-20F7D083D1E9}" name="Skill" dataDxfId="0"/>
     <tableColumn id="14" xr3:uid="{8973D6AD-8780-474F-9446-46A58DBCAE55}" name="DisplayObject"/>
     <tableColumn id="15" xr3:uid="{E6F662BD-2A55-47EA-8152-AA31B96E8FDD}" name="HideObject"/>
+    <tableColumn id="16" xr3:uid="{5815201E-A52C-4B13-BE69-A0470987FF52}" name="GuideLGMethodList"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1787,26 +2343,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE3D9C-AA04-4128-A1A9-BF15679480E0}">
-  <dimension ref="A1:O116"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G113" sqref="G113"/>
+      <selection pane="bottomRight" activeCell="Q135" sqref="Q135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="8.625" customWidth="1"/>
     <col min="3" max="3" width="62.125" customWidth="1"/>
-    <col min="4" max="4" width="61" customWidth="1"/>
+    <col min="4" max="4" width="66.5" customWidth="1"/>
     <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.25" customWidth="1"/>
+    <col min="14" max="14" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1844,16 +2402,25 @@
         <v>96</v>
       </c>
       <c r="M1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1" t="s">
         <v>137</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>204</v>
+      </c>
+      <c r="P1" t="s">
         <v>148</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="R1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1861,7 +2428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="37.5">
+    <row r="3" spans="1:18" ht="37.5">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1887,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="37.5">
+    <row r="4" spans="1:18" ht="37.5">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1913,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1939,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:18">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1968,7 +2535,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="37.5">
+    <row r="7" spans="1:18" ht="37.5">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1994,7 +2561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
+    <row r="8" spans="1:18" s="4" customFormat="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -2019,7 +2586,7 @@
       <c r="I8"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" ht="37.5">
+    <row r="9" spans="1:18" s="4" customFormat="1" ht="37.5">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2046,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" ht="37.5">
+    <row r="10" spans="1:18" s="4" customFormat="1" ht="37.5">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2071,7 +2638,7 @@
       <c r="I10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
+    <row r="11" spans="1:18" s="4" customFormat="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2097,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" ht="37.5">
+    <row r="12" spans="1:18" s="4" customFormat="1" ht="37.5">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2122,7 +2689,7 @@
       <c r="I12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" ht="37.5">
+    <row r="13" spans="1:18" s="4" customFormat="1" ht="37.5">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2148,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" ht="37.5">
+    <row r="14" spans="1:18" s="4" customFormat="1" ht="37.5">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2172,11 +2739,11 @@
       </c>
       <c r="I14"/>
       <c r="J14"/>
-      <c r="O14" s="4" t="s">
+      <c r="Q14" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
+    <row r="15" spans="1:18" s="4" customFormat="1">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2201,7 +2768,7 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" ht="37.5">
+    <row r="16" spans="1:18" s="4" customFormat="1" ht="37.5">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -2227,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="4" customFormat="1" ht="37.5">
+    <row r="17" spans="1:16" s="4" customFormat="1" ht="37.5">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -2253,7 +2820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" ht="37.5">
+    <row r="18" spans="1:16" s="4" customFormat="1" ht="37.5">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -2278,7 +2845,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:14" s="4" customFormat="1" ht="37.5">
+    <row r="19" spans="1:16" s="4" customFormat="1" ht="37.5">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -2303,7 +2870,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:14" s="4" customFormat="1" ht="37.5">
+    <row r="20" spans="1:16" s="4" customFormat="1" ht="37.5">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -2328,7 +2895,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:14" s="4" customFormat="1" ht="37.5">
+    <row r="21" spans="1:16" s="4" customFormat="1" ht="37.5">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -2353,7 +2920,7 @@
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" ht="37.5">
+    <row r="22" spans="1:16" s="4" customFormat="1" ht="37.5">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -2378,7 +2945,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:14" s="4" customFormat="1" ht="37.5">
+    <row r="23" spans="1:16" s="4" customFormat="1" ht="37.5">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -2403,7 +2970,7 @@
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" ht="37.5">
+    <row r="24" spans="1:16" s="4" customFormat="1" ht="37.5">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -2428,7 +2995,7 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" ht="37.5">
+    <row r="25" spans="1:16" s="4" customFormat="1" ht="37.5">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -2453,7 +3020,7 @@
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:14" s="4" customFormat="1">
+    <row r="26" spans="1:16" s="4" customFormat="1">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -2478,7 +3045,7 @@
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:14" s="4" customFormat="1" ht="37.5">
+    <row r="27" spans="1:16" s="4" customFormat="1" ht="37.5">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -2502,11 +3069,11 @@
       </c>
       <c r="I27"/>
       <c r="J27"/>
-      <c r="N27" s="4" t="s">
+      <c r="P27" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="4" customFormat="1" ht="37.5">
+    <row r="28" spans="1:16" s="4" customFormat="1" ht="37.5">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -2532,11 +3099,11 @@
         <v>1</v>
       </c>
       <c r="J28"/>
-      <c r="M28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="4" customFormat="1">
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="4" customFormat="1">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -2562,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="4" customFormat="1" ht="37.5">
+    <row r="30" spans="1:16" s="4" customFormat="1" ht="37.5">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -2588,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="4" customFormat="1" ht="37.5">
+    <row r="31" spans="1:16" s="4" customFormat="1" ht="37.5">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -2614,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="4" customFormat="1" ht="37.5">
+    <row r="32" spans="1:16" s="4" customFormat="1" ht="37.5">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -2640,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="4" customFormat="1" ht="37.5">
+    <row r="33" spans="1:17" s="4" customFormat="1" ht="37.5">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -2665,11 +3232,11 @@
       <c r="J33">
         <v>1</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="P33" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="4" customFormat="1" ht="37.5">
+    <row r="34" spans="1:17" s="4" customFormat="1" ht="37.5">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -2695,14 +3262,14 @@
         <v>1</v>
       </c>
       <c r="J34"/>
-      <c r="M34" s="4">
+      <c r="N34" s="4">
         <v>37</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="Q34" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="4" customFormat="1" ht="37.5">
+    <row r="35" spans="1:17" s="4" customFormat="1" ht="37.5">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -2727,11 +3294,11 @@
       <c r="J35">
         <v>1</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="Q35" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="4" customFormat="1" ht="37.5">
+    <row r="36" spans="1:17" s="4" customFormat="1" ht="37.5">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -2757,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="4" customFormat="1" ht="56.25">
+    <row r="37" spans="1:17" s="4" customFormat="1" ht="56.25">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -2783,7 +3350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="4" customFormat="1">
+    <row r="38" spans="1:17" s="4" customFormat="1">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -2809,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:17">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -2832,7 +3399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:17">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -2855,7 +3422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="37.5">
+    <row r="41" spans="1:17" ht="37.5">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -2878,7 +3445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:17">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -2901,7 +3468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:17">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -2924,7 +3491,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="37.5">
+    <row r="44" spans="1:17" ht="37.5">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -2947,7 +3514,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:17">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -2973,7 +3540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="37.5">
+    <row r="46" spans="1:17" ht="37.5">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -2998,9 +3565,9 @@
       <c r="J46">
         <v>1</v>
       </c>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="1:15" ht="37.5">
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:17" ht="37.5">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -3026,7 +3593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="37.5">
+    <row r="48" spans="1:17" ht="37.5">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -3429,7 +3996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:14">
       <c r="A65" s="4">
         <v>116</v>
       </c>
@@ -3452,7 +4019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="37.5">
+    <row r="66" spans="1:14" ht="37.5">
       <c r="A66" s="4">
         <v>117</v>
       </c>
@@ -3475,7 +4042,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="37.5">
+    <row r="67" spans="1:14" ht="37.5">
       <c r="A67" s="4">
         <v>118</v>
       </c>
@@ -3498,7 +4065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="37.5">
+    <row r="68" spans="1:14" ht="37.5">
       <c r="A68" s="4">
         <v>119</v>
       </c>
@@ -3521,7 +4088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:14">
       <c r="A69" s="4">
         <v>120</v>
       </c>
@@ -3547,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="37.5">
+    <row r="70" spans="1:14" ht="37.5">
       <c r="A70" s="4">
         <v>121</v>
       </c>
@@ -3573,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:14">
       <c r="A71" s="4">
         <v>122</v>
       </c>
@@ -3596,7 +4163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:14">
       <c r="A72" s="4">
         <v>123</v>
       </c>
@@ -3622,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="37.5">
+    <row r="73" spans="1:14" ht="37.5">
       <c r="A73" s="4">
         <v>124</v>
       </c>
@@ -3648,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="37.5">
+    <row r="74" spans="1:14" ht="37.5">
       <c r="A74" s="4">
         <v>125</v>
       </c>
@@ -3673,9 +4240,9 @@
       <c r="J74">
         <v>1</v>
       </c>
-      <c r="M74" s="4"/>
-    </row>
-    <row r="75" spans="1:13" ht="37.5">
+      <c r="N74" s="4"/>
+    </row>
+    <row r="75" spans="1:14" ht="37.5">
       <c r="A75" s="4">
         <v>126</v>
       </c>
@@ -3700,9 +4267,9 @@
       <c r="J75">
         <v>1</v>
       </c>
-      <c r="M75" s="4"/>
-    </row>
-    <row r="76" spans="1:13" ht="37.5">
+      <c r="N75" s="4"/>
+    </row>
+    <row r="76" spans="1:14" ht="37.5">
       <c r="A76" s="4">
         <v>127</v>
       </c>
@@ -3725,7 +4292,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:14">
       <c r="A77" s="4">
         <v>128</v>
       </c>
@@ -3748,7 +4315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:14">
       <c r="A78">
         <v>201</v>
       </c>
@@ -3774,7 +4341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:14">
       <c r="A79">
         <v>202</v>
       </c>
@@ -3803,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:14">
       <c r="A80">
         <v>203</v>
       </c>
@@ -4146,7 +4713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="37.5">
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>217</v>
       </c>
@@ -4221,7 +4788,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:17">
       <c r="A97">
         <v>220</v>
       </c>
@@ -4244,7 +4811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:17">
       <c r="A98">
         <v>221</v>
       </c>
@@ -4267,7 +4834,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:17">
       <c r="A99">
         <v>301</v>
       </c>
@@ -4292,9 +4859,9 @@
       <c r="J99">
         <v>1</v>
       </c>
-      <c r="M99" s="4"/>
-    </row>
-    <row r="100" spans="1:15">
+      <c r="N99" s="4"/>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100">
         <v>302</v>
       </c>
@@ -4316,9 +4883,9 @@
       <c r="H100">
         <v>100</v>
       </c>
-      <c r="M100" s="4"/>
-    </row>
-    <row r="101" spans="1:15">
+      <c r="N100" s="4"/>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101">
         <v>303</v>
       </c>
@@ -4340,9 +4907,9 @@
       <c r="H101">
         <v>100</v>
       </c>
-      <c r="M101" s="4"/>
-    </row>
-    <row r="102" spans="1:15">
+      <c r="N101" s="4"/>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102">
         <v>304</v>
       </c>
@@ -4367,9 +4934,9 @@
       <c r="J102">
         <v>1</v>
       </c>
-      <c r="M102" s="4"/>
-    </row>
-    <row r="103" spans="1:15" ht="37.5">
+      <c r="N102" s="4"/>
+    </row>
+    <row r="103" spans="1:17" ht="37.5">
       <c r="A103">
         <v>305</v>
       </c>
@@ -4391,9 +4958,9 @@
       <c r="H103">
         <v>100</v>
       </c>
-      <c r="M103" s="4"/>
-    </row>
-    <row r="104" spans="1:15">
+      <c r="N103" s="4"/>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104">
         <v>306</v>
       </c>
@@ -4418,9 +4985,9 @@
       <c r="J104">
         <v>1</v>
       </c>
-      <c r="M104" s="4"/>
-    </row>
-    <row r="105" spans="1:15">
+      <c r="N104" s="4"/>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105">
         <v>307</v>
       </c>
@@ -4442,9 +5009,9 @@
       <c r="H105">
         <v>100</v>
       </c>
-      <c r="M105" s="4"/>
-    </row>
-    <row r="106" spans="1:15" ht="37.5">
+      <c r="N105" s="4"/>
+    </row>
+    <row r="106" spans="1:17" ht="37.5">
       <c r="A106">
         <v>308</v>
       </c>
@@ -4469,9 +5036,9 @@
       <c r="J106">
         <v>1</v>
       </c>
-      <c r="M106" s="4"/>
-    </row>
-    <row r="107" spans="1:15">
+      <c r="N106" s="4"/>
+    </row>
+    <row r="107" spans="1:17">
       <c r="A107">
         <v>309</v>
       </c>
@@ -4493,9 +5060,9 @@
       <c r="H107">
         <v>100</v>
       </c>
-      <c r="M107" s="4"/>
-    </row>
-    <row r="108" spans="1:15">
+      <c r="N107" s="4"/>
+    </row>
+    <row r="108" spans="1:17">
       <c r="A108">
         <v>310</v>
       </c>
@@ -4517,9 +5084,9 @@
       <c r="H108">
         <v>100</v>
       </c>
-      <c r="M108" s="4"/>
-    </row>
-    <row r="109" spans="1:15">
+      <c r="N108" s="4"/>
+    </row>
+    <row r="109" spans="1:17">
       <c r="A109">
         <v>311</v>
       </c>
@@ -4544,9 +5111,9 @@
       <c r="J109">
         <v>1</v>
       </c>
-      <c r="M109" s="4"/>
-    </row>
-    <row r="110" spans="1:15">
+      <c r="N109" s="4"/>
+    </row>
+    <row r="110" spans="1:17">
       <c r="A110">
         <v>312</v>
       </c>
@@ -4571,12 +5138,12 @@
       <c r="J110">
         <v>1</v>
       </c>
-      <c r="M110" s="4"/>
-      <c r="N110" t="s">
+      <c r="N110" s="4"/>
+      <c r="P110" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:17">
       <c r="A111">
         <v>313</v>
       </c>
@@ -4598,12 +5165,12 @@
       <c r="H111">
         <v>100</v>
       </c>
-      <c r="M111" s="4"/>
-      <c r="O111" t="s">
+      <c r="N111" s="4"/>
+      <c r="Q111" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:17">
       <c r="A112">
         <v>314</v>
       </c>
@@ -4625,9 +5192,9 @@
       <c r="H112">
         <v>100</v>
       </c>
-      <c r="M112" s="4"/>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="N112" s="4"/>
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113">
         <v>315</v>
       </c>
@@ -4652,9 +5219,9 @@
       <c r="J113">
         <v>1</v>
       </c>
-      <c r="M113" s="4"/>
-    </row>
-    <row r="114" spans="1:13" ht="37.5">
+      <c r="N113" s="4"/>
+    </row>
+    <row r="114" spans="1:18" ht="37.5">
       <c r="A114">
         <v>316</v>
       </c>
@@ -4679,9 +5246,9 @@
       <c r="J114">
         <v>1</v>
       </c>
-      <c r="M114" s="4"/>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="N114" s="4"/>
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115">
         <v>317</v>
       </c>
@@ -4706,9 +5273,9 @@
       <c r="J115">
         <v>1</v>
       </c>
-      <c r="M115" s="4"/>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="N115" s="4"/>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116">
         <v>318</v>
       </c>
@@ -4730,7 +5297,828 @@
       <c r="H116">
         <v>100</v>
       </c>
-      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+    </row>
+    <row r="117" spans="1:18">
+      <c r="A117">
+        <v>401</v>
+      </c>
+      <c r="D117" t="s">
+        <v>209</v>
+      </c>
+      <c r="E117">
+        <v>-50</v>
+      </c>
+      <c r="F117">
+        <v>-170</v>
+      </c>
+      <c r="G117">
+        <v>750</v>
+      </c>
+      <c r="H117">
+        <v>75</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="N117" s="4"/>
+      <c r="R117" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
+      <c r="A118">
+        <v>402</v>
+      </c>
+      <c r="D118" t="s">
+        <v>216</v>
+      </c>
+      <c r="E118">
+        <v>-50</v>
+      </c>
+      <c r="F118">
+        <v>-170</v>
+      </c>
+      <c r="G118">
+        <v>750</v>
+      </c>
+      <c r="H118">
+        <v>75</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="N118" s="4"/>
+    </row>
+    <row r="119" spans="1:18">
+      <c r="A119">
+        <v>403</v>
+      </c>
+      <c r="D119" t="s">
+        <v>210</v>
+      </c>
+      <c r="E119">
+        <v>-50</v>
+      </c>
+      <c r="F119">
+        <v>-170</v>
+      </c>
+      <c r="G119">
+        <v>750</v>
+      </c>
+      <c r="H119">
+        <v>75</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="N119" s="4"/>
+    </row>
+    <row r="120" spans="1:18">
+      <c r="A120">
+        <v>404</v>
+      </c>
+      <c r="C120" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" t="s">
+        <v>211</v>
+      </c>
+      <c r="E120">
+        <v>-50</v>
+      </c>
+      <c r="F120">
+        <v>-170</v>
+      </c>
+      <c r="G120">
+        <v>750</v>
+      </c>
+      <c r="H120">
+        <v>75</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>100</v>
+      </c>
+      <c r="M120" t="s">
+        <v>197</v>
+      </c>
+      <c r="N120" s="4"/>
+    </row>
+    <row r="121" spans="1:18" ht="37.5">
+      <c r="A121">
+        <v>405</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E121">
+        <v>-50</v>
+      </c>
+      <c r="F121">
+        <v>-170</v>
+      </c>
+      <c r="G121">
+        <v>750</v>
+      </c>
+      <c r="H121">
+        <v>75</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="N121" s="4"/>
+    </row>
+    <row r="122" spans="1:18">
+      <c r="A122">
+        <v>406</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s">
+        <v>212</v>
+      </c>
+      <c r="E122">
+        <v>-50</v>
+      </c>
+      <c r="F122">
+        <v>-170</v>
+      </c>
+      <c r="G122">
+        <v>750</v>
+      </c>
+      <c r="H122">
+        <v>75</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>100</v>
+      </c>
+      <c r="M122" t="s">
+        <v>198</v>
+      </c>
+      <c r="N122" s="4"/>
+    </row>
+    <row r="123" spans="1:18" ht="37.5">
+      <c r="A123">
+        <v>407</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E123">
+        <v>-50</v>
+      </c>
+      <c r="F123">
+        <v>-170</v>
+      </c>
+      <c r="G123">
+        <v>750</v>
+      </c>
+      <c r="H123">
+        <v>75</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="N123" s="4"/>
+    </row>
+    <row r="124" spans="1:18">
+      <c r="A124">
+        <v>408</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>213</v>
+      </c>
+      <c r="E124">
+        <v>-50</v>
+      </c>
+      <c r="F124">
+        <v>-170</v>
+      </c>
+      <c r="G124">
+        <v>750</v>
+      </c>
+      <c r="H124">
+        <v>75</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>100</v>
+      </c>
+      <c r="M124" t="s">
+        <v>207</v>
+      </c>
+      <c r="N124" s="4"/>
+    </row>
+    <row r="125" spans="1:18" ht="37.5">
+      <c r="A125">
+        <v>409</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E125">
+        <v>-50</v>
+      </c>
+      <c r="F125">
+        <v>-170</v>
+      </c>
+      <c r="G125">
+        <v>750</v>
+      </c>
+      <c r="H125">
+        <v>75</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="N125" s="4"/>
+    </row>
+    <row r="126" spans="1:18">
+      <c r="A126">
+        <v>410</v>
+      </c>
+      <c r="D126" t="s">
+        <v>218</v>
+      </c>
+      <c r="E126">
+        <v>-50</v>
+      </c>
+      <c r="F126">
+        <v>-170</v>
+      </c>
+      <c r="G126">
+        <v>750</v>
+      </c>
+      <c r="H126">
+        <v>75</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+    </row>
+    <row r="127" spans="1:18" ht="37.5">
+      <c r="A127">
+        <v>411</v>
+      </c>
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E127">
+        <v>-50</v>
+      </c>
+      <c r="F127">
+        <v>-170</v>
+      </c>
+      <c r="G127">
+        <v>750</v>
+      </c>
+      <c r="H127">
+        <v>75</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="N127" s="4">
+        <v>1</v>
+      </c>
+      <c r="R127" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="A128">
+        <v>412</v>
+      </c>
+      <c r="D128" t="s">
+        <v>237</v>
+      </c>
+      <c r="E128">
+        <v>-50</v>
+      </c>
+      <c r="F128">
+        <v>-170</v>
+      </c>
+      <c r="G128">
+        <v>750</v>
+      </c>
+      <c r="H128">
+        <v>75</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+    </row>
+    <row r="129" spans="1:18" ht="37.5">
+      <c r="A129">
+        <v>413</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E129">
+        <v>-50</v>
+      </c>
+      <c r="F129">
+        <v>-170</v>
+      </c>
+      <c r="G129">
+        <v>750</v>
+      </c>
+      <c r="H129">
+        <v>75</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="N129" s="4"/>
+    </row>
+    <row r="130" spans="1:18" ht="37.5">
+      <c r="A130">
+        <v>414</v>
+      </c>
+      <c r="C130" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E130">
+        <v>-50</v>
+      </c>
+      <c r="F130">
+        <v>-170</v>
+      </c>
+      <c r="G130">
+        <v>750</v>
+      </c>
+      <c r="H130">
+        <v>75</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="N130" s="4">
+        <v>4</v>
+      </c>
+      <c r="R130" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
+      <c r="A131">
+        <v>415</v>
+      </c>
+      <c r="D131" t="s">
+        <v>221</v>
+      </c>
+      <c r="E131">
+        <v>-50</v>
+      </c>
+      <c r="F131">
+        <v>-170</v>
+      </c>
+      <c r="G131">
+        <v>750</v>
+      </c>
+      <c r="H131">
+        <v>75</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="N131" s="4"/>
+    </row>
+    <row r="132" spans="1:18" ht="37.5">
+      <c r="A132">
+        <v>416</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E132">
+        <v>-50</v>
+      </c>
+      <c r="F132">
+        <v>-170</v>
+      </c>
+      <c r="G132">
+        <v>750</v>
+      </c>
+      <c r="H132">
+        <v>75</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="N132" s="4"/>
+    </row>
+    <row r="133" spans="1:18">
+      <c r="A133">
+        <v>417</v>
+      </c>
+      <c r="C133" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" t="s">
+        <v>223</v>
+      </c>
+      <c r="E133">
+        <v>-50</v>
+      </c>
+      <c r="F133">
+        <v>-170</v>
+      </c>
+      <c r="G133">
+        <v>750</v>
+      </c>
+      <c r="H133">
+        <v>75</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="N133" s="4"/>
+      <c r="O133">
+        <v>107</v>
+      </c>
+      <c r="R133" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
+      <c r="A134">
+        <v>418</v>
+      </c>
+      <c r="D134" t="s">
+        <v>224</v>
+      </c>
+      <c r="E134">
+        <v>-50</v>
+      </c>
+      <c r="F134">
+        <v>-170</v>
+      </c>
+      <c r="G134">
+        <v>750</v>
+      </c>
+      <c r="H134">
+        <v>75</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="N134" s="4"/>
+      <c r="R134" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
+      <c r="A135">
+        <v>419</v>
+      </c>
+      <c r="D135" t="s">
+        <v>226</v>
+      </c>
+      <c r="E135">
+        <v>-50</v>
+      </c>
+      <c r="F135">
+        <v>-170</v>
+      </c>
+      <c r="G135">
+        <v>750</v>
+      </c>
+      <c r="H135">
+        <v>75</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="N135" s="4"/>
+      <c r="R135" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
+      <c r="A136">
+        <v>420</v>
+      </c>
+      <c r="C136" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" t="s">
+        <v>227</v>
+      </c>
+      <c r="E136">
+        <v>-50</v>
+      </c>
+      <c r="F136">
+        <v>-170</v>
+      </c>
+      <c r="G136">
+        <v>750</v>
+      </c>
+      <c r="H136">
+        <v>75</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="N136" s="4"/>
+    </row>
+    <row r="137" spans="1:18" ht="37.5">
+      <c r="A137">
+        <v>421</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E137">
+        <v>-50</v>
+      </c>
+      <c r="F137">
+        <v>-115</v>
+      </c>
+      <c r="G137">
+        <v>750</v>
+      </c>
+      <c r="H137">
+        <v>75</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="N137" s="4"/>
+    </row>
+    <row r="138" spans="1:18" ht="37.5">
+      <c r="A138">
+        <v>422</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E138">
+        <v>-50</v>
+      </c>
+      <c r="F138">
+        <v>-115</v>
+      </c>
+      <c r="G138">
+        <v>750</v>
+      </c>
+      <c r="H138">
+        <v>75</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="N138" s="4"/>
+      <c r="O138" s="4"/>
+    </row>
+    <row r="139" spans="1:18">
+      <c r="A139">
+        <v>423</v>
+      </c>
+      <c r="C139" t="s">
+        <v>205</v>
+      </c>
+      <c r="D139" t="s">
+        <v>230</v>
+      </c>
+      <c r="E139">
+        <v>-50</v>
+      </c>
+      <c r="F139">
+        <v>-115</v>
+      </c>
+      <c r="G139">
+        <v>750</v>
+      </c>
+      <c r="H139">
+        <v>75</v>
+      </c>
+      <c r="N139" s="4"/>
+    </row>
+    <row r="140" spans="1:18" ht="37.5">
+      <c r="A140">
+        <v>424</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E140">
+        <v>-50</v>
+      </c>
+      <c r="F140">
+        <v>-170</v>
+      </c>
+      <c r="G140">
+        <v>750</v>
+      </c>
+      <c r="H140">
+        <v>75</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="N140" s="4"/>
+      <c r="R140" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18">
+      <c r="A141">
+        <v>501</v>
+      </c>
+      <c r="D141" t="s">
+        <v>231</v>
+      </c>
+      <c r="E141">
+        <v>-50</v>
+      </c>
+      <c r="F141">
+        <v>-170</v>
+      </c>
+      <c r="G141">
+        <v>750</v>
+      </c>
+      <c r="H141">
+        <v>75</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="N141" s="4"/>
+      <c r="R141" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18">
+      <c r="A142">
+        <v>502</v>
+      </c>
+      <c r="D142" t="s">
+        <v>225</v>
+      </c>
+      <c r="E142">
+        <v>-50</v>
+      </c>
+      <c r="F142">
+        <v>-170</v>
+      </c>
+      <c r="G142">
+        <v>750</v>
+      </c>
+      <c r="H142">
+        <v>75</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="N142" s="4"/>
+    </row>
+    <row r="143" spans="1:18">
+      <c r="A143">
+        <v>503</v>
+      </c>
+      <c r="D143" t="s">
+        <v>233</v>
+      </c>
+      <c r="E143">
+        <v>-50</v>
+      </c>
+      <c r="F143">
+        <v>-170</v>
+      </c>
+      <c r="G143">
+        <v>750</v>
+      </c>
+      <c r="H143">
+        <v>75</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="N143" s="4"/>
+    </row>
+    <row r="144" spans="1:18">
+      <c r="A144" s="4">
+        <v>504</v>
+      </c>
+      <c r="C144" t="s">
+        <v>89</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E144">
+        <v>-50</v>
+      </c>
+      <c r="F144">
+        <v>-170</v>
+      </c>
+      <c r="G144">
+        <v>750</v>
+      </c>
+      <c r="H144">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145">
+        <v>505</v>
+      </c>
+      <c r="C145" t="s">
+        <v>31</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E145">
+        <v>150</v>
+      </c>
+      <c r="F145">
+        <v>-100</v>
+      </c>
+      <c r="G145">
+        <v>500</v>
+      </c>
+      <c r="H145">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4744,10 +6132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1245AE-0402-421C-A669-D9EE8B3964BA}">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4862,31 +6250,36 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
         <v>158</v>
       </c>
     </row>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E96A80-CEFD-41B9-955B-E1A51663EBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AB1AB3-8D53-4DFF-B536-464B46F0BFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="239">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1263,10 +1263,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>InitGuideEquip</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AddGuideMonster1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1327,278 +1323,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>次は、真ん中の「土」をタップしてみるぴ！</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今度は、左の「鉱石」をタップしてみるぴ！</t>
-    <rPh sb="0" eb="2">
-      <t>コンド</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「木」をタップすると「木材」や「葉」がゲットできるぴ！
-「木材」を材料にして「木のブロック」などをクラフトできるよ！</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>モクザイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>モクザイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「土」をタップすると「土」「石材」「砂」がゲットできるぴ！
-「砂」は「木」とあわせて「ガラスのブロック」をクラフトできるんだ！</t>
-    <rPh sb="1" eb="2">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セキザイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>スナ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>スナ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>冒険エリアでは、素材を集めたり、敵を倒してレベルアップできるぴ！</t>
-    <rPh sb="8" eb="10">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>タオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「鉱石」をタップすると「鉄鉱石」「銀鉱石」がゲットできるぴ！
-「鉄鉱石」や「銀鉱石」は、「延べ棒」をクラフトするのに必要だぴ！</t>
-    <rPh sb="1" eb="3">
-      <t>コウセキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>テツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウセキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ギン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウセキ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ボウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次は、剣を使って敵をたおしてみるぴ！</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>さっそく敵が出てきたぴ！
-剣ボタンをタップすると、剣を振って攻撃できるぴ！</t>
-    <rPh sb="4" eb="5">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃スキルを使うと、たくさんの敵を一気に攻撃できるぴ！
-今度は攻撃スキルをを使ってみるぴ！</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イッキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>コンド</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>やったー！敵を一気に倒せたぴ！</t>
-    <rPh sb="5" eb="6">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イッキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵から攻撃を受けると体力が減るぴ。
-だけど、減った体力は回復スキルで元にもどせるぴ！</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイリョク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヘ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ヘ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>タイリョク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カイフク</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>モト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このボタンをタップして回復スキルを使ってみるぴ！</t>
-    <rPh sb="11" eb="13">
-      <t>カイフク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>体力が元に戻ったね！</t>
-    <rPh sb="0" eb="2">
-      <t>タイリョク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>こんな感じで、素材を集めながら、敵をどんどん倒していくぴ！</t>
-    <rPh sb="3" eb="4">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>タオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵を全部倒すと、次のフロアに進むための「転送門」が出てくるぴ！</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -1623,22 +1347,6 @@
     </rPh>
     <rPh sb="25" eb="26">
       <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>矢印のほうに「転送門」があるので、そこまで進んでみるぴ！</t>
-    <rPh sb="0" eb="2">
-      <t>ヤジルシ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>モン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>スス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1672,7 +1380,133 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「２倍ボタン」や「３倍ボタン」を押して、受け取る数を
+    <t>今回は「OKボタン」を押してみるぴ！</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これで冒険の練習は終わりだぴ！</t>
+    <rPh sb="3" eb="5">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「マップ」を押すぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ホーム」へ戻るぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PreserveRuntimeData,DisableAllSkillUI,InitGuideEquip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DisableAllSkillUI</t>
+  </si>
+  <si>
+    <t>「木」をタップすると「木材」や「葉」がゲットできるぴ！
+「作業台」でブロックなどのクラフトができるよ！</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「土」をタップすると「土」「石材」「砂」がゲットできるぴ！
+「かまど」でクラフトに使えるよ！</t>
+    <rPh sb="1" eb="2">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セキザイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「鉱石」をタップすると「鉄鉱石」「銀鉱石」がゲットできるぴ！
+これも「かまど」でクラフトに使えるよ！</t>
+    <rPh sb="1" eb="3">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ギン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次は、剣を使って敵をやっつけるぴ！</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいぞ！敵をやっつけたぴ！</t>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やったー！敵を一気にやっつけたぴ！</t>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPが回復したね！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「２倍ボタン」や「３倍ボタン」を押して、あつめたアイテムを
 増やすこともできるぴ！</t>
     <rPh sb="2" eb="3">
       <t>バイ</t>
@@ -1683,117 +1517,171 @@
     <rPh sb="16" eb="17">
       <t>オ</t>
     </rPh>
-    <rPh sb="20" eb="21">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
+    <rPh sb="30" eb="31">
       <t>フ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>今回は「OKボタン」を押してみるぴ！</t>
-    <rPh sb="0" eb="2">
-      <t>コンカイ</t>
+    <t>倒した敵のExpが表示されるぴ！
+Expがたまるとレベルアップできるよ！</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さっそく敵が出てきたぴ！
+剣ボタンをタップすると、
+剣を振って攻撃できるぴ！</t>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冒険エリアでは、素材を集めたり、
+敵をやっつけてレベルアップできるぴ！</t>
+    <rPh sb="8" eb="10">
+      <t>ソザイ</t>
     </rPh>
     <rPh sb="11" eb="12">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次のフロアにやってきたぴ！</t>
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次は、真ん中の「土」を
+タップしてみるぴ！</t>
     <rPh sb="0" eb="1">
       <t>ツギ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>倒した敵のExpが表示されるぴ！
-Expがたまるとレベルアップできるぴ！</t>
-    <rPh sb="0" eb="1">
-      <t>タオ</t>
-    </rPh>
     <rPh sb="3" eb="4">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今度は、左の「鉱石」を
+タップしてみるぴ！</t>
+    <rPh sb="0" eb="2">
+      <t>コンド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「回転攻撃」ボタンをタップして、
+攻撃スキルを使ってみるぴ！</t>
+    <rPh sb="17" eb="19">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「回復」ボタンをタップして
+回復スキルを使ってみるぴ！</t>
+    <rPh sb="14" eb="16">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢印のほうに「転送門」があるので、
+そこまで進んでみるぴ！</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaskAdButton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InitGuideEquip</t>
+  </si>
+  <si>
+    <t>攻撃スキルを使うと、たくさんの敵を一気に攻撃できるぴ！</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
       <t>テキ</t>
     </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これで冒険の練習は終わりだぴ！</t>
-    <rPh sb="3" eb="5">
-      <t>ボウケン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>レンシュウ</t>
+    <rPh sb="17" eb="19">
+      <t>イッキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材を集めながら、敵をどんどんやっつけていくぴ！</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アツ</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「マップ」を押すぴ！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ホーム」へ戻るぴ！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このボタンをタップして、攻撃スキルを使ってみるぴ！
-一度使うとしばらくたつまで次に使うことができないので気を付けるぴ！</t>
-    <rPh sb="12" eb="14">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいぞ！敵を倒せたぴ！</t>
-    <rPh sb="4" eb="5">
       <t>テキ</t>
     </rPh>
-    <rPh sb="6" eb="7">
-      <t>タオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PreserveRuntimeData,DisableAllSkillUI,InitGuideEquip</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DisableAllSkillUI</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1878,7 +1766,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1889,6 +1777,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1943,7 +1837,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1979,6 +1873,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2020,8 +1917,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}" name="テーブル1" displayName="テーブル1" ref="A1:R145" totalsRowShown="0">
-  <autoFilter ref="A1:R145" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}" name="テーブル1" displayName="テーブル1" ref="A1:R143" totalsRowShown="0">
+  <autoFilter ref="A1:R143" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{4DFE80C9-2B21-485D-9D6B-903F491DD911}" name="ID"/>
     <tableColumn id="2" xr3:uid="{26AC1C6D-BEB5-4CFC-A3C3-EA035AA87DC0}" name="Des"/>
@@ -2343,13 +2240,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE3D9C-AA04-4128-A1A9-BF15679480E0}">
-  <dimension ref="A1:R145"/>
+  <dimension ref="A1:R143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q135" sqref="Q135"/>
+      <selection pane="bottomRight" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2408,7 +2305,7 @@
         <v>137</v>
       </c>
       <c r="O1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P1" t="s">
         <v>148</v>
@@ -2417,7 +2314,7 @@
         <v>150</v>
       </c>
       <c r="R1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -5304,19 +5201,19 @@
         <v>401</v>
       </c>
       <c r="D117" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E117">
-        <v>-50</v>
+        <v>40</v>
       </c>
       <c r="F117">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G117">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="H117">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -5326,27 +5223,27 @@
       </c>
       <c r="N117" s="4"/>
       <c r="R117" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" ht="37.5">
       <c r="A118">
         <v>402</v>
       </c>
-      <c r="D118" t="s">
-        <v>216</v>
+      <c r="D118" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="E118">
-        <v>-50</v>
+        <v>40</v>
       </c>
       <c r="F118">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G118">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="H118">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -5361,19 +5258,19 @@
         <v>403</v>
       </c>
       <c r="D119" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E119">
-        <v>-50</v>
+        <v>40</v>
       </c>
       <c r="F119">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G119">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="H119">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -5384,26 +5281,26 @@
       <c r="N119" s="4"/>
     </row>
     <row r="120" spans="1:18">
-      <c r="A120">
+      <c r="A120" s="12">
         <v>404</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E120">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="F120">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G120">
-        <v>750</v>
+        <v>430</v>
       </c>
       <c r="H120">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -5421,19 +5318,19 @@
         <v>405</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E121">
-        <v>-50</v>
+        <v>40</v>
       </c>
       <c r="F121">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G121">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="H121">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -5443,27 +5340,27 @@
       </c>
       <c r="N121" s="4"/>
     </row>
-    <row r="122" spans="1:18">
-      <c r="A122">
+    <row r="122" spans="1:18" ht="37.5">
+      <c r="A122" s="12">
         <v>406</v>
       </c>
       <c r="C122" t="s">
         <v>14</v>
       </c>
-      <c r="D122" t="s">
-        <v>212</v>
+      <c r="D122" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="E122">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="F122">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G122">
-        <v>750</v>
+        <v>430</v>
       </c>
       <c r="H122">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -5481,19 +5378,19 @@
         <v>407</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E123">
-        <v>-50</v>
+        <v>40</v>
       </c>
       <c r="F123">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G123">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="H123">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -5503,27 +5400,27 @@
       </c>
       <c r="N123" s="4"/>
     </row>
-    <row r="124" spans="1:18">
-      <c r="A124">
+    <row r="124" spans="1:18" ht="37.5">
+      <c r="A124" s="12">
         <v>408</v>
       </c>
       <c r="C124" t="s">
         <v>14</v>
       </c>
-      <c r="D124" t="s">
-        <v>213</v>
+      <c r="D124" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="E124">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="F124">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G124">
-        <v>750</v>
+        <v>430</v>
       </c>
       <c r="H124">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -5532,7 +5429,7 @@
         <v>100</v>
       </c>
       <c r="M124" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N124" s="4"/>
     </row>
@@ -5541,19 +5438,19 @@
         <v>409</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E125">
-        <v>-50</v>
+        <v>40</v>
       </c>
       <c r="F125">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G125">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="H125">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -5568,19 +5465,19 @@
         <v>410</v>
       </c>
       <c r="D126" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E126">
-        <v>-50</v>
+        <v>40</v>
       </c>
       <c r="F126">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G126">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="H126">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -5591,7 +5488,7 @@
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
     </row>
-    <row r="127" spans="1:18" ht="37.5">
+    <row r="127" spans="1:18" ht="56.25">
       <c r="A127">
         <v>411</v>
       </c>
@@ -5599,19 +5496,19 @@
         <v>14</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E127">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="F127">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G127">
-        <v>750</v>
+        <v>430</v>
       </c>
       <c r="H127">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -5620,7 +5517,7 @@
         <v>1</v>
       </c>
       <c r="R127" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -5628,19 +5525,19 @@
         <v>412</v>
       </c>
       <c r="D128" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="E128">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="F128">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G128">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="H128">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -5651,24 +5548,24 @@
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
     </row>
-    <row r="129" spans="1:18" ht="37.5">
+    <row r="129" spans="1:18">
       <c r="A129">
         <v>413</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="E129">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="F129">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G129">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="H129">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -5686,19 +5583,19 @@
         <v>14</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E130">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="F130">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G130">
-        <v>750</v>
+        <v>430</v>
       </c>
       <c r="H130">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -5707,7 +5604,7 @@
         <v>4</v>
       </c>
       <c r="R130" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -5715,19 +5612,19 @@
         <v>415</v>
       </c>
       <c r="D131" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E131">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="F131">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G131">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="H131">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -5741,60 +5638,63 @@
       <c r="A132">
         <v>416</v>
       </c>
+      <c r="C132" t="s">
+        <v>14</v>
+      </c>
       <c r="D132" s="10" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="E132">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="F132">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G132">
-        <v>750</v>
+        <v>430</v>
       </c>
       <c r="H132">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
-      <c r="J132">
-        <v>1</v>
-      </c>
       <c r="N132" s="4"/>
+      <c r="O132">
+        <v>107</v>
+      </c>
+      <c r="R132" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="133" spans="1:18">
       <c r="A133">
         <v>417</v>
       </c>
-      <c r="C133" t="s">
-        <v>14</v>
-      </c>
       <c r="D133" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E133">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="F133">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G133">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="H133">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
       <c r="N133" s="4"/>
-      <c r="O133">
-        <v>107</v>
-      </c>
       <c r="R133" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -5802,19 +5702,19 @@
         <v>418</v>
       </c>
       <c r="D134" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E134">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="F134">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G134">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="H134">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -5824,84 +5724,84 @@
       </c>
       <c r="N134" s="4"/>
       <c r="R134" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" ht="37.5">
       <c r="A135">
         <v>419</v>
       </c>
-      <c r="D135" t="s">
-        <v>226</v>
+      <c r="C135" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="E135">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="F135">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G135">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="H135">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
-      <c r="J135">
-        <v>1</v>
-      </c>
       <c r="N135" s="4"/>
-      <c r="R135" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18">
+    </row>
+    <row r="136" spans="1:18" ht="37.5">
       <c r="A136">
         <v>420</v>
       </c>
-      <c r="C136" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" t="s">
-        <v>227</v>
+      <c r="D136" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="E136">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="F136">
-        <v>-170</v>
+        <v>-110</v>
       </c>
       <c r="G136">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="H136">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
       <c r="N136" s="4"/>
+      <c r="R136" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="137" spans="1:18" ht="37.5">
       <c r="A137">
         <v>421</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E137">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="F137">
-        <v>-115</v>
+        <v>-110</v>
       </c>
       <c r="G137">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="H137">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -5910,104 +5810,107 @@
         <v>1</v>
       </c>
       <c r="N137" s="4"/>
-    </row>
-    <row r="138" spans="1:18" ht="37.5">
+      <c r="O137" s="4"/>
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138">
         <v>422</v>
       </c>
-      <c r="D138" s="10" t="s">
-        <v>229</v>
+      <c r="C138" t="s">
+        <v>204</v>
+      </c>
+      <c r="D138" t="s">
+        <v>213</v>
       </c>
       <c r="E138">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="F138">
-        <v>-115</v>
+        <v>-110</v>
       </c>
       <c r="G138">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="H138">
-        <v>75</v>
-      </c>
-      <c r="I138">
-        <v>1</v>
-      </c>
-      <c r="J138">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="N138" s="4"/>
-      <c r="O138" s="4"/>
-    </row>
-    <row r="139" spans="1:18">
+    </row>
+    <row r="139" spans="1:18" ht="37.5">
       <c r="A139">
         <v>423</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E139">
+        <v>-15</v>
+      </c>
+      <c r="F139">
+        <v>-110</v>
+      </c>
+      <c r="G139">
+        <v>775</v>
+      </c>
+      <c r="H139">
+        <v>80</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="N139" s="4"/>
+      <c r="R139" t="s">
         <v>205</v>
       </c>
-      <c r="D139" t="s">
-        <v>230</v>
-      </c>
-      <c r="E139">
-        <v>-50</v>
-      </c>
-      <c r="F139">
-        <v>-115</v>
-      </c>
-      <c r="G139">
-        <v>750</v>
-      </c>
-      <c r="H139">
-        <v>75</v>
-      </c>
-      <c r="N139" s="4"/>
-    </row>
-    <row r="140" spans="1:18" ht="37.5">
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140">
-        <v>424</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>232</v>
+        <v>501</v>
+      </c>
+      <c r="D140" t="s">
+        <v>238</v>
       </c>
       <c r="E140">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="F140">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G140">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="H140">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
         <v>1</v>
       </c>
       <c r="N140" s="4"/>
       <c r="R140" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
     </row>
     <row r="141" spans="1:18">
       <c r="A141">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D141" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="E141">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="F141">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G141">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="H141">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -6016,16 +5919,16 @@
         <v>1</v>
       </c>
       <c r="N141" s="4"/>
-      <c r="R141" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="142" spans="1:18">
       <c r="A142">
-        <v>502</v>
-      </c>
-      <c r="D142" t="s">
-        <v>225</v>
+        <v>503</v>
+      </c>
+      <c r="C142" t="s">
+        <v>89</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="E142">
         <v>-50</v>
@@ -6039,84 +5942,27 @@
       <c r="H142">
         <v>75</v>
       </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-      <c r="J142">
-        <v>1</v>
-      </c>
-      <c r="N142" s="4"/>
     </row>
     <row r="143" spans="1:18">
       <c r="A143">
-        <v>503</v>
-      </c>
-      <c r="D143" t="s">
-        <v>233</v>
+        <v>504</v>
+      </c>
+      <c r="C143" t="s">
+        <v>31</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="E143">
-        <v>-50</v>
+        <v>150</v>
       </c>
       <c r="F143">
-        <v>-170</v>
+        <v>-100</v>
       </c>
       <c r="G143">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="H143">
-        <v>75</v>
-      </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
-      <c r="J143">
-        <v>1</v>
-      </c>
-      <c r="N143" s="4"/>
-    </row>
-    <row r="144" spans="1:18">
-      <c r="A144" s="4">
-        <v>504</v>
-      </c>
-      <c r="C144" t="s">
-        <v>89</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E144">
-        <v>-50</v>
-      </c>
-      <c r="F144">
-        <v>-170</v>
-      </c>
-      <c r="G144">
-        <v>750</v>
-      </c>
-      <c r="H144">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145">
-        <v>505</v>
-      </c>
-      <c r="C145" t="s">
-        <v>31</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E145">
-        <v>150</v>
-      </c>
-      <c r="F145">
-        <v>-100</v>
-      </c>
-      <c r="G145">
-        <v>500</v>
-      </c>
-      <c r="H145">
         <v>100</v>
       </c>
     </row>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AB1AB3-8D53-4DFF-B536-464B46F0BFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96ADF76-50C6-4FE6-8E09-1B572FB9230A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
@@ -2246,7 +2246,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D139" sqref="D139"/>
+      <selection pane="bottomRight" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5723,9 +5723,6 @@
         <v>1</v>
       </c>
       <c r="N134" s="4"/>
-      <c r="R134" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="135" spans="1:18" ht="37.5">
       <c r="A135">
@@ -5753,6 +5750,9 @@
         <v>1</v>
       </c>
       <c r="N135" s="4"/>
+      <c r="R135" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="136" spans="1:18" ht="37.5">
       <c r="A136">

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96ADF76-50C6-4FE6-8E09-1B572FB9230A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868C9F8A-ABF4-4775-B199-92E50F3358EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="240">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1681,6 +1681,10 @@
     <rPh sb="9" eb="10">
       <t>テキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BraveControl</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1766,7 +1770,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1777,12 +1781,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1837,7 +1835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1873,9 +1871,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2243,10 +2238,10 @@
   <dimension ref="A1:R143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A135" sqref="A135"/>
+      <selection pane="bottomRight" activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5281,11 +5276,11 @@
       <c r="N119" s="4"/>
     </row>
     <row r="120" spans="1:18">
-      <c r="A120" s="12">
+      <c r="A120" s="4">
         <v>404</v>
       </c>
       <c r="C120" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="D120" t="s">
         <v>210</v>
@@ -5314,7 +5309,7 @@
       <c r="N120" s="4"/>
     </row>
     <row r="121" spans="1:18" ht="37.5">
-      <c r="A121">
+      <c r="A121" s="4">
         <v>405</v>
       </c>
       <c r="D121" s="10" t="s">
@@ -5341,11 +5336,11 @@
       <c r="N121" s="4"/>
     </row>
     <row r="122" spans="1:18" ht="37.5">
-      <c r="A122" s="12">
+      <c r="A122" s="4">
         <v>406</v>
       </c>
       <c r="C122" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>230</v>
@@ -5374,7 +5369,7 @@
       <c r="N122" s="4"/>
     </row>
     <row r="123" spans="1:18" ht="37.5">
-      <c r="A123">
+      <c r="A123" s="4">
         <v>407</v>
       </c>
       <c r="D123" s="10" t="s">
@@ -5401,11 +5396,11 @@
       <c r="N123" s="4"/>
     </row>
     <row r="124" spans="1:18" ht="37.5">
-      <c r="A124" s="12">
+      <c r="A124" s="4">
         <v>408</v>
       </c>
       <c r="C124" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>231</v>
@@ -5493,7 +5488,7 @@
         <v>411</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>228</v>
@@ -5580,7 +5575,7 @@
         <v>414</v>
       </c>
       <c r="C130" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>232</v>
@@ -5639,7 +5634,7 @@
         <v>416</v>
       </c>
       <c r="C132" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>233</v>
@@ -5729,7 +5724,7 @@
         <v>419</v>
       </c>
       <c r="C135" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>234</v>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868C9F8A-ABF4-4775-B199-92E50F3358EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A79AFC8-A648-420C-A9ED-CEEF558B760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
@@ -1178,14 +1178,539 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>これで装備は完了だぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備武器のスキルは、ここからも確認できるぴ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Equip(Clone)/Image/Title/CloseBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Equip(Clone)/Image/Skill/Skill/GridPanel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これで装備の練習は完了ぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「マップ」から「装備」に行って、
+実際に好きな武器を装備してみよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器が装備できたら、冒険に出発するぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClickObject</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/Ground/Ingame_3d_001(Clone)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/Ground/Ingame_3d_003(Clone)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AddGuideMonster1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AddGuideMonster2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetSkill2Enabled</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GenerateGate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GiftBox(Clone)/Image/GameObject/OKBtn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EndBraveGuide1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/Ground/Ingame_3d_007(Clone)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GuideLGMethodList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冒険エリアにようこそ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずは素材を集めてみよう！</t>
+    <rPh sb="3" eb="5">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右の「木」をタップしてみるぴ！</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を全部倒すと、次のフロアに進むための「転送門」が出てくるぴ！</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のフロアに進む前に、集めた素材や、敵が落としたアイテムが
+確認できるぴ！</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回は「OKボタン」を押してみるぴ！</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これで冒険の練習は終わりだぴ！</t>
+    <rPh sb="3" eb="5">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「マップ」を押すぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ホーム」へ戻るぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PreserveRuntimeData,DisableAllSkillUI,InitGuideEquip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DisableAllSkillUI</t>
+  </si>
+  <si>
+    <t>「木」をタップすると「木材」や「葉」がゲットできるぴ！
+「作業台」でブロックなどのクラフトができるよ！</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「土」をタップすると「土」「石材」「砂」がゲットできるぴ！
+「かまど」でクラフトに使えるよ！</t>
+    <rPh sb="1" eb="2">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セキザイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「鉱石」をタップすると「鉄鉱石」「銀鉱石」がゲットできるぴ！
+これも「かまど」でクラフトに使えるよ！</t>
+    <rPh sb="1" eb="3">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウセキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ギン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次は、剣を使って敵をやっつけるぴ！</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいぞ！敵をやっつけたぴ！</t>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やったー！敵を一気にやっつけたぴ！</t>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPが回復したね！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「２倍ボタン」や「３倍ボタン」を押して、あつめたアイテムを
+増やすこともできるぴ！</t>
+    <rPh sb="2" eb="3">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倒した敵のExpが表示されるぴ！
+Expがたまるとレベルアップできるよ！</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さっそく敵が出てきたぴ！
+剣ボタンをタップすると、
+剣を振って攻撃できるぴ！</t>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冒険エリアでは、素材を集めたり、
+敵をやっつけてレベルアップできるぴ！</t>
+    <rPh sb="8" eb="10">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次は、真ん中の「土」を
+タップしてみるぴ！</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今度は、左の「鉱石」を
+タップしてみるぴ！</t>
+    <rPh sb="0" eb="2">
+      <t>コンド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「回転攻撃」ボタンをタップして、
+攻撃スキルを使ってみるぴ！</t>
+    <rPh sb="17" eb="19">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「回復」ボタンをタップして
+回復スキルを使ってみるぴ！</t>
+    <rPh sb="14" eb="16">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢印のほうに「転送門」があるので、
+そこまで進んでみるぴ！</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaskAdButton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InitGuideEquip</t>
+  </si>
+  <si>
+    <t>攻撃スキルを使うと、たくさんの敵を一気に攻撃できるぴ！</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イッキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材を集めながら、敵をどんどんやっつけていくぴ！</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BraveControl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」ボタン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で閉じるぴ！</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>✕</t>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」ボタン</t>
     </r>
     <r>
       <rPr>
@@ -1196,495 +1721,8 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ボタンを押すぴ。</t>
+      <t>を押すぴ。</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これで装備は完了だぴ！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>装備武器のスキルは、ここからも確認できるぴ。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>✕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ボタンで閉じるぴ！</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Equip(Clone)/Image/Title/CloseBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Equip(Clone)/Image/Skill/Skill/GridPanel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これで装備の練習は完了ぴ！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「マップ」から「装備」に行って、
-実際に好きな武器を装備してみよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>武器が装備できたら、冒険に出発するぴ！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ClickObject</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/Ground/Ingame_3d_001(Clone)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/Ground/Ingame_3d_003(Clone)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AddGuideMonster1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AddGuideMonster2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SetSkill2Enabled</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GenerateGate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Skill</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GiftBox(Clone)/Image/GameObject/OKBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EndBraveGuide1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/Ground/Ingame_3d_007(Clone)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GuideLGMethodList</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>冒険エリアにようこそ！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>まずは素材を集めてみよう！</t>
-    <rPh sb="3" eb="5">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>右の「木」をタップしてみるぴ！</t>
-    <rPh sb="0" eb="1">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵を全部倒すと、次のフロアに進むための「転送門」が出てくるぴ！</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゼンブ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>モン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次のフロアに進む前に、集めた素材や、敵が落としたアイテムが
-確認できるぴ！</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今回は「OKボタン」を押してみるぴ！</t>
-    <rPh sb="0" eb="2">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これで冒険の練習は終わりだぴ！</t>
-    <rPh sb="3" eb="5">
-      <t>ボウケン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>レンシュウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「マップ」を押すぴ！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ホーム」へ戻るぴ！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PreserveRuntimeData,DisableAllSkillUI,InitGuideEquip</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DisableAllSkillUI</t>
-  </si>
-  <si>
-    <t>「木」をタップすると「木材」や「葉」がゲットできるぴ！
-「作業台」でブロックなどのクラフトができるよ！</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>モクザイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「土」をタップすると「土」「石材」「砂」がゲットできるぴ！
-「かまど」でクラフトに使えるよ！</t>
-    <rPh sb="1" eb="2">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セキザイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>スナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「鉱石」をタップすると「鉄鉱石」「銀鉱石」がゲットできるぴ！
-これも「かまど」でクラフトに使えるよ！</t>
-    <rPh sb="1" eb="3">
-      <t>コウセキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>テツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウセキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ギン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次は、剣を使って敵をやっつけるぴ！</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいぞ！敵をやっつけたぴ！</t>
-    <rPh sb="4" eb="5">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>やったー！敵を一気にやっつけたぴ！</t>
-    <rPh sb="5" eb="6">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イッキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HPが回復したね！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「２倍ボタン」や「３倍ボタン」を押して、あつめたアイテムを
-増やすこともできるぴ！</t>
-    <rPh sb="2" eb="3">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>倒した敵のExpが表示されるぴ！
-Expがたまるとレベルアップできるよ！</t>
-    <rPh sb="0" eb="1">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>さっそく敵が出てきたぴ！
-剣ボタンをタップすると、
-剣を振って攻撃できるぴ！</t>
-    <rPh sb="4" eb="5">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>冒険エリアでは、素材を集めたり、
-敵をやっつけてレベルアップできるぴ！</t>
-    <rPh sb="8" eb="10">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次は、真ん中の「土」を
-タップしてみるぴ！</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今度は、左の「鉱石」を
-タップしてみるぴ！</t>
-    <rPh sb="0" eb="2">
-      <t>コンド</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「回転攻撃」ボタンをタップして、
-攻撃スキルを使ってみるぴ！</t>
-    <rPh sb="17" eb="19">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「回復」ボタンをタップして
-回復スキルを使ってみるぴ！</t>
-    <rPh sb="14" eb="16">
-      <t>カイフク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>矢印のほうに「転送門」があるので、
-そこまで進んでみるぴ！</t>
-    <rPh sb="0" eb="2">
-      <t>ヤジルシ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>モン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MaskAdButton</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>InitGuideEquip</t>
-  </si>
-  <si>
-    <t>攻撃スキルを使うと、たくさんの敵を一気に攻撃できるぴ！</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イッキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>素材を集めながら、敵をどんどんやっつけていくぴ！</t>
-    <rPh sb="0" eb="2">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BraveControl</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1692,7 +1730,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1761,12 +1799,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Segoe UI Symbol"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2241,7 +2286,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C135" sqref="C135"/>
+      <selection pane="bottomRight" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2294,13 +2339,13 @@
         <v>96</v>
       </c>
       <c r="M1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N1" t="s">
         <v>137</v>
       </c>
       <c r="O1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P1" t="s">
         <v>148</v>
@@ -2309,7 +2354,7 @@
         <v>150</v>
       </c>
       <c r="R1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4938,7 +4983,7 @@
         <v>183</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4983,7 +5028,7 @@
         <v>311</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -5010,7 +5055,7 @@
         <v>312</v>
       </c>
       <c r="D110" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -5032,7 +5077,7 @@
       </c>
       <c r="N110" s="4"/>
       <c r="P110" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -5040,10 +5085,10 @@
         <v>313</v>
       </c>
       <c r="C111" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D111" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -5059,7 +5104,7 @@
       </c>
       <c r="N111" s="4"/>
       <c r="Q111" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -5091,7 +5136,7 @@
         <v>315</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E113">
         <v>150</v>
@@ -5118,7 +5163,7 @@
         <v>316</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E114">
         <v>150</v>
@@ -5145,7 +5190,7 @@
         <v>317</v>
       </c>
       <c r="D115" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E115">
         <v>150</v>
@@ -5196,7 +5241,7 @@
         <v>401</v>
       </c>
       <c r="D117" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E117">
         <v>40</v>
@@ -5218,7 +5263,7 @@
       </c>
       <c r="N117" s="4"/>
       <c r="R117" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:18" ht="37.5">
@@ -5226,7 +5271,7 @@
         <v>402</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E118">
         <v>40</v>
@@ -5253,7 +5298,7 @@
         <v>403</v>
       </c>
       <c r="D119" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E119">
         <v>40</v>
@@ -5280,10 +5325,10 @@
         <v>404</v>
       </c>
       <c r="C120" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D120" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E120">
         <v>-15</v>
@@ -5304,7 +5349,7 @@
         <v>100</v>
       </c>
       <c r="M120" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N120" s="4"/>
     </row>
@@ -5313,7 +5358,7 @@
         <v>405</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E121">
         <v>40</v>
@@ -5340,10 +5385,10 @@
         <v>406</v>
       </c>
       <c r="C122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E122">
         <v>-15</v>
@@ -5364,7 +5409,7 @@
         <v>100</v>
       </c>
       <c r="M122" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N122" s="4"/>
     </row>
@@ -5373,7 +5418,7 @@
         <v>407</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E123">
         <v>40</v>
@@ -5400,10 +5445,10 @@
         <v>408</v>
       </c>
       <c r="C124" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E124">
         <v>-15</v>
@@ -5424,7 +5469,7 @@
         <v>100</v>
       </c>
       <c r="M124" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N124" s="4"/>
     </row>
@@ -5433,7 +5478,7 @@
         <v>409</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E125">
         <v>40</v>
@@ -5460,7 +5505,7 @@
         <v>410</v>
       </c>
       <c r="D126" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E126">
         <v>40</v>
@@ -5488,10 +5533,10 @@
         <v>411</v>
       </c>
       <c r="C127" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E127">
         <v>-15</v>
@@ -5512,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="R127" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -5520,7 +5565,7 @@
         <v>412</v>
       </c>
       <c r="D128" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E128">
         <v>-15</v>
@@ -5548,7 +5593,7 @@
         <v>413</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E129">
         <v>-15</v>
@@ -5575,10 +5620,10 @@
         <v>414</v>
       </c>
       <c r="C130" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E130">
         <v>-15</v>
@@ -5599,7 +5644,7 @@
         <v>4</v>
       </c>
       <c r="R130" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -5607,7 +5652,7 @@
         <v>415</v>
       </c>
       <c r="D131" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E131">
         <v>-15</v>
@@ -5634,10 +5679,10 @@
         <v>416</v>
       </c>
       <c r="C132" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E132">
         <v>-15</v>
@@ -5659,7 +5704,7 @@
         <v>107</v>
       </c>
       <c r="R132" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -5667,7 +5712,7 @@
         <v>417</v>
       </c>
       <c r="D133" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E133">
         <v>-15</v>
@@ -5689,7 +5734,7 @@
       </c>
       <c r="N133" s="4"/>
       <c r="R133" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -5697,7 +5742,7 @@
         <v>418</v>
       </c>
       <c r="D134" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E134">
         <v>-15</v>
@@ -5724,10 +5769,10 @@
         <v>419</v>
       </c>
       <c r="C135" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E135">
         <v>-15</v>
@@ -5746,7 +5791,7 @@
       </c>
       <c r="N135" s="4"/>
       <c r="R135" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:18" ht="37.5">
@@ -5754,7 +5799,7 @@
         <v>420</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E136">
         <v>-15</v>
@@ -5776,7 +5821,7 @@
       </c>
       <c r="N136" s="4"/>
       <c r="R136" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="37.5">
@@ -5784,7 +5829,7 @@
         <v>421</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E137">
         <v>-15</v>
@@ -5812,10 +5857,10 @@
         <v>422</v>
       </c>
       <c r="C138" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D138" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E138">
         <v>-15</v>
@@ -5836,7 +5881,7 @@
         <v>423</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E139">
         <v>-15</v>
@@ -5855,7 +5900,7 @@
       </c>
       <c r="N139" s="4"/>
       <c r="R139" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -5863,7 +5908,7 @@
         <v>501</v>
       </c>
       <c r="D140" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E140">
         <v>-15</v>
@@ -5885,7 +5930,7 @@
       </c>
       <c r="N140" s="4"/>
       <c r="R140" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -5893,7 +5938,7 @@
         <v>502</v>
       </c>
       <c r="D141" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E141">
         <v>-15</v>
@@ -5923,7 +5968,7 @@
         <v>89</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E142">
         <v>-50</v>
@@ -5946,7 +5991,7 @@
         <v>31</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E143">
         <v>150</v>
@@ -6091,7 +6136,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:1">

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A79AFC8-A648-420C-A9ED-CEEF558B760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBB6F07-6031-4BD3-BF38-F5C45360A7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="241">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1723,6 +1723,10 @@
       </rPr>
       <t>を押すぴ。</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あああああああああああああああああああああ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1957,8 +1961,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}" name="テーブル1" displayName="テーブル1" ref="A1:R143" totalsRowShown="0">
-  <autoFilter ref="A1:R143" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}" name="テーブル1" displayName="テーブル1" ref="A1:R144" totalsRowShown="0">
+  <autoFilter ref="A1:R144" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{4DFE80C9-2B21-485D-9D6B-903F491DD911}" name="ID"/>
     <tableColumn id="2" xr3:uid="{26AC1C6D-BEB5-4CFC-A3C3-EA035AA87DC0}" name="Des"/>
@@ -2280,13 +2284,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE3D9C-AA04-4128-A1A9-BF15679480E0}">
-  <dimension ref="A1:R143"/>
+  <dimension ref="A1:R144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C109" sqref="C109"/>
+      <selection pane="bottomRight" activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4776,7 +4780,7 @@
         <v>301</v>
       </c>
       <c r="D99" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4797,16 +4801,14 @@
         <v>1</v>
       </c>
       <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
     </row>
     <row r="100" spans="1:17">
       <c r="A100">
         <v>302</v>
       </c>
-      <c r="C100" t="s">
-        <v>172</v>
-      </c>
       <c r="D100" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4819,6 +4821,12 @@
       </c>
       <c r="H100">
         <v>100</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
       </c>
       <c r="N100" s="4"/>
     </row>
@@ -4827,10 +4835,10 @@
         <v>303</v>
       </c>
       <c r="C101" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D101" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4850,8 +4858,11 @@
       <c r="A102">
         <v>304</v>
       </c>
+      <c r="C102" t="s">
+        <v>175</v>
+      </c>
       <c r="D102" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4865,23 +4876,14 @@
       <c r="H102">
         <v>100</v>
       </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-      <c r="J102">
-        <v>1</v>
-      </c>
       <c r="N102" s="4"/>
     </row>
-    <row r="103" spans="1:17" ht="37.5">
+    <row r="103" spans="1:17">
       <c r="A103">
         <v>305</v>
       </c>
-      <c r="C103" t="s">
-        <v>179</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>178</v>
+      <c r="D103" t="s">
+        <v>177</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4890,19 +4892,28 @@
         <v>-100</v>
       </c>
       <c r="G103">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="H103">
         <v>100</v>
       </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
       <c r="N103" s="4"/>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" ht="37.5">
       <c r="A104">
         <v>306</v>
       </c>
-      <c r="D104" t="s">
-        <v>181</v>
+      <c r="C104" t="s">
+        <v>179</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4911,16 +4922,10 @@
         <v>-100</v>
       </c>
       <c r="G104">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="H104">
         <v>100</v>
-      </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-      <c r="J104">
-        <v>1</v>
       </c>
       <c r="N104" s="4"/>
     </row>
@@ -4928,11 +4933,8 @@
       <c r="A105">
         <v>307</v>
       </c>
-      <c r="C105" t="s">
-        <v>182</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>184</v>
+      <c r="D105" t="s">
+        <v>181</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4946,56 +4948,62 @@
       <c r="H105">
         <v>100</v>
       </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
       <c r="N105" s="4"/>
     </row>
-    <row r="106" spans="1:17" ht="37.5">
+    <row r="106" spans="1:17">
       <c r="A106">
         <v>308</v>
       </c>
-      <c r="D106" s="10" t="s">
-        <v>185</v>
+      <c r="C106" t="s">
+        <v>182</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>-150</v>
+        <v>-100</v>
       </c>
       <c r="G106">
-        <v>620</v>
+        <v>500</v>
       </c>
       <c r="H106">
         <v>100</v>
       </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-      <c r="J106">
-        <v>1</v>
-      </c>
       <c r="N106" s="4"/>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" ht="37.5">
       <c r="A107">
         <v>309</v>
       </c>
-      <c r="C107" t="s">
-        <v>183</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>238</v>
+      <c r="D107" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>-100</v>
+        <v>-150</v>
       </c>
       <c r="G107">
-        <v>500</v>
+        <v>620</v>
       </c>
       <c r="H107">
         <v>100</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
       </c>
       <c r="N107" s="4"/>
     </row>
@@ -5004,10 +5012,10 @@
         <v>310</v>
       </c>
       <c r="C108" t="s">
-        <v>180</v>
-      </c>
-      <c r="D108" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -5027,8 +5035,11 @@
       <c r="A109">
         <v>311</v>
       </c>
-      <c r="D109" s="10" t="s">
-        <v>187</v>
+      <c r="C109" t="s">
+        <v>180</v>
+      </c>
+      <c r="D109" t="s">
+        <v>186</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -5041,12 +5052,6 @@
       </c>
       <c r="H109">
         <v>100</v>
-      </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
-      <c r="J109">
-        <v>1</v>
       </c>
       <c r="N109" s="4"/>
     </row>
@@ -5054,8 +5059,8 @@
       <c r="A110">
         <v>312</v>
       </c>
-      <c r="D110" t="s">
-        <v>188</v>
+      <c r="D110" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -5064,7 +5069,7 @@
         <v>-100</v>
       </c>
       <c r="G110">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="H110">
         <v>100</v>
@@ -5076,19 +5081,13 @@
         <v>1</v>
       </c>
       <c r="N110" s="4"/>
-      <c r="P110" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="111" spans="1:17">
       <c r="A111">
         <v>313</v>
       </c>
-      <c r="C111" t="s">
-        <v>189</v>
-      </c>
       <c r="D111" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -5097,13 +5096,19 @@
         <v>-100</v>
       </c>
       <c r="G111">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="H111">
         <v>100</v>
       </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
       <c r="N111" s="4"/>
-      <c r="Q111" t="s">
+      <c r="P111" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5112,16 +5117,16 @@
         <v>314</v>
       </c>
       <c r="C112" t="s">
-        <v>89</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>80</v>
+        <v>189</v>
+      </c>
+      <c r="D112" t="s">
+        <v>239</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G112">
         <v>500</v>
@@ -5130,19 +5135,25 @@
         <v>100</v>
       </c>
       <c r="N112" s="4"/>
+      <c r="Q112" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="113" spans="1:18">
       <c r="A113">
         <v>315</v>
       </c>
+      <c r="C113" t="s">
+        <v>89</v>
+      </c>
       <c r="D113" s="6" t="s">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="E113">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G113">
         <v>500</v>
@@ -5150,20 +5161,14 @@
       <c r="H113">
         <v>100</v>
       </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-      <c r="J113">
-        <v>1</v>
-      </c>
       <c r="N113" s="4"/>
     </row>
-    <row r="114" spans="1:18" ht="37.5">
+    <row r="114" spans="1:18">
       <c r="A114">
         <v>316</v>
       </c>
-      <c r="D114" s="10" t="s">
-        <v>192</v>
+      <c r="D114" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="E114">
         <v>150</v>
@@ -5185,12 +5190,12 @@
       </c>
       <c r="N114" s="4"/>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" ht="37.5">
       <c r="A115">
         <v>317</v>
       </c>
-      <c r="D115" t="s">
-        <v>193</v>
+      <c r="D115" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="E115">
         <v>150</v>
@@ -5216,11 +5221,8 @@
       <c r="A116">
         <v>318</v>
       </c>
-      <c r="C116" t="s">
-        <v>31</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>81</v>
+      <c r="D116" t="s">
+        <v>193</v>
       </c>
       <c r="E116">
         <v>150</v>
@@ -5234,44 +5236,44 @@
       <c r="H116">
         <v>100</v>
       </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
       <c r="N116" s="4"/>
     </row>
     <row r="117" spans="1:18">
       <c r="A117">
+        <v>319</v>
+      </c>
+      <c r="C117" t="s">
+        <v>31</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E117">
+        <v>150</v>
+      </c>
+      <c r="F117">
+        <v>-100</v>
+      </c>
+      <c r="G117">
+        <v>500</v>
+      </c>
+      <c r="H117">
+        <v>100</v>
+      </c>
+      <c r="N117" s="4"/>
+    </row>
+    <row r="118" spans="1:18">
+      <c r="A118">
         <v>401</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D118" t="s">
         <v>206</v>
-      </c>
-      <c r="E117">
-        <v>40</v>
-      </c>
-      <c r="F117">
-        <v>-130</v>
-      </c>
-      <c r="G117">
-        <v>775</v>
-      </c>
-      <c r="H117">
-        <v>80</v>
-      </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
-      <c r="J117">
-        <v>1</v>
-      </c>
-      <c r="N117" s="4"/>
-      <c r="R117" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" ht="37.5">
-      <c r="A118">
-        <v>402</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>227</v>
       </c>
       <c r="E118">
         <v>40</v>
@@ -5292,13 +5294,16 @@
         <v>1</v>
       </c>
       <c r="N118" s="4"/>
-    </row>
-    <row r="119" spans="1:18">
+      <c r="R118" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" ht="37.5">
       <c r="A119">
-        <v>403</v>
-      </c>
-      <c r="D119" t="s">
-        <v>207</v>
+        <v>402</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="E119">
         <v>40</v>
@@ -5321,23 +5326,20 @@
       <c r="N119" s="4"/>
     </row>
     <row r="120" spans="1:18">
-      <c r="A120" s="4">
-        <v>404</v>
-      </c>
-      <c r="C120" t="s">
-        <v>237</v>
+      <c r="A120">
+        <v>403</v>
       </c>
       <c r="D120" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E120">
-        <v>-15</v>
+        <v>40</v>
       </c>
       <c r="F120">
         <v>-130</v>
       </c>
       <c r="G120">
-        <v>430</v>
+        <v>775</v>
       </c>
       <c r="H120">
         <v>80</v>
@@ -5345,29 +5347,29 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="L120">
-        <v>100</v>
-      </c>
-      <c r="M120" t="s">
-        <v>195</v>
+      <c r="J120">
+        <v>1</v>
       </c>
       <c r="N120" s="4"/>
     </row>
-    <row r="121" spans="1:18" ht="37.5">
+    <row r="121" spans="1:18">
       <c r="A121" s="4">
-        <v>405</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>217</v>
+        <v>404</v>
+      </c>
+      <c r="C121" t="s">
+        <v>237</v>
+      </c>
+      <c r="D121" t="s">
+        <v>208</v>
       </c>
       <c r="E121">
-        <v>40</v>
+        <v>-15</v>
       </c>
       <c r="F121">
         <v>-130</v>
       </c>
       <c r="G121">
-        <v>775</v>
+        <v>430</v>
       </c>
       <c r="H121">
         <v>80</v>
@@ -5375,29 +5377,29 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>1</v>
+      <c r="L121">
+        <v>100</v>
+      </c>
+      <c r="M121" t="s">
+        <v>195</v>
       </c>
       <c r="N121" s="4"/>
     </row>
     <row r="122" spans="1:18" ht="37.5">
       <c r="A122" s="4">
-        <v>406</v>
-      </c>
-      <c r="C122" t="s">
-        <v>237</v>
+        <v>405</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E122">
-        <v>-15</v>
+        <v>40</v>
       </c>
       <c r="F122">
         <v>-130</v>
       </c>
       <c r="G122">
-        <v>430</v>
+        <v>775</v>
       </c>
       <c r="H122">
         <v>80</v>
@@ -5405,29 +5407,29 @@
       <c r="I122">
         <v>1</v>
       </c>
-      <c r="L122">
-        <v>100</v>
-      </c>
-      <c r="M122" t="s">
-        <v>196</v>
+      <c r="J122">
+        <v>1</v>
       </c>
       <c r="N122" s="4"/>
     </row>
     <row r="123" spans="1:18" ht="37.5">
       <c r="A123" s="4">
-        <v>407</v>
+        <v>406</v>
+      </c>
+      <c r="C123" t="s">
+        <v>237</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E123">
-        <v>40</v>
+        <v>-15</v>
       </c>
       <c r="F123">
         <v>-130</v>
       </c>
       <c r="G123">
-        <v>775</v>
+        <v>430</v>
       </c>
       <c r="H123">
         <v>80</v>
@@ -5435,29 +5437,29 @@
       <c r="I123">
         <v>1</v>
       </c>
-      <c r="J123">
-        <v>1</v>
+      <c r="L123">
+        <v>100</v>
+      </c>
+      <c r="M123" t="s">
+        <v>196</v>
       </c>
       <c r="N123" s="4"/>
     </row>
     <row r="124" spans="1:18" ht="37.5">
       <c r="A124" s="4">
-        <v>408</v>
-      </c>
-      <c r="C124" t="s">
-        <v>237</v>
+        <v>407</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E124">
-        <v>-15</v>
+        <v>40</v>
       </c>
       <c r="F124">
         <v>-130</v>
       </c>
       <c r="G124">
-        <v>430</v>
+        <v>775</v>
       </c>
       <c r="H124">
         <v>80</v>
@@ -5465,29 +5467,29 @@
       <c r="I124">
         <v>1</v>
       </c>
-      <c r="L124">
-        <v>100</v>
-      </c>
-      <c r="M124" t="s">
-        <v>204</v>
+      <c r="J124">
+        <v>1</v>
       </c>
       <c r="N124" s="4"/>
     </row>
     <row r="125" spans="1:18" ht="37.5">
-      <c r="A125">
-        <v>409</v>
+      <c r="A125" s="4">
+        <v>408</v>
+      </c>
+      <c r="C125" t="s">
+        <v>237</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E125">
-        <v>40</v>
+        <v>-15</v>
       </c>
       <c r="F125">
         <v>-130</v>
       </c>
       <c r="G125">
-        <v>775</v>
+        <v>430</v>
       </c>
       <c r="H125">
         <v>80</v>
@@ -5495,17 +5497,20 @@
       <c r="I125">
         <v>1</v>
       </c>
-      <c r="J125">
-        <v>1</v>
+      <c r="L125">
+        <v>100</v>
+      </c>
+      <c r="M125" t="s">
+        <v>204</v>
       </c>
       <c r="N125" s="4"/>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" ht="37.5">
       <c r="A126">
-        <v>410</v>
-      </c>
-      <c r="D126" t="s">
-        <v>220</v>
+        <v>409</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="E126">
         <v>40</v>
@@ -5514,7 +5519,7 @@
         <v>-130</v>
       </c>
       <c r="G126">
-        <v>500</v>
+        <v>775</v>
       </c>
       <c r="H126">
         <v>80</v>
@@ -5526,46 +5531,44 @@
         <v>1</v>
       </c>
       <c r="N126" s="4"/>
-      <c r="O126" s="4"/>
-    </row>
-    <row r="127" spans="1:18" ht="56.25">
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127">
-        <v>411</v>
-      </c>
-      <c r="C127" t="s">
-        <v>237</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>226</v>
+        <v>410</v>
+      </c>
+      <c r="D127" t="s">
+        <v>220</v>
       </c>
       <c r="E127">
-        <v>-15</v>
+        <v>40</v>
       </c>
       <c r="F127">
         <v>-130</v>
       </c>
       <c r="G127">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="H127">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="N127" s="4">
-        <v>1</v>
-      </c>
-      <c r="R127" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18">
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+    </row>
+    <row r="128" spans="1:18" ht="56.25">
       <c r="A128">
-        <v>412</v>
-      </c>
-      <c r="D128" t="s">
-        <v>221</v>
+        <v>411</v>
+      </c>
+      <c r="C128" t="s">
+        <v>237</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="E128">
         <v>-15</v>
@@ -5574,26 +5577,27 @@
         <v>-130</v>
       </c>
       <c r="G128">
-        <v>775</v>
+        <v>430</v>
       </c>
       <c r="H128">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128">
-        <v>1</v>
-      </c>
-      <c r="N128" s="4"/>
-      <c r="O128" s="4"/>
+      <c r="N128" s="4">
+        <v>1</v>
+      </c>
+      <c r="R128" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="129" spans="1:18">
       <c r="A129">
-        <v>413</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>235</v>
+        <v>412</v>
+      </c>
+      <c r="D129" t="s">
+        <v>221</v>
       </c>
       <c r="E129">
         <v>-15</v>
@@ -5614,16 +5618,14 @@
         <v>1</v>
       </c>
       <c r="N129" s="4"/>
-    </row>
-    <row r="130" spans="1:18" ht="37.5">
+      <c r="O129" s="4"/>
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130">
-        <v>414</v>
-      </c>
-      <c r="C130" t="s">
-        <v>237</v>
+        <v>413</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E130">
         <v>-15</v>
@@ -5632,27 +5634,28 @@
         <v>-130</v>
       </c>
       <c r="G130">
-        <v>430</v>
+        <v>775</v>
       </c>
       <c r="H130">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
-      <c r="N130" s="4">
-        <v>4</v>
-      </c>
-      <c r="R130" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18">
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="N130" s="4"/>
+    </row>
+    <row r="131" spans="1:18" ht="37.5">
       <c r="A131">
-        <v>415</v>
-      </c>
-      <c r="D131" t="s">
-        <v>222</v>
+        <v>414</v>
+      </c>
+      <c r="C131" t="s">
+        <v>237</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="E131">
         <v>-15</v>
@@ -5661,28 +5664,27 @@
         <v>-130</v>
       </c>
       <c r="G131">
-        <v>775</v>
+        <v>430</v>
       </c>
       <c r="H131">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
-      <c r="J131">
-        <v>1</v>
-      </c>
-      <c r="N131" s="4"/>
-    </row>
-    <row r="132" spans="1:18" ht="37.5">
+      <c r="N131" s="4">
+        <v>4</v>
+      </c>
+      <c r="R131" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132">
-        <v>416</v>
-      </c>
-      <c r="C132" t="s">
-        <v>237</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>231</v>
+        <v>415</v>
+      </c>
+      <c r="D132" t="s">
+        <v>222</v>
       </c>
       <c r="E132">
         <v>-15</v>
@@ -5691,28 +5693,28 @@
         <v>-130</v>
       </c>
       <c r="G132">
-        <v>430</v>
+        <v>775</v>
       </c>
       <c r="H132">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
       <c r="N132" s="4"/>
-      <c r="O132">
-        <v>107</v>
-      </c>
-      <c r="R132" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18">
+    </row>
+    <row r="133" spans="1:18" ht="37.5">
       <c r="A133">
-        <v>417</v>
-      </c>
-      <c r="D133" t="s">
-        <v>223</v>
+        <v>416</v>
+      </c>
+      <c r="C133" t="s">
+        <v>237</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="E133">
         <v>-15</v>
@@ -5721,28 +5723,28 @@
         <v>-130</v>
       </c>
       <c r="G133">
-        <v>775</v>
+        <v>430</v>
       </c>
       <c r="H133">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
-      <c r="J133">
-        <v>1</v>
-      </c>
       <c r="N133" s="4"/>
+      <c r="O133">
+        <v>107</v>
+      </c>
       <c r="R133" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="134" spans="1:18">
       <c r="A134">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D134" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="E134">
         <v>-15</v>
@@ -5763,16 +5765,16 @@
         <v>1</v>
       </c>
       <c r="N134" s="4"/>
-    </row>
-    <row r="135" spans="1:18" ht="37.5">
+      <c r="R134" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
       <c r="A135">
-        <v>419</v>
-      </c>
-      <c r="C135" t="s">
-        <v>237</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>232</v>
+        <v>418</v>
+      </c>
+      <c r="D135" t="s">
+        <v>209</v>
       </c>
       <c r="E135">
         <v>-15</v>
@@ -5781,55 +5783,55 @@
         <v>-130</v>
       </c>
       <c r="G135">
-        <v>450</v>
+        <v>775</v>
       </c>
       <c r="H135">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
       <c r="N135" s="4"/>
-      <c r="R135" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="136" spans="1:18" ht="37.5">
       <c r="A136">
-        <v>420</v>
+        <v>419</v>
+      </c>
+      <c r="C136" t="s">
+        <v>237</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="E136">
         <v>-15</v>
       </c>
       <c r="F136">
-        <v>-110</v>
+        <v>-130</v>
       </c>
       <c r="G136">
-        <v>775</v>
+        <v>450</v>
       </c>
       <c r="H136">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I136">
-        <v>1</v>
-      </c>
-      <c r="J136">
         <v>1</v>
       </c>
       <c r="N136" s="4"/>
       <c r="R136" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="37.5">
       <c r="A137">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E137">
         <v>-15</v>
@@ -5850,17 +5852,16 @@
         <v>1</v>
       </c>
       <c r="N137" s="4"/>
-      <c r="O137" s="4"/>
-    </row>
-    <row r="138" spans="1:18">
+      <c r="R137" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="37.5">
       <c r="A138">
-        <v>422</v>
-      </c>
-      <c r="C138" t="s">
-        <v>202</v>
-      </c>
-      <c r="D138" t="s">
-        <v>211</v>
+        <v>421</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="E138">
         <v>-15</v>
@@ -5874,14 +5875,24 @@
       <c r="H138">
         <v>80</v>
       </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
       <c r="N138" s="4"/>
-    </row>
-    <row r="139" spans="1:18" ht="37.5">
+      <c r="O138" s="4"/>
+    </row>
+    <row r="139" spans="1:18">
       <c r="A139">
-        <v>423</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>225</v>
+        <v>422</v>
+      </c>
+      <c r="C139" t="s">
+        <v>202</v>
+      </c>
+      <c r="D139" t="s">
+        <v>211</v>
       </c>
       <c r="E139">
         <v>-15</v>
@@ -5895,26 +5906,20 @@
       <c r="H139">
         <v>80</v>
       </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
       <c r="N139" s="4"/>
-      <c r="R139" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18">
+    </row>
+    <row r="140" spans="1:18" ht="37.5">
       <c r="A140">
-        <v>501</v>
-      </c>
-      <c r="D140" t="s">
-        <v>236</v>
+        <v>423</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="E140">
         <v>-15</v>
       </c>
       <c r="F140">
-        <v>-130</v>
+        <v>-110</v>
       </c>
       <c r="G140">
         <v>775</v>
@@ -5925,20 +5930,17 @@
       <c r="I140">
         <v>1</v>
       </c>
-      <c r="J140">
-        <v>1</v>
-      </c>
       <c r="N140" s="4"/>
       <c r="R140" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
     </row>
     <row r="141" spans="1:18">
       <c r="A141">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D141" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="E141">
         <v>-15</v>
@@ -5959,50 +5961,80 @@
         <v>1</v>
       </c>
       <c r="N141" s="4"/>
+      <c r="R141" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="142" spans="1:18">
       <c r="A142">
-        <v>503</v>
-      </c>
-      <c r="C142" t="s">
-        <v>89</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>213</v>
+        <v>502</v>
+      </c>
+      <c r="D142" t="s">
+        <v>212</v>
       </c>
       <c r="E142">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="F142">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G142">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="H142">
-        <v>75</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="N142" s="4"/>
     </row>
     <row r="143" spans="1:18">
       <c r="A143">
+        <v>503</v>
+      </c>
+      <c r="C143" t="s">
+        <v>89</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E143">
+        <v>-50</v>
+      </c>
+      <c r="F143">
+        <v>-170</v>
+      </c>
+      <c r="G143">
+        <v>750</v>
+      </c>
+      <c r="H143">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18">
+      <c r="A144">
         <v>504</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C144" t="s">
         <v>31</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D144" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E143">
+      <c r="E144">
         <v>150</v>
       </c>
-      <c r="F143">
-        <v>-100</v>
-      </c>
-      <c r="G143">
-        <v>500</v>
-      </c>
-      <c r="H143">
+      <c r="F144">
+        <v>-100</v>
+      </c>
+      <c r="G144">
+        <v>500</v>
+      </c>
+      <c r="H144">
         <v>100</v>
       </c>
     </row>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBB6F07-6031-4BD3-BF38-F5C45360A7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009C4281-99FD-4883-A98F-D51CFC2FE31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
+    <workbookView xWindow="20870" yWindow="-9090" windowWidth="24260" windowHeight="14520" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1122,10 +1122,6 @@
   </si>
   <si>
     <t>武器アイコンをタップしてみるぴ！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>武器を装備してみよう！</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1726,7 +1722,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あああああああああああああああああああああ</t>
+    <t>武器を装備しないで冒険に出ると危険だよ！</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずは、武器を装備してみよう！</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2287,10 +2302,10 @@
   <dimension ref="A1:R144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E104" sqref="E104"/>
+      <selection pane="bottomRight" activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2343,13 +2358,13 @@
         <v>96</v>
       </c>
       <c r="M1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N1" t="s">
         <v>137</v>
       </c>
       <c r="O1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P1" t="s">
         <v>148</v>
@@ -2358,7 +2373,7 @@
         <v>150</v>
       </c>
       <c r="R1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4780,7 +4795,7 @@
         <v>301</v>
       </c>
       <c r="D99" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4808,7 +4823,7 @@
         <v>302</v>
       </c>
       <c r="D100" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4859,10 +4874,10 @@
         <v>304</v>
       </c>
       <c r="C102" t="s">
+        <v>174</v>
+      </c>
+      <c r="D102" t="s">
         <v>175</v>
-      </c>
-      <c r="D102" t="s">
-        <v>176</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4883,7 +4898,7 @@
         <v>305</v>
       </c>
       <c r="D103" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4910,10 +4925,10 @@
         <v>306</v>
       </c>
       <c r="C104" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4934,7 +4949,7 @@
         <v>307</v>
       </c>
       <c r="D105" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4961,10 +4976,10 @@
         <v>308</v>
       </c>
       <c r="C106" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4985,7 +5000,7 @@
         <v>309</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -5012,10 +5027,10 @@
         <v>310</v>
       </c>
       <c r="C108" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -5036,10 +5051,10 @@
         <v>311</v>
       </c>
       <c r="C109" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D109" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -5060,7 +5075,7 @@
         <v>312</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -5087,7 +5102,7 @@
         <v>313</v>
       </c>
       <c r="D111" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -5109,7 +5124,7 @@
       </c>
       <c r="N111" s="4"/>
       <c r="P111" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -5117,10 +5132,10 @@
         <v>314</v>
       </c>
       <c r="C112" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D112" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -5136,7 +5151,7 @@
       </c>
       <c r="N112" s="4"/>
       <c r="Q112" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -5168,7 +5183,7 @@
         <v>316</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E114">
         <v>150</v>
@@ -5195,7 +5210,7 @@
         <v>317</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E115">
         <v>150</v>
@@ -5222,7 +5237,7 @@
         <v>318</v>
       </c>
       <c r="D116" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E116">
         <v>150</v>
@@ -5273,7 +5288,7 @@
         <v>401</v>
       </c>
       <c r="D118" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E118">
         <v>40</v>
@@ -5295,7 +5310,7 @@
       </c>
       <c r="N118" s="4"/>
       <c r="R118" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:18" ht="37.5">
@@ -5303,7 +5318,7 @@
         <v>402</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E119">
         <v>40</v>
@@ -5330,7 +5345,7 @@
         <v>403</v>
       </c>
       <c r="D120" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E120">
         <v>40</v>
@@ -5357,10 +5372,10 @@
         <v>404</v>
       </c>
       <c r="C121" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D121" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E121">
         <v>-15</v>
@@ -5381,7 +5396,7 @@
         <v>100</v>
       </c>
       <c r="M121" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N121" s="4"/>
     </row>
@@ -5390,7 +5405,7 @@
         <v>405</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E122">
         <v>40</v>
@@ -5417,10 +5432,10 @@
         <v>406</v>
       </c>
       <c r="C123" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E123">
         <v>-15</v>
@@ -5441,7 +5456,7 @@
         <v>100</v>
       </c>
       <c r="M123" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N123" s="4"/>
     </row>
@@ -5450,7 +5465,7 @@
         <v>407</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E124">
         <v>40</v>
@@ -5477,10 +5492,10 @@
         <v>408</v>
       </c>
       <c r="C125" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E125">
         <v>-15</v>
@@ -5501,7 +5516,7 @@
         <v>100</v>
       </c>
       <c r="M125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N125" s="4"/>
     </row>
@@ -5510,7 +5525,7 @@
         <v>409</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E126">
         <v>40</v>
@@ -5537,7 +5552,7 @@
         <v>410</v>
       </c>
       <c r="D127" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E127">
         <v>40</v>
@@ -5565,10 +5580,10 @@
         <v>411</v>
       </c>
       <c r="C128" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E128">
         <v>-15</v>
@@ -5589,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="R128" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -5597,7 +5612,7 @@
         <v>412</v>
       </c>
       <c r="D129" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E129">
         <v>-15</v>
@@ -5625,7 +5640,7 @@
         <v>413</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E130">
         <v>-15</v>
@@ -5652,10 +5667,10 @@
         <v>414</v>
       </c>
       <c r="C131" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E131">
         <v>-15</v>
@@ -5676,7 +5691,7 @@
         <v>4</v>
       </c>
       <c r="R131" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -5684,7 +5699,7 @@
         <v>415</v>
       </c>
       <c r="D132" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E132">
         <v>-15</v>
@@ -5711,10 +5726,10 @@
         <v>416</v>
       </c>
       <c r="C133" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E133">
         <v>-15</v>
@@ -5736,7 +5751,7 @@
         <v>107</v>
       </c>
       <c r="R133" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -5744,7 +5759,7 @@
         <v>417</v>
       </c>
       <c r="D134" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E134">
         <v>-15</v>
@@ -5766,7 +5781,7 @@
       </c>
       <c r="N134" s="4"/>
       <c r="R134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -5774,7 +5789,7 @@
         <v>418</v>
       </c>
       <c r="D135" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E135">
         <v>-15</v>
@@ -5801,10 +5816,10 @@
         <v>419</v>
       </c>
       <c r="C136" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E136">
         <v>-15</v>
@@ -5823,7 +5838,7 @@
       </c>
       <c r="N136" s="4"/>
       <c r="R136" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="37.5">
@@ -5831,7 +5846,7 @@
         <v>420</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E137">
         <v>-15</v>
@@ -5853,7 +5868,7 @@
       </c>
       <c r="N137" s="4"/>
       <c r="R137" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="138" spans="1:18" ht="37.5">
@@ -5861,7 +5876,7 @@
         <v>421</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E138">
         <v>-15</v>
@@ -5889,10 +5904,10 @@
         <v>422</v>
       </c>
       <c r="C139" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D139" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E139">
         <v>-15</v>
@@ -5913,7 +5928,7 @@
         <v>423</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E140">
         <v>-15</v>
@@ -5932,7 +5947,7 @@
       </c>
       <c r="N140" s="4"/>
       <c r="R140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -5940,7 +5955,7 @@
         <v>501</v>
       </c>
       <c r="D141" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E141">
         <v>-15</v>
@@ -5962,7 +5977,7 @@
       </c>
       <c r="N141" s="4"/>
       <c r="R141" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -5970,7 +5985,7 @@
         <v>502</v>
       </c>
       <c r="D142" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E142">
         <v>-15</v>
@@ -6000,7 +6015,7 @@
         <v>89</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E143">
         <v>-50</v>
@@ -6023,7 +6038,7 @@
         <v>31</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E144">
         <v>150</v>
@@ -6168,7 +6183,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:1">

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009C4281-99FD-4883-A98F-D51CFC2FE31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB1667C-A486-4079-ABB8-10934B5CB603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20870" yWindow="-9090" windowWidth="24260" windowHeight="14520" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2302,10 +2302,10 @@
   <dimension ref="A1:R144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D100" sqref="D100"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2528,7 +2528,7 @@
         <v>98</v>
       </c>
       <c r="E8">
-        <v>-150</v>
+        <v>70</v>
       </c>
       <c r="F8">
         <v>-150</v>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB1667C-A486-4079-ABB8-10934B5CB603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B520193-9825-471C-B159-0A27186016A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -699,10 +699,6 @@
   </si>
   <si>
     <t>「OK」ボタンをタップして設定完了だよ！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Craft(Clone)/BG/Scroll View/Viewport/Content/109</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1742,6 +1738,10 @@
   </si>
   <si>
     <t>まずは、武器を装備してみよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Craft(Clone)/BG/Scroll View/Viewport/Content/101</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2305,7 +2305,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2358,22 +2358,22 @@
         <v>96</v>
       </c>
       <c r="M1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2522,7 +2522,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>240</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>98</v>
@@ -2574,7 +2574,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>103</v>
@@ -2625,7 +2625,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>105</v>
@@ -2676,10 +2676,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14">
         <v>-150</v>
@@ -2696,7 +2696,7 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="Q14" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="4" customFormat="1">
@@ -2755,7 +2755,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>111</v>
@@ -2831,10 +2831,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2856,10 +2856,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2906,10 +2906,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2931,10 +2931,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2956,10 +2956,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3026,7 +3026,7 @@
       <c r="I27"/>
       <c r="J27"/>
       <c r="P27" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="4" customFormat="1" ht="37.5">
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>29</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="4" customFormat="1" ht="37.5">
@@ -3197,10 +3197,10 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E34">
         <v>125</v>
@@ -3222,7 +3222,7 @@
         <v>37</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="4" customFormat="1" ht="37.5">
@@ -3251,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="4" customFormat="1" ht="37.5">
@@ -3285,7 +3285,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3337,10 +3337,10 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>99</v>
@@ -3406,10 +3406,10 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>118</v>
@@ -3452,7 +3452,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>59</v>
@@ -3475,7 +3475,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3501,7 +3501,7 @@
         <v>44</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>101</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>102</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>11</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>87</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         <v>87</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>125</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>126</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>204</v>
       </c>
       <c r="C81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>69</v>
@@ -4449,7 +4449,7 @@
         <v>36</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4795,7 +4795,7 @@
         <v>301</v>
       </c>
       <c r="D99" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4823,7 +4823,7 @@
         <v>302</v>
       </c>
       <c r="D100" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4850,10 +4850,10 @@
         <v>303</v>
       </c>
       <c r="C101" t="s">
+        <v>171</v>
+      </c>
+      <c r="D101" t="s">
         <v>172</v>
-      </c>
-      <c r="D101" t="s">
-        <v>173</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4874,10 +4874,10 @@
         <v>304</v>
       </c>
       <c r="C102" t="s">
+        <v>173</v>
+      </c>
+      <c r="D102" t="s">
         <v>174</v>
-      </c>
-      <c r="D102" t="s">
-        <v>175</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4898,7 +4898,7 @@
         <v>305</v>
       </c>
       <c r="D103" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4925,10 +4925,10 @@
         <v>306</v>
       </c>
       <c r="C104" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4949,7 +4949,7 @@
         <v>307</v>
       </c>
       <c r="D105" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4976,10 +4976,10 @@
         <v>308</v>
       </c>
       <c r="C106" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -5000,7 +5000,7 @@
         <v>309</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -5027,10 +5027,10 @@
         <v>310</v>
       </c>
       <c r="C108" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -5051,10 +5051,10 @@
         <v>311</v>
       </c>
       <c r="C109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D109" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -5075,7 +5075,7 @@
         <v>312</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>313</v>
       </c>
       <c r="D111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="N111" s="4"/>
       <c r="P111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -5132,10 +5132,10 @@
         <v>314</v>
       </c>
       <c r="C112" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D112" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="N112" s="4"/>
       <c r="Q112" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -5183,7 +5183,7 @@
         <v>316</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E114">
         <v>150</v>
@@ -5210,7 +5210,7 @@
         <v>317</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E115">
         <v>150</v>
@@ -5237,7 +5237,7 @@
         <v>318</v>
       </c>
       <c r="D116" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E116">
         <v>150</v>
@@ -5288,7 +5288,7 @@
         <v>401</v>
       </c>
       <c r="D118" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E118">
         <v>40</v>
@@ -5310,7 +5310,7 @@
       </c>
       <c r="N118" s="4"/>
       <c r="R118" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="119" spans="1:18" ht="37.5">
@@ -5318,7 +5318,7 @@
         <v>402</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E119">
         <v>40</v>
@@ -5345,7 +5345,7 @@
         <v>403</v>
       </c>
       <c r="D120" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E120">
         <v>40</v>
@@ -5372,10 +5372,10 @@
         <v>404</v>
       </c>
       <c r="C121" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D121" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E121">
         <v>-15</v>
@@ -5396,7 +5396,7 @@
         <v>100</v>
       </c>
       <c r="M121" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N121" s="4"/>
     </row>
@@ -5405,7 +5405,7 @@
         <v>405</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E122">
         <v>40</v>
@@ -5432,10 +5432,10 @@
         <v>406</v>
       </c>
       <c r="C123" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E123">
         <v>-15</v>
@@ -5456,7 +5456,7 @@
         <v>100</v>
       </c>
       <c r="M123" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N123" s="4"/>
     </row>
@@ -5465,7 +5465,7 @@
         <v>407</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E124">
         <v>40</v>
@@ -5492,10 +5492,10 @@
         <v>408</v>
       </c>
       <c r="C125" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E125">
         <v>-15</v>
@@ -5516,7 +5516,7 @@
         <v>100</v>
       </c>
       <c r="M125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N125" s="4"/>
     </row>
@@ -5525,7 +5525,7 @@
         <v>409</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E126">
         <v>40</v>
@@ -5552,7 +5552,7 @@
         <v>410</v>
       </c>
       <c r="D127" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E127">
         <v>40</v>
@@ -5580,10 +5580,10 @@
         <v>411</v>
       </c>
       <c r="C128" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E128">
         <v>-15</v>
@@ -5604,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="R128" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -5612,7 +5612,7 @@
         <v>412</v>
       </c>
       <c r="D129" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E129">
         <v>-15</v>
@@ -5640,7 +5640,7 @@
         <v>413</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E130">
         <v>-15</v>
@@ -5667,10 +5667,10 @@
         <v>414</v>
       </c>
       <c r="C131" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E131">
         <v>-15</v>
@@ -5691,7 +5691,7 @@
         <v>4</v>
       </c>
       <c r="R131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -5699,7 +5699,7 @@
         <v>415</v>
       </c>
       <c r="D132" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E132">
         <v>-15</v>
@@ -5726,10 +5726,10 @@
         <v>416</v>
       </c>
       <c r="C133" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E133">
         <v>-15</v>
@@ -5751,7 +5751,7 @@
         <v>107</v>
       </c>
       <c r="R133" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -5759,7 +5759,7 @@
         <v>417</v>
       </c>
       <c r="D134" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E134">
         <v>-15</v>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="N134" s="4"/>
       <c r="R134" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -5789,7 +5789,7 @@
         <v>418</v>
       </c>
       <c r="D135" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E135">
         <v>-15</v>
@@ -5816,10 +5816,10 @@
         <v>419</v>
       </c>
       <c r="C136" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E136">
         <v>-15</v>
@@ -5838,7 +5838,7 @@
       </c>
       <c r="N136" s="4"/>
       <c r="R136" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="37.5">
@@ -5846,7 +5846,7 @@
         <v>420</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E137">
         <v>-15</v>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="N137" s="4"/>
       <c r="R137" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="138" spans="1:18" ht="37.5">
@@ -5876,7 +5876,7 @@
         <v>421</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E138">
         <v>-15</v>
@@ -5904,10 +5904,10 @@
         <v>422</v>
       </c>
       <c r="C139" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D139" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E139">
         <v>-15</v>
@@ -5928,7 +5928,7 @@
         <v>423</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E140">
         <v>-15</v>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="N140" s="4"/>
       <c r="R140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -5955,7 +5955,7 @@
         <v>501</v>
       </c>
       <c r="D141" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E141">
         <v>-15</v>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="N141" s="4"/>
       <c r="R141" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -5985,7 +5985,7 @@
         <v>502</v>
       </c>
       <c r="D142" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E142">
         <v>-15</v>
@@ -6015,7 +6015,7 @@
         <v>89</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E143">
         <v>-50</v>
@@ -6038,7 +6038,7 @@
         <v>31</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E144">
         <v>150</v>
@@ -6178,42 +6178,42 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B520193-9825-471C-B159-0A27186016A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD711D5-31D1-4FA3-91E7-C2A3FE5B0A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
@@ -604,9 +604,6 @@
   </si>
   <si>
     <t>作業台をタップしよう。</t>
-  </si>
-  <si>
-    <t>銅のブロックをタップしてみよう！</t>
   </si>
   <si>
     <t>ニックネームを入力しよう！
@@ -1742,6 +1739,13 @@
   </si>
   <si>
     <t>Craft(Clone)/BG/Scroll View/Viewport/Content/101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石のブロックをタップしてみよう！</t>
+    <rPh sb="0" eb="1">
+      <t>イシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2358,22 +2362,22 @@
         <v>96</v>
       </c>
       <c r="M1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2441,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2496,7 +2500,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>-150</v>
@@ -2522,10 +2526,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="E8">
         <v>70</v>
@@ -2548,7 +2552,7 @@
       </c>
       <c r="C9"/>
       <c r="D9" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9">
         <v>-150</v>
@@ -2574,10 +2578,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10">
         <v>-150</v>
@@ -2599,7 +2603,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11">
         <v>-150</v>
@@ -2625,10 +2629,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12">
         <v>-150</v>
@@ -2650,7 +2654,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13">
         <v>-150</v>
@@ -2676,10 +2680,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14">
         <v>-150</v>
@@ -2696,7 +2700,7 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="Q14" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="4" customFormat="1">
@@ -2707,7 +2711,7 @@
         <v>86</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2729,7 +2733,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2755,7 +2759,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2781,10 +2785,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2809,7 +2813,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2831,10 +2835,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2856,10 +2860,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2884,7 +2888,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2906,10 +2910,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2931,10 +2935,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2956,10 +2960,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2984,7 +2988,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3009,7 +3013,7 @@
         <v>87</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3026,7 +3030,7 @@
       <c r="I27"/>
       <c r="J27"/>
       <c r="P27" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="4" customFormat="1" ht="37.5">
@@ -3037,7 +3041,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3064,7 +3068,7 @@
         <v>27</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3090,7 +3094,7 @@
         <v>28</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3116,7 +3120,7 @@
         <v>29</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3142,7 +3146,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3168,7 +3172,7 @@
         <v>31</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E33">
         <v>-130</v>
@@ -3189,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="4" customFormat="1" ht="37.5">
@@ -3197,10 +3201,10 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E34">
         <v>125</v>
@@ -3222,7 +3226,7 @@
         <v>37</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="4" customFormat="1" ht="37.5">
@@ -3230,7 +3234,7 @@
         <v>33</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -3251,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="4" customFormat="1" ht="37.5">
@@ -3259,7 +3263,7 @@
         <v>34</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3285,7 +3289,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3311,7 +3315,7 @@
         <v>36</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3337,10 +3341,10 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3360,10 +3364,10 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3383,10 +3387,10 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3406,10 +3410,10 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3429,10 +3433,10 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3452,7 +3456,7 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>59</v>
@@ -3475,7 +3479,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3501,7 +3505,7 @@
         <v>44</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3600,7 +3604,7 @@
         <v>101</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3626,7 +3630,7 @@
         <v>102</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3724,7 +3728,7 @@
         <v>11</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3747,7 +3751,7 @@
         <v>87</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -4029,7 +4033,7 @@
         <v>87</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4176,7 +4180,7 @@
         <v>125</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4203,7 +4207,7 @@
         <v>126</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4354,7 +4358,7 @@
         <v>204</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>69</v>
@@ -4449,7 +4453,7 @@
         <v>36</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4795,7 +4799,7 @@
         <v>301</v>
       </c>
       <c r="D99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4823,7 +4827,7 @@
         <v>302</v>
       </c>
       <c r="D100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4850,10 +4854,10 @@
         <v>303</v>
       </c>
       <c r="C101" t="s">
+        <v>170</v>
+      </c>
+      <c r="D101" t="s">
         <v>171</v>
-      </c>
-      <c r="D101" t="s">
-        <v>172</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4874,10 +4878,10 @@
         <v>304</v>
       </c>
       <c r="C102" t="s">
+        <v>172</v>
+      </c>
+      <c r="D102" t="s">
         <v>173</v>
-      </c>
-      <c r="D102" t="s">
-        <v>174</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4898,7 +4902,7 @@
         <v>305</v>
       </c>
       <c r="D103" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4925,10 +4929,10 @@
         <v>306</v>
       </c>
       <c r="C104" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4949,7 +4953,7 @@
         <v>307</v>
       </c>
       <c r="D105" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4976,10 +4980,10 @@
         <v>308</v>
       </c>
       <c r="C106" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -5000,7 +5004,7 @@
         <v>309</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -5027,10 +5031,10 @@
         <v>310</v>
       </c>
       <c r="C108" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -5051,10 +5055,10 @@
         <v>311</v>
       </c>
       <c r="C109" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D109" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -5075,7 +5079,7 @@
         <v>312</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -5102,7 +5106,7 @@
         <v>313</v>
       </c>
       <c r="D111" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -5124,7 +5128,7 @@
       </c>
       <c r="N111" s="4"/>
       <c r="P111" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -5132,10 +5136,10 @@
         <v>314</v>
       </c>
       <c r="C112" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D112" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -5151,7 +5155,7 @@
       </c>
       <c r="N112" s="4"/>
       <c r="Q112" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -5183,7 +5187,7 @@
         <v>316</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E114">
         <v>150</v>
@@ -5210,7 +5214,7 @@
         <v>317</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E115">
         <v>150</v>
@@ -5237,7 +5241,7 @@
         <v>318</v>
       </c>
       <c r="D116" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E116">
         <v>150</v>
@@ -5288,7 +5292,7 @@
         <v>401</v>
       </c>
       <c r="D118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E118">
         <v>40</v>
@@ -5310,7 +5314,7 @@
       </c>
       <c r="N118" s="4"/>
       <c r="R118" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:18" ht="37.5">
@@ -5318,7 +5322,7 @@
         <v>402</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E119">
         <v>40</v>
@@ -5345,7 +5349,7 @@
         <v>403</v>
       </c>
       <c r="D120" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E120">
         <v>40</v>
@@ -5372,10 +5376,10 @@
         <v>404</v>
       </c>
       <c r="C121" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D121" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E121">
         <v>-15</v>
@@ -5396,7 +5400,7 @@
         <v>100</v>
       </c>
       <c r="M121" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N121" s="4"/>
     </row>
@@ -5405,7 +5409,7 @@
         <v>405</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E122">
         <v>40</v>
@@ -5432,10 +5436,10 @@
         <v>406</v>
       </c>
       <c r="C123" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E123">
         <v>-15</v>
@@ -5456,7 +5460,7 @@
         <v>100</v>
       </c>
       <c r="M123" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N123" s="4"/>
     </row>
@@ -5465,7 +5469,7 @@
         <v>407</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E124">
         <v>40</v>
@@ -5492,10 +5496,10 @@
         <v>408</v>
       </c>
       <c r="C125" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E125">
         <v>-15</v>
@@ -5516,7 +5520,7 @@
         <v>100</v>
       </c>
       <c r="M125" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N125" s="4"/>
     </row>
@@ -5525,7 +5529,7 @@
         <v>409</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E126">
         <v>40</v>
@@ -5552,7 +5556,7 @@
         <v>410</v>
       </c>
       <c r="D127" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E127">
         <v>40</v>
@@ -5580,10 +5584,10 @@
         <v>411</v>
       </c>
       <c r="C128" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E128">
         <v>-15</v>
@@ -5604,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="R128" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -5612,7 +5616,7 @@
         <v>412</v>
       </c>
       <c r="D129" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E129">
         <v>-15</v>
@@ -5640,7 +5644,7 @@
         <v>413</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E130">
         <v>-15</v>
@@ -5667,10 +5671,10 @@
         <v>414</v>
       </c>
       <c r="C131" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E131">
         <v>-15</v>
@@ -5691,7 +5695,7 @@
         <v>4</v>
       </c>
       <c r="R131" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -5699,7 +5703,7 @@
         <v>415</v>
       </c>
       <c r="D132" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E132">
         <v>-15</v>
@@ -5726,10 +5730,10 @@
         <v>416</v>
       </c>
       <c r="C133" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E133">
         <v>-15</v>
@@ -5751,7 +5755,7 @@
         <v>107</v>
       </c>
       <c r="R133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -5759,7 +5763,7 @@
         <v>417</v>
       </c>
       <c r="D134" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E134">
         <v>-15</v>
@@ -5781,7 +5785,7 @@
       </c>
       <c r="N134" s="4"/>
       <c r="R134" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -5789,7 +5793,7 @@
         <v>418</v>
       </c>
       <c r="D135" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E135">
         <v>-15</v>
@@ -5816,10 +5820,10 @@
         <v>419</v>
       </c>
       <c r="C136" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E136">
         <v>-15</v>
@@ -5838,7 +5842,7 @@
       </c>
       <c r="N136" s="4"/>
       <c r="R136" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="37.5">
@@ -5846,7 +5850,7 @@
         <v>420</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E137">
         <v>-15</v>
@@ -5868,7 +5872,7 @@
       </c>
       <c r="N137" s="4"/>
       <c r="R137" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="138" spans="1:18" ht="37.5">
@@ -5876,7 +5880,7 @@
         <v>421</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E138">
         <v>-15</v>
@@ -5904,10 +5908,10 @@
         <v>422</v>
       </c>
       <c r="C139" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D139" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E139">
         <v>-15</v>
@@ -5928,7 +5932,7 @@
         <v>423</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E140">
         <v>-15</v>
@@ -5947,7 +5951,7 @@
       </c>
       <c r="N140" s="4"/>
       <c r="R140" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -5955,7 +5959,7 @@
         <v>501</v>
       </c>
       <c r="D141" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E141">
         <v>-15</v>
@@ -5977,7 +5981,7 @@
       </c>
       <c r="N141" s="4"/>
       <c r="R141" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -5985,7 +5989,7 @@
         <v>502</v>
       </c>
       <c r="D142" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E142">
         <v>-15</v>
@@ -6015,7 +6019,7 @@
         <v>89</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E143">
         <v>-50</v>
@@ -6038,7 +6042,7 @@
         <v>31</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E144">
         <v>150</v>
@@ -6178,42 +6182,42 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD711D5-31D1-4FA3-91E7-C2A3FE5B0A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D5D7D8-DAE3-4488-8324-65144526EF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="242">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1738,14 +1738,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Craft(Clone)/BG/Scroll View/Viewport/Content/101</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>石のブロックをタップしてみよう！</t>
-    <rPh sb="0" eb="1">
-      <t>イシ</t>
-    </rPh>
+    <t>DisableCraftScroll</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かまどをタップしてみよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Craft(Clone)/BG/Scroll View/Viewport/Content/2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2306,10 +2307,10 @@
   <dimension ref="A1:R144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2526,13 +2527,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>240</v>
       </c>
       <c r="E8">
-        <v>70</v>
+        <v>-150</v>
       </c>
       <c r="F8">
         <v>-150</v>
@@ -2545,6 +2546,9 @@
       </c>
       <c r="I8"/>
       <c r="J8"/>
+      <c r="R8" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="9" spans="1:18" s="4" customFormat="1" ht="37.5">
       <c r="A9" s="4">

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D5D7D8-DAE3-4488-8324-65144526EF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB9DDE4-0BCA-4A95-B711-7CD534E2AAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
@@ -2307,10 +2307,10 @@
   <dimension ref="A1:R144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102">
         <v>500</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G103">
         <v>500</v>
@@ -4942,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G104">
         <v>550</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G105">
         <v>500</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G106">
         <v>500</v>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB9DDE4-0BCA-4A95-B711-7CD534E2AAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2FDB94-5188-4950-92A9-9AB973DE9183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
@@ -2307,10 +2307,10 @@
   <dimension ref="A1:R144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F107" sqref="F107"/>
+      <selection pane="bottomRight" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G103">
         <v>500</v>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2FDB94-5188-4950-92A9-9AB973DE9183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C643621-DBF0-47A9-8616-523AFED1C598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="245">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1747,6 +1747,23 @@
   </si>
   <si>
     <t>Craft(Clone)/BG/Scroll View/Viewport/Content/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home(Clone)/Items/Grid/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今度は「緑鉄のブロック」をタップして
+こっちを選択中にしよう！</t>
+    <rPh sb="0" eb="2">
+      <t>コンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>床の好きなところをタップして、
+「緑鉄のブロック」を設置しよう！</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1981,8 +1998,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}" name="テーブル1" displayName="テーブル1" ref="A1:R144" totalsRowShown="0">
-  <autoFilter ref="A1:R144" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}" name="テーブル1" displayName="テーブル1" ref="A1:R146" totalsRowShown="0">
+  <autoFilter ref="A1:R146" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{4DFE80C9-2B21-485D-9D6B-903F491DD911}" name="ID"/>
     <tableColumn id="2" xr3:uid="{26AC1C6D-BEB5-4CFC-A3C3-EA035AA87DC0}" name="Des"/>
@@ -2304,13 +2321,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE3D9C-AA04-4128-A1A9-BF15679480E0}">
-  <dimension ref="A1:R144"/>
+  <dimension ref="A1:R146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D104" sqref="D104"/>
+      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3067,12 +3084,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="4" customFormat="1">
+    <row r="29" spans="1:16" s="4" customFormat="1" ht="37.5">
       <c r="A29" s="4">
         <v>27</v>
       </c>
+      <c r="C29" t="s">
+        <v>242</v>
+      </c>
       <c r="D29" s="6" t="s">
-        <v>112</v>
+        <v>243</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3086,19 +3106,21 @@
       <c r="H29">
         <v>100</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="P29" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="4" customFormat="1" ht="37.5">
       <c r="A30" s="4">
         <v>28</v>
       </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
       <c r="D30" s="6" t="s">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3115,16 +3137,17 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="4" customFormat="1" ht="37.5">
+      <c r="J30"/>
+      <c r="N30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="4" customFormat="1">
       <c r="A31" s="4">
         <v>29</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3150,7 +3173,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3176,13 +3199,13 @@
         <v>31</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="E33">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>-160</v>
+        <v>-100</v>
       </c>
       <c r="G33">
         <v>500</v>
@@ -3195,42 +3218,32 @@
       </c>
       <c r="J33">
         <v>1</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="4" customFormat="1" ht="37.5">
       <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="C34" t="s">
-        <v>134</v>
-      </c>
       <c r="D34" s="6" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="E34">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>140</v>
+        <v>-100</v>
       </c>
       <c r="G34">
-        <v>730</v>
+        <v>500</v>
       </c>
       <c r="H34">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34"/>
-      <c r="N34" s="4">
-        <v>37</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>147</v>
+      <c r="J34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="4" customFormat="1" ht="37.5">
@@ -3238,13 +3251,13 @@
         <v>33</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="F35">
-        <v>-100</v>
+        <v>-160</v>
       </c>
       <c r="G35">
         <v>500</v>
@@ -3258,42 +3271,49 @@
       <c r="J35">
         <v>1</v>
       </c>
-      <c r="Q35" s="4" t="s">
-        <v>167</v>
+      <c r="P35" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="4" customFormat="1" ht="37.5">
       <c r="A36" s="4">
         <v>34</v>
       </c>
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
       <c r="D36" s="6" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="F36">
-        <v>-100</v>
+        <v>140</v>
       </c>
       <c r="G36">
-        <v>500</v>
+        <v>730</v>
       </c>
       <c r="H36">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" s="4" customFormat="1" ht="56.25">
+      <c r="J36"/>
+      <c r="N36" s="4">
+        <v>36</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="4" customFormat="1" ht="37.5">
       <c r="A37" s="4">
         <v>35</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3313,13 +3333,16 @@
       <c r="J37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" s="4" customFormat="1">
+      <c r="Q37" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="4" customFormat="1" ht="37.5">
       <c r="A38" s="4">
         <v>36</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3340,15 +3363,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" s="4" customFormat="1" ht="56.25">
       <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="C39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>168</v>
+      <c r="D39" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3357,21 +3377,24 @@
         <v>-100</v>
       </c>
       <c r="G39">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="H39">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="4" customFormat="1">
       <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="C40" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>142</v>
+      <c r="D40" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3385,25 +3408,31 @@
       <c r="H40">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="37.5">
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="4">
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="G41">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="H41">
         <v>100</v>
@@ -3414,16 +3443,16 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="G42">
         <v>500</v>
@@ -3432,15 +3461,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" ht="37.5">
       <c r="A43" s="4">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3455,21 +3484,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="37.5">
+    <row r="44" spans="1:17">
       <c r="A44" s="4">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G44">
         <v>500</v>
@@ -3482,40 +3511,40 @@
       <c r="A45" s="4">
         <v>43</v>
       </c>
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
       <c r="D45" s="5" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-100</v>
+        <v>150</v>
       </c>
       <c r="G45">
         <v>500</v>
       </c>
       <c r="H45">
         <v>100</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="37.5">
       <c r="A46" s="4">
         <v>44</v>
       </c>
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
       <c r="D46" s="5" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>500</v>
@@ -3523,20 +3552,13 @@
       <c r="H46">
         <v>100</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="N46" s="4"/>
-    </row>
-    <row r="47" spans="1:17" ht="37.5">
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="4">
         <v>45</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3561,14 +3583,11 @@
       <c r="A48" s="4">
         <v>46</v>
       </c>
-      <c r="C48" t="s">
-        <v>89</v>
-      </c>
       <c r="D48" s="5" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="E48">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>-100</v>
@@ -3579,19 +3598,23 @@
       <c r="H48">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" ht="37.5">
       <c r="A49" s="4">
         <v>47</v>
       </c>
-      <c r="C49" t="s">
-        <v>31</v>
-      </c>
       <c r="D49" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E49">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>-100</v>
@@ -3601,43 +3624,49 @@
       </c>
       <c r="H49">
         <v>100</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="37.5">
       <c r="A50" s="4">
-        <v>101</v>
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>89</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F50">
         <v>-100</v>
       </c>
       <c r="G50">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="H50">
         <v>100</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="37.5">
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="4">
-        <v>102</v>
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>31</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F51">
         <v>-100</v>
@@ -3647,23 +3676,14 @@
       </c>
       <c r="H51">
         <v>100</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="37.5">
       <c r="A52" s="4">
-        <v>103</v>
-      </c>
-      <c r="C52" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3672,50 +3692,59 @@
         <v>-100</v>
       </c>
       <c r="G52">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="H52">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="37.5">
       <c r="A53" s="4">
-        <v>104</v>
-      </c>
-      <c r="C53" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>44</v>
+        <v>102</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="G53">
         <v>500</v>
       </c>
       <c r="H53">
         <v>100</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="37.5">
       <c r="A54" s="4">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G54">
         <v>500</v>
@@ -3724,21 +3753,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="37.5">
+    <row r="55" spans="1:10">
       <c r="A55" s="4">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>159</v>
+        <v>4</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>100</v>
+        <v>-50</v>
       </c>
       <c r="G55">
         <v>500</v>
@@ -3749,19 +3778,19 @@
     </row>
     <row r="56" spans="1:10" ht="37.5">
       <c r="A56" s="4">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>500</v>
@@ -3772,39 +3801,36 @@
     </row>
     <row r="57" spans="1:10" ht="37.5">
       <c r="A57" s="4">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G57">
         <v>500</v>
       </c>
       <c r="H57">
         <v>100</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="37.5">
       <c r="A58" s="4">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3817,72 +3843,75 @@
       </c>
       <c r="H58">
         <v>100</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="37.5">
       <c r="A59" s="4">
+        <v>108</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>-100</v>
+      </c>
+      <c r="G59">
+        <v>500</v>
+      </c>
+      <c r="H59">
+        <v>100</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="37.5">
+      <c r="A60" s="4">
+        <v>109</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>-100</v>
+      </c>
+      <c r="G60">
+        <v>500</v>
+      </c>
+      <c r="H60">
+        <v>100</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="37.5">
+      <c r="A61" s="4">
         <v>110</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C61" t="s">
         <v>88</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>-100</v>
-      </c>
-      <c r="G59">
-        <v>500</v>
-      </c>
-      <c r="H59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="4">
-        <v>111</v>
-      </c>
-      <c r="C60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>150</v>
-      </c>
-      <c r="G60">
-        <v>500</v>
-      </c>
-      <c r="H60">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="4">
-        <v>112</v>
-      </c>
-      <c r="C61" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>49</v>
-      </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="G61">
         <v>500</v>
@@ -3893,13 +3922,13 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="4">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3914,15 +3943,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="37.5">
+    <row r="63" spans="1:10">
       <c r="A63" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3937,15 +3966,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="37.5">
+    <row r="64" spans="1:10">
       <c r="A64" s="4">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3960,21 +3989,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" ht="37.5">
       <c r="A65" s="4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>53</v>
+        <v>16</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>-50</v>
+        <v>150</v>
       </c>
       <c r="G65">
         <v>500</v>
@@ -3985,42 +4014,42 @@
     </row>
     <row r="66" spans="1:14" ht="37.5">
       <c r="A66" s="4">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
+        <v>150</v>
+      </c>
+      <c r="G66">
+        <v>500</v>
+      </c>
+      <c r="H66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="4">
+        <v>116</v>
+      </c>
+      <c r="C67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
         <v>-50</v>
-      </c>
-      <c r="G66">
-        <v>500</v>
-      </c>
-      <c r="H66">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="37.5">
-      <c r="A67" s="4">
-        <v>118</v>
-      </c>
-      <c r="C67" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>100</v>
       </c>
       <c r="G67">
         <v>500</v>
@@ -4031,19 +4060,19 @@
     </row>
     <row r="68" spans="1:14" ht="37.5">
       <c r="A68" s="4">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="G68">
         <v>500</v>
@@ -4052,41 +4081,41 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" ht="37.5">
       <c r="A69" s="4">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>56</v>
+        <v>11</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E69">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G69">
         <v>500</v>
       </c>
       <c r="H69">
         <v>100</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="37.5">
       <c r="A70" s="4">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="C70" t="s">
+        <v>87</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="E70">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>-100</v>
@@ -4096,96 +4125,90 @@
       </c>
       <c r="H70">
         <v>100</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="4">
+        <v>120</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71">
+        <v>-50</v>
+      </c>
+      <c r="F71">
+        <v>150</v>
+      </c>
+      <c r="G71">
+        <v>500</v>
+      </c>
+      <c r="H71">
+        <v>100</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="37.5">
+      <c r="A72" s="4">
+        <v>121</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72">
+        <v>-50</v>
+      </c>
+      <c r="F72">
+        <v>-100</v>
+      </c>
+      <c r="G72">
+        <v>500</v>
+      </c>
+      <c r="H72">
+        <v>100</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="4">
         <v>122</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C73" t="s">
         <v>90</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>-100</v>
-      </c>
-      <c r="G71">
-        <v>500</v>
-      </c>
-      <c r="H71">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="4">
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>-100</v>
+      </c>
+      <c r="G73">
+        <v>500</v>
+      </c>
+      <c r="H73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="4">
         <v>123</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D74" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>-100</v>
-      </c>
-      <c r="G72">
-        <v>500</v>
-      </c>
-      <c r="H72">
-        <v>100</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="37.5">
-      <c r="A73" s="4">
-        <v>124</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>-100</v>
-      </c>
-      <c r="G73">
-        <v>500</v>
-      </c>
-      <c r="H73">
-        <v>100</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="37.5">
-      <c r="A74" s="4">
-        <v>125</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="E74">
         <v>0</v>
       </c>
@@ -4193,7 +4216,7 @@
         <v>-100</v>
       </c>
       <c r="G74">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="H74">
         <v>100</v>
@@ -4204,14 +4227,13 @@
       <c r="J74">
         <v>1</v>
       </c>
-      <c r="N74" s="4"/>
     </row>
     <row r="75" spans="1:14" ht="37.5">
       <c r="A75" s="4">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4231,93 +4253,97 @@
       <c r="J75">
         <v>1</v>
       </c>
-      <c r="N75" s="4"/>
     </row>
     <row r="76" spans="1:14" ht="37.5">
       <c r="A76" s="4">
+        <v>125</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>-100</v>
+      </c>
+      <c r="G76">
+        <v>570</v>
+      </c>
+      <c r="H76">
+        <v>100</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="N76" s="4"/>
+    </row>
+    <row r="77" spans="1:14" ht="37.5">
+      <c r="A77" s="4">
+        <v>126</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>-100</v>
+      </c>
+      <c r="G77">
+        <v>500</v>
+      </c>
+      <c r="H77">
+        <v>100</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="N77" s="4"/>
+    </row>
+    <row r="78" spans="1:14" ht="37.5">
+      <c r="A78" s="4">
         <v>127</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C78" t="s">
         <v>89</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D78" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>500</v>
-      </c>
-      <c r="H76">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="4">
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>500</v>
+      </c>
+      <c r="H78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="4">
         <v>128</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C79" t="s">
         <v>31</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D79" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E77">
+      <c r="E79">
         <v>150</v>
       </c>
-      <c r="F77">
-        <v>-100</v>
-      </c>
-      <c r="G77">
-        <v>500</v>
-      </c>
-      <c r="H77">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78">
-        <v>201</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>500</v>
-      </c>
-      <c r="H78">
-        <v>100</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79">
-        <v>202</v>
-      </c>
-      <c r="C79" t="s">
-        <v>85</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
       <c r="F79">
         <v>-100</v>
       </c>
@@ -4326,825 +4352,814 @@
       </c>
       <c r="H79">
         <v>100</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80">
+        <v>201</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>500</v>
+      </c>
+      <c r="H80">
+        <v>100</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>202</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>-100</v>
+      </c>
+      <c r="G81">
+        <v>500</v>
+      </c>
+      <c r="H81">
+        <v>100</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
         <v>203</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C82" t="s">
         <v>33</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D82" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>100</v>
-      </c>
-      <c r="G80">
-        <v>500</v>
-      </c>
-      <c r="H80">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>100</v>
+      </c>
+      <c r="G82">
+        <v>500</v>
+      </c>
+      <c r="H82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
         <v>204</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C83" t="s">
         <v>169</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D83" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>-100</v>
-      </c>
-      <c r="G81">
-        <v>500</v>
-      </c>
-      <c r="H81">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82">
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>-100</v>
+      </c>
+      <c r="G83">
+        <v>500</v>
+      </c>
+      <c r="H83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
         <v>205</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C84" t="s">
         <v>17</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D84" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E82">
-        <v>-100</v>
-      </c>
-      <c r="F82">
+      <c r="E84">
+        <v>-100</v>
+      </c>
+      <c r="F84">
         <v>150</v>
       </c>
-      <c r="G82">
-        <v>500</v>
-      </c>
-      <c r="H82">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83">
+      <c r="G84">
+        <v>500</v>
+      </c>
+      <c r="H84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
         <v>206</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C85" t="s">
         <v>34</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D85" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
         <v>-150</v>
       </c>
-      <c r="G83">
-        <v>500</v>
-      </c>
-      <c r="H83">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84">
+      <c r="G85">
+        <v>500</v>
+      </c>
+      <c r="H85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
         <v>207</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C86" t="s">
         <v>35</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D86" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>-100</v>
-      </c>
-      <c r="G84">
-        <v>500</v>
-      </c>
-      <c r="H84">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="37.5">
-      <c r="A85">
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>-100</v>
+      </c>
+      <c r="G86">
+        <v>500</v>
+      </c>
+      <c r="H86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="37.5">
+      <c r="A87">
         <v>208</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C87" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D87" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>100</v>
-      </c>
-      <c r="G85">
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>100</v>
+      </c>
+      <c r="G87">
         <v>550</v>
       </c>
-      <c r="H85">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86">
+      <c r="H87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
         <v>209</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D88" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E86">
-        <v>-100</v>
-      </c>
-      <c r="F86">
-        <v>-100</v>
-      </c>
-      <c r="G86">
-        <v>500</v>
-      </c>
-      <c r="H86">
-        <v>100</v>
-      </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="37.5">
-      <c r="A87">
+      <c r="E88">
+        <v>-100</v>
+      </c>
+      <c r="F88">
+        <v>-100</v>
+      </c>
+      <c r="G88">
+        <v>500</v>
+      </c>
+      <c r="H88">
+        <v>100</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="37.5">
+      <c r="A89">
         <v>210</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D89" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E87">
-        <v>-100</v>
-      </c>
-      <c r="F87">
-        <v>-100</v>
-      </c>
-      <c r="G87">
-        <v>500</v>
-      </c>
-      <c r="H87">
-        <v>100</v>
-      </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88">
+      <c r="E89">
+        <v>-100</v>
+      </c>
+      <c r="F89">
+        <v>-100</v>
+      </c>
+      <c r="G89">
+        <v>500</v>
+      </c>
+      <c r="H89">
+        <v>100</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
         <v>211</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D90" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E88">
-        <v>-100</v>
-      </c>
-      <c r="F88">
-        <v>-100</v>
-      </c>
-      <c r="G88">
-        <v>500</v>
-      </c>
-      <c r="H88">
-        <v>100</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89">
+      <c r="E90">
+        <v>-100</v>
+      </c>
+      <c r="F90">
+        <v>-100</v>
+      </c>
+      <c r="G90">
+        <v>500</v>
+      </c>
+      <c r="H90">
+        <v>100</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
         <v>212</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C91" t="s">
         <v>38</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E89">
-        <v>100</v>
-      </c>
-      <c r="F89">
-        <v>-100</v>
-      </c>
-      <c r="G89">
-        <v>500</v>
-      </c>
-      <c r="H89">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="37.5">
-      <c r="A90">
+      <c r="E91">
+        <v>100</v>
+      </c>
+      <c r="F91">
+        <v>-100</v>
+      </c>
+      <c r="G91">
+        <v>500</v>
+      </c>
+      <c r="H91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="37.5">
+      <c r="A92">
         <v>213</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>-100</v>
-      </c>
-      <c r="G90">
-        <v>500</v>
-      </c>
-      <c r="H90">
-        <v>100</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="37.5">
-      <c r="A91">
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>-100</v>
+      </c>
+      <c r="G92">
+        <v>500</v>
+      </c>
+      <c r="H92">
+        <v>100</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="37.5">
+      <c r="A93">
         <v>214</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>-100</v>
-      </c>
-      <c r="G91">
-        <v>500</v>
-      </c>
-      <c r="H91">
-        <v>100</v>
-      </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="37.5">
-      <c r="A92">
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>-100</v>
+      </c>
+      <c r="G93">
+        <v>500</v>
+      </c>
+      <c r="H93">
+        <v>100</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="37.5">
+      <c r="A94">
         <v>215</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D94" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>-100</v>
-      </c>
-      <c r="G92">
-        <v>500</v>
-      </c>
-      <c r="H92">
-        <v>100</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="56.25">
-      <c r="A93">
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>-100</v>
+      </c>
+      <c r="G94">
+        <v>500</v>
+      </c>
+      <c r="H94">
+        <v>100</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="56.25">
+      <c r="A95">
         <v>216</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>-100</v>
-      </c>
-      <c r="G93">
-        <v>500</v>
-      </c>
-      <c r="H93">
-        <v>100</v>
-      </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-      <c r="J93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94">
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>-100</v>
+      </c>
+      <c r="G95">
+        <v>500</v>
+      </c>
+      <c r="H95">
+        <v>100</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
         <v>217</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>-100</v>
-      </c>
-      <c r="G94">
-        <v>500</v>
-      </c>
-      <c r="H94">
-        <v>100</v>
-      </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="J94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="37.5">
-      <c r="A95">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>-100</v>
+      </c>
+      <c r="G96">
+        <v>500</v>
+      </c>
+      <c r="H96">
+        <v>100</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="37.5">
+      <c r="A97">
         <v>218</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>-100</v>
-      </c>
-      <c r="G95">
-        <v>500</v>
-      </c>
-      <c r="H95">
-        <v>100</v>
-      </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-      <c r="J95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>-100</v>
+      </c>
+      <c r="G97">
+        <v>500</v>
+      </c>
+      <c r="H97">
+        <v>100</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98">
         <v>219</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C98" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D98" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>100</v>
-      </c>
-      <c r="G96">
-        <v>500</v>
-      </c>
-      <c r="H96">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
-      <c r="A97">
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>100</v>
+      </c>
+      <c r="G98">
+        <v>500</v>
+      </c>
+      <c r="H98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99">
         <v>220</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C99" t="s">
         <v>89</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D99" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>100</v>
-      </c>
-      <c r="G97">
-        <v>500</v>
-      </c>
-      <c r="H97">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17">
-      <c r="A98">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>100</v>
+      </c>
+      <c r="G99">
+        <v>500</v>
+      </c>
+      <c r="H99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100">
         <v>221</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C100" t="s">
         <v>31</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D100" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E98">
+      <c r="E100">
         <v>150</v>
       </c>
-      <c r="F98">
-        <v>-100</v>
-      </c>
-      <c r="G98">
-        <v>500</v>
-      </c>
-      <c r="H98">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
-      <c r="A99">
+      <c r="F100">
+        <v>-100</v>
+      </c>
+      <c r="G100">
+        <v>500</v>
+      </c>
+      <c r="H100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101">
         <v>301</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D101" t="s">
         <v>237</v>
       </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>-100</v>
-      </c>
-      <c r="G99">
-        <v>500</v>
-      </c>
-      <c r="H99">
-        <v>100</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-    </row>
-    <row r="100" spans="1:17">
-      <c r="A100">
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>-100</v>
+      </c>
+      <c r="G101">
+        <v>500</v>
+      </c>
+      <c r="H101">
+        <v>100</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102">
         <v>302</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D102" t="s">
         <v>238</v>
       </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>-100</v>
-      </c>
-      <c r="G100">
-        <v>500</v>
-      </c>
-      <c r="H100">
-        <v>100</v>
-      </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-      <c r="J100">
-        <v>1</v>
-      </c>
-      <c r="N100" s="4"/>
-    </row>
-    <row r="101" spans="1:17">
-      <c r="A101">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>-100</v>
+      </c>
+      <c r="G102">
+        <v>500</v>
+      </c>
+      <c r="H102">
+        <v>100</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="N102" s="4"/>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103">
         <v>303</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C103" t="s">
         <v>170</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D103" t="s">
         <v>171</v>
       </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>-100</v>
-      </c>
-      <c r="G101">
-        <v>500</v>
-      </c>
-      <c r="H101">
-        <v>100</v>
-      </c>
-      <c r="N101" s="4"/>
-    </row>
-    <row r="102" spans="1:17">
-      <c r="A102">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>-100</v>
+      </c>
+      <c r="G103">
+        <v>500</v>
+      </c>
+      <c r="H103">
+        <v>100</v>
+      </c>
+      <c r="N103" s="4"/>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104">
         <v>304</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C104" t="s">
         <v>172</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D104" t="s">
         <v>173</v>
       </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>500</v>
-      </c>
-      <c r="H102">
-        <v>100</v>
-      </c>
-      <c r="N102" s="4"/>
-    </row>
-    <row r="103" spans="1:17">
-      <c r="A103">
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>500</v>
+      </c>
+      <c r="H104">
+        <v>100</v>
+      </c>
+      <c r="N104" s="4"/>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105">
         <v>305</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D105" t="s">
         <v>174</v>
       </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>-100</v>
-      </c>
-      <c r="G103">
-        <v>500</v>
-      </c>
-      <c r="H103">
-        <v>100</v>
-      </c>
-      <c r="I103">
-        <v>1</v>
-      </c>
-      <c r="J103">
-        <v>1</v>
-      </c>
-      <c r="N103" s="4"/>
-    </row>
-    <row r="104" spans="1:17" ht="37.5">
-      <c r="A104">
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>-100</v>
+      </c>
+      <c r="G105">
+        <v>500</v>
+      </c>
+      <c r="H105">
+        <v>100</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="N105" s="4"/>
+    </row>
+    <row r="106" spans="1:15" ht="37.5">
+      <c r="A106">
         <v>306</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C106" t="s">
         <v>176</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D106" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
         <v>550</v>
       </c>
-      <c r="H104">
-        <v>100</v>
-      </c>
-      <c r="N104" s="4"/>
-    </row>
-    <row r="105" spans="1:17">
-      <c r="A105">
+      <c r="H106">
+        <v>100</v>
+      </c>
+      <c r="N106" s="4"/>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107">
         <v>307</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D107" t="s">
         <v>178</v>
       </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>500</v>
-      </c>
-      <c r="H105">
-        <v>100</v>
-      </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-      <c r="J105">
-        <v>1</v>
-      </c>
-      <c r="N105" s="4"/>
-    </row>
-    <row r="106" spans="1:17">
-      <c r="A106">
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>500</v>
+      </c>
+      <c r="H107">
+        <v>100</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="N107" s="4"/>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108">
         <v>308</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C108" t="s">
         <v>179</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D108" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>500</v>
-      </c>
-      <c r="H106">
-        <v>100</v>
-      </c>
-      <c r="N106" s="4"/>
-    </row>
-    <row r="107" spans="1:17" ht="37.5">
-      <c r="A107">
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>500</v>
+      </c>
+      <c r="H108">
+        <v>100</v>
+      </c>
+      <c r="N108" s="4"/>
+    </row>
+    <row r="109" spans="1:15" ht="37.5">
+      <c r="A109">
         <v>309</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D109" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
         <v>-150</v>
       </c>
-      <c r="G107">
+      <c r="G109">
         <v>620</v>
       </c>
-      <c r="H107">
-        <v>100</v>
-      </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
-      <c r="J107">
-        <v>1</v>
-      </c>
-      <c r="N107" s="4"/>
-    </row>
-    <row r="108" spans="1:17">
-      <c r="A108">
+      <c r="H109">
+        <v>100</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="N109" s="4"/>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110">
         <v>310</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C110" t="s">
         <v>180</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D110" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>-100</v>
-      </c>
-      <c r="G108">
-        <v>500</v>
-      </c>
-      <c r="H108">
-        <v>100</v>
-      </c>
-      <c r="N108" s="4"/>
-    </row>
-    <row r="109" spans="1:17">
-      <c r="A109">
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>-100</v>
+      </c>
+      <c r="G110">
+        <v>500</v>
+      </c>
+      <c r="H110">
+        <v>100</v>
+      </c>
+      <c r="N110" s="4"/>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111">
         <v>311</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C111" t="s">
         <v>177</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D111" t="s">
         <v>183</v>
       </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>-100</v>
-      </c>
-      <c r="G109">
-        <v>500</v>
-      </c>
-      <c r="H109">
-        <v>100</v>
-      </c>
-      <c r="N109" s="4"/>
-    </row>
-    <row r="110" spans="1:17">
-      <c r="A110">
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>-100</v>
+      </c>
+      <c r="G111">
+        <v>500</v>
+      </c>
+      <c r="H111">
+        <v>100</v>
+      </c>
+      <c r="N111" s="4"/>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112">
         <v>312</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D112" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>-100</v>
-      </c>
-      <c r="G110">
-        <v>500</v>
-      </c>
-      <c r="H110">
-        <v>100</v>
-      </c>
-      <c r="I110">
-        <v>1</v>
-      </c>
-      <c r="J110">
-        <v>1</v>
-      </c>
-      <c r="N110" s="4"/>
-    </row>
-    <row r="111" spans="1:17">
-      <c r="A111">
-        <v>313</v>
-      </c>
-      <c r="D111" t="s">
-        <v>185</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>-100</v>
-      </c>
-      <c r="G111">
-        <v>540</v>
-      </c>
-      <c r="H111">
-        <v>100</v>
-      </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
-      <c r="J111">
-        <v>1</v>
-      </c>
-      <c r="N111" s="4"/>
-      <c r="P111" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17">
-      <c r="A112">
-        <v>314</v>
-      </c>
-      <c r="C112" t="s">
-        <v>186</v>
-      </c>
-      <c r="D112" t="s">
-        <v>236</v>
-      </c>
       <c r="E112">
         <v>0</v>
       </c>
@@ -5157,44 +5172,56 @@
       <c r="H112">
         <v>100</v>
       </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
       <c r="N112" s="4"/>
-      <c r="Q112" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="113" spans="1:18">
       <c r="A113">
-        <v>315</v>
-      </c>
-      <c r="C113" t="s">
-        <v>89</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>80</v>
+        <v>313</v>
+      </c>
+      <c r="D113" t="s">
+        <v>185</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G113">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="H113">
         <v>100</v>
       </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
       <c r="N113" s="4"/>
+      <c r="P113" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="114" spans="1:18">
       <c r="A114">
-        <v>316</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>188</v>
+        <v>314</v>
+      </c>
+      <c r="C114" t="s">
+        <v>186</v>
+      </c>
+      <c r="D114" t="s">
+        <v>236</v>
       </c>
       <c r="E114">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>-100</v>
@@ -5205,47 +5232,41 @@
       <c r="H114">
         <v>100</v>
       </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-      <c r="J114">
-        <v>1</v>
-      </c>
       <c r="N114" s="4"/>
-    </row>
-    <row r="115" spans="1:18" ht="37.5">
+      <c r="Q114" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115">
-        <v>317</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>189</v>
+        <v>315</v>
+      </c>
+      <c r="C115" t="s">
+        <v>89</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="E115">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G115">
         <v>500</v>
       </c>
       <c r="H115">
         <v>100</v>
-      </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-      <c r="J115">
-        <v>1</v>
       </c>
       <c r="N115" s="4"/>
     </row>
     <row r="116" spans="1:18">
       <c r="A116">
-        <v>318</v>
-      </c>
-      <c r="D116" t="s">
-        <v>190</v>
+        <v>316</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="E116">
         <v>150</v>
@@ -5267,15 +5288,12 @@
       </c>
       <c r="N116" s="4"/>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" ht="37.5">
       <c r="A117">
-        <v>319</v>
-      </c>
-      <c r="C117" t="s">
-        <v>31</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>81</v>
+        <v>317</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="E117">
         <v>150</v>
@@ -5289,26 +5307,32 @@
       <c r="H117">
         <v>100</v>
       </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
       <c r="N117" s="4"/>
     </row>
     <row r="118" spans="1:18">
       <c r="A118">
-        <v>401</v>
+        <v>318</v>
       </c>
       <c r="D118" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E118">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="F118">
-        <v>-130</v>
+        <v>-100</v>
       </c>
       <c r="G118">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="H118">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -5317,43 +5341,37 @@
         <v>1</v>
       </c>
       <c r="N118" s="4"/>
-      <c r="R118" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" ht="37.5">
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119">
-        <v>402</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>224</v>
+        <v>319</v>
+      </c>
+      <c r="C119" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="E119">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="F119">
-        <v>-130</v>
+        <v>-100</v>
       </c>
       <c r="G119">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="H119">
-        <v>80</v>
-      </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
-      <c r="J119">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N119" s="4"/>
     </row>
     <row r="120" spans="1:18">
       <c r="A120">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E120">
         <v>40</v>
@@ -5374,25 +5392,25 @@
         <v>1</v>
       </c>
       <c r="N120" s="4"/>
-    </row>
-    <row r="121" spans="1:18">
-      <c r="A121" s="4">
-        <v>404</v>
-      </c>
-      <c r="C121" t="s">
-        <v>234</v>
-      </c>
-      <c r="D121" t="s">
-        <v>205</v>
+      <c r="R120" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" ht="37.5">
+      <c r="A121">
+        <v>402</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="E121">
-        <v>-15</v>
+        <v>40</v>
       </c>
       <c r="F121">
         <v>-130</v>
       </c>
       <c r="G121">
-        <v>430</v>
+        <v>775</v>
       </c>
       <c r="H121">
         <v>80</v>
@@ -5400,20 +5418,17 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="L121">
-        <v>100</v>
-      </c>
-      <c r="M121" t="s">
-        <v>192</v>
+      <c r="J121">
+        <v>1</v>
       </c>
       <c r="N121" s="4"/>
     </row>
-    <row r="122" spans="1:18" ht="37.5">
-      <c r="A122" s="4">
-        <v>405</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>214</v>
+    <row r="122" spans="1:18">
+      <c r="A122">
+        <v>403</v>
+      </c>
+      <c r="D122" t="s">
+        <v>204</v>
       </c>
       <c r="E122">
         <v>40</v>
@@ -5435,15 +5450,15 @@
       </c>
       <c r="N122" s="4"/>
     </row>
-    <row r="123" spans="1:18" ht="37.5">
+    <row r="123" spans="1:18">
       <c r="A123" s="4">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C123" t="s">
         <v>234</v>
       </c>
-      <c r="D123" s="10" t="s">
-        <v>225</v>
+      <c r="D123" t="s">
+        <v>205</v>
       </c>
       <c r="E123">
         <v>-15</v>
@@ -5464,16 +5479,16 @@
         <v>100</v>
       </c>
       <c r="M123" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N123" s="4"/>
     </row>
     <row r="124" spans="1:18" ht="37.5">
       <c r="A124" s="4">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E124">
         <v>40</v>
@@ -5497,13 +5512,13 @@
     </row>
     <row r="125" spans="1:18" ht="37.5">
       <c r="A125" s="4">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C125" t="s">
         <v>234</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E125">
         <v>-15</v>
@@ -5524,16 +5539,16 @@
         <v>100</v>
       </c>
       <c r="M125" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="N125" s="4"/>
     </row>
     <row r="126" spans="1:18" ht="37.5">
-      <c r="A126">
-        <v>409</v>
+      <c r="A126" s="4">
+        <v>407</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E126">
         <v>40</v>
@@ -5555,21 +5570,24 @@
       </c>
       <c r="N126" s="4"/>
     </row>
-    <row r="127" spans="1:18">
-      <c r="A127">
-        <v>410</v>
-      </c>
-      <c r="D127" t="s">
-        <v>217</v>
+    <row r="127" spans="1:18" ht="37.5">
+      <c r="A127" s="4">
+        <v>408</v>
+      </c>
+      <c r="C127" t="s">
+        <v>234</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="E127">
-        <v>40</v>
+        <v>-15</v>
       </c>
       <c r="F127">
         <v>-130</v>
       </c>
       <c r="G127">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="H127">
         <v>80</v>
@@ -5577,59 +5595,56 @@
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="J127">
-        <v>1</v>
+      <c r="L127">
+        <v>100</v>
+      </c>
+      <c r="M127" t="s">
+        <v>201</v>
       </c>
       <c r="N127" s="4"/>
-      <c r="O127" s="4"/>
-    </row>
-    <row r="128" spans="1:18" ht="56.25">
+    </row>
+    <row r="128" spans="1:18" ht="37.5">
       <c r="A128">
-        <v>411</v>
-      </c>
-      <c r="C128" t="s">
-        <v>234</v>
+        <v>409</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E128">
-        <v>-15</v>
+        <v>40</v>
       </c>
       <c r="F128">
         <v>-130</v>
       </c>
       <c r="G128">
-        <v>430</v>
+        <v>775</v>
       </c>
       <c r="H128">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="N128" s="4">
-        <v>1</v>
-      </c>
-      <c r="R128" t="s">
-        <v>194</v>
-      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="N128" s="4"/>
     </row>
     <row r="129" spans="1:18">
       <c r="A129">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D129" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E129">
-        <v>-15</v>
+        <v>40</v>
       </c>
       <c r="F129">
         <v>-130</v>
       </c>
       <c r="G129">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="H129">
         <v>80</v>
@@ -5643,12 +5658,15 @@
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" ht="56.25">
       <c r="A130">
-        <v>413</v>
+        <v>411</v>
+      </c>
+      <c r="C130" t="s">
+        <v>234</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E130">
         <v>-15</v>
@@ -5657,28 +5675,27 @@
         <v>-130</v>
       </c>
       <c r="G130">
-        <v>775</v>
+        <v>430</v>
       </c>
       <c r="H130">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
-      <c r="J130">
-        <v>1</v>
-      </c>
-      <c r="N130" s="4"/>
-    </row>
-    <row r="131" spans="1:18" ht="37.5">
+      <c r="N130" s="4">
+        <v>1</v>
+      </c>
+      <c r="R130" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131">
-        <v>414</v>
-      </c>
-      <c r="C131" t="s">
-        <v>234</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>227</v>
+        <v>412</v>
+      </c>
+      <c r="D131" t="s">
+        <v>218</v>
       </c>
       <c r="E131">
         <v>-15</v>
@@ -5687,27 +5704,26 @@
         <v>-130</v>
       </c>
       <c r="G131">
-        <v>430</v>
+        <v>775</v>
       </c>
       <c r="H131">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
-      <c r="N131" s="4">
-        <v>4</v>
-      </c>
-      <c r="R131" t="s">
-        <v>195</v>
-      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
     </row>
     <row r="132" spans="1:18">
       <c r="A132">
-        <v>415</v>
-      </c>
-      <c r="D132" t="s">
-        <v>219</v>
+        <v>413</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="E132">
         <v>-15</v>
@@ -5731,13 +5747,13 @@
     </row>
     <row r="133" spans="1:18" ht="37.5">
       <c r="A133">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C133" t="s">
         <v>234</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E133">
         <v>-15</v>
@@ -5754,20 +5770,19 @@
       <c r="I133">
         <v>1</v>
       </c>
-      <c r="N133" s="4"/>
-      <c r="O133">
-        <v>107</v>
+      <c r="N133" s="4">
+        <v>4</v>
       </c>
       <c r="R133" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134" spans="1:18">
       <c r="A134">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D134" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E134">
         <v>-15</v>
@@ -5788,16 +5803,16 @@
         <v>1</v>
       </c>
       <c r="N134" s="4"/>
-      <c r="R134" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18">
+    </row>
+    <row r="135" spans="1:18" ht="37.5">
       <c r="A135">
-        <v>418</v>
-      </c>
-      <c r="D135" t="s">
-        <v>206</v>
+        <v>416</v>
+      </c>
+      <c r="C135" t="s">
+        <v>234</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="E135">
         <v>-15</v>
@@ -5806,28 +5821,28 @@
         <v>-130</v>
       </c>
       <c r="G135">
-        <v>775</v>
+        <v>430</v>
       </c>
       <c r="H135">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
-      <c r="J135">
-        <v>1</v>
-      </c>
       <c r="N135" s="4"/>
-    </row>
-    <row r="136" spans="1:18" ht="37.5">
+      <c r="O135">
+        <v>107</v>
+      </c>
+      <c r="R135" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136">
-        <v>419</v>
-      </c>
-      <c r="C136" t="s">
-        <v>234</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>229</v>
+        <v>417</v>
+      </c>
+      <c r="D136" t="s">
+        <v>220</v>
       </c>
       <c r="E136">
         <v>-15</v>
@@ -5836,31 +5851,34 @@
         <v>-130</v>
       </c>
       <c r="G136">
-        <v>450</v>
+        <v>775</v>
       </c>
       <c r="H136">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
         <v>1</v>
       </c>
       <c r="N136" s="4"/>
       <c r="R136" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" ht="37.5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137">
-        <v>420</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>207</v>
+        <v>418</v>
+      </c>
+      <c r="D137" t="s">
+        <v>206</v>
       </c>
       <c r="E137">
         <v>-15</v>
       </c>
       <c r="F137">
-        <v>-110</v>
+        <v>-130</v>
       </c>
       <c r="G137">
         <v>775</v>
@@ -5875,47 +5893,43 @@
         <v>1</v>
       </c>
       <c r="N137" s="4"/>
-      <c r="R137" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="138" spans="1:18" ht="37.5">
       <c r="A138">
-        <v>421</v>
+        <v>419</v>
+      </c>
+      <c r="C138" t="s">
+        <v>234</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E138">
         <v>-15</v>
       </c>
       <c r="F138">
-        <v>-110</v>
+        <v>-130</v>
       </c>
       <c r="G138">
-        <v>775</v>
+        <v>450</v>
       </c>
       <c r="H138">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
-      <c r="J138">
-        <v>1</v>
-      </c>
       <c r="N138" s="4"/>
-      <c r="O138" s="4"/>
-    </row>
-    <row r="139" spans="1:18">
+      <c r="R138" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" ht="37.5">
       <c r="A139">
-        <v>422</v>
-      </c>
-      <c r="C139" t="s">
-        <v>199</v>
-      </c>
-      <c r="D139" t="s">
-        <v>208</v>
+        <v>420</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="E139">
         <v>-15</v>
@@ -5929,14 +5943,23 @@
       <c r="H139">
         <v>80</v>
       </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
       <c r="N139" s="4"/>
+      <c r="R139" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="140" spans="1:18" ht="37.5">
       <c r="A140">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E140">
         <v>-15</v>
@@ -5953,23 +5976,27 @@
       <c r="I140">
         <v>1</v>
       </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
       <c r="N140" s="4"/>
-      <c r="R140" t="s">
-        <v>200</v>
-      </c>
+      <c r="O140" s="4"/>
     </row>
     <row r="141" spans="1:18">
       <c r="A141">
-        <v>501</v>
+        <v>422</v>
+      </c>
+      <c r="C141" t="s">
+        <v>199</v>
       </c>
       <c r="D141" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="E141">
         <v>-15</v>
       </c>
       <c r="F141">
-        <v>-130</v>
+        <v>-110</v>
       </c>
       <c r="G141">
         <v>775</v>
@@ -5977,29 +6004,20 @@
       <c r="H141">
         <v>80</v>
       </c>
-      <c r="I141">
-        <v>1</v>
-      </c>
-      <c r="J141">
-        <v>1</v>
-      </c>
       <c r="N141" s="4"/>
-      <c r="R141" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18">
+    </row>
+    <row r="142" spans="1:18" ht="37.5">
       <c r="A142">
-        <v>502</v>
-      </c>
-      <c r="D142" t="s">
-        <v>209</v>
+        <v>423</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="E142">
         <v>-15</v>
       </c>
       <c r="F142">
-        <v>-130</v>
+        <v>-110</v>
       </c>
       <c r="G142">
         <v>775</v>
@@ -6010,54 +6028,111 @@
       <c r="I142">
         <v>1</v>
       </c>
-      <c r="J142">
-        <v>1</v>
-      </c>
       <c r="N142" s="4"/>
+      <c r="R142" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="143" spans="1:18">
       <c r="A143">
-        <v>503</v>
-      </c>
-      <c r="C143" t="s">
-        <v>89</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>210</v>
+        <v>501</v>
+      </c>
+      <c r="D143" t="s">
+        <v>233</v>
       </c>
       <c r="E143">
-        <v>-50</v>
+        <v>-15</v>
       </c>
       <c r="F143">
-        <v>-170</v>
+        <v>-130</v>
       </c>
       <c r="G143">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="H143">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="N143" s="4"/>
+      <c r="R143" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="144" spans="1:18">
       <c r="A144">
+        <v>502</v>
+      </c>
+      <c r="D144" t="s">
+        <v>209</v>
+      </c>
+      <c r="E144">
+        <v>-15</v>
+      </c>
+      <c r="F144">
+        <v>-130</v>
+      </c>
+      <c r="G144">
+        <v>775</v>
+      </c>
+      <c r="H144">
+        <v>80</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="N144" s="4"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145">
+        <v>503</v>
+      </c>
+      <c r="C145" t="s">
+        <v>89</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E145">
+        <v>-50</v>
+      </c>
+      <c r="F145">
+        <v>-170</v>
+      </c>
+      <c r="G145">
+        <v>750</v>
+      </c>
+      <c r="H145">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146">
         <v>504</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C146" t="s">
         <v>31</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D146" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E144">
+      <c r="E146">
         <v>150</v>
       </c>
-      <c r="F144">
-        <v>-100</v>
-      </c>
-      <c r="G144">
-        <v>500</v>
-      </c>
-      <c r="H144">
+      <c r="F146">
+        <v>-100</v>
+      </c>
+      <c r="G146">
+        <v>500</v>
+      </c>
+      <c r="H146">
         <v>100</v>
       </c>
     </row>

--- a/Config/Excel/GuideStep.xlsx
+++ b/Config/Excel/GuideStep.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Desktop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C643621-DBF0-47A9-8616-523AFED1C598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD11E97-58A0-4163-9D1C-C8CA584A22B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0EA803-DD18-455F-861A-CEEF153BB40F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="231">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -398,11 +398,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「x」ボタンで、
-プロフィール画面を閉じるぴ。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>準備は完了っぴ！
 「クラフト物語」の世界へようこそ！</t>
     <rPh sb="3" eb="5">
@@ -606,11 +601,6 @@
     <t>作業台をタップしよう。</t>
   </si>
   <si>
-    <t>ニックネームを入力しよう！
-ニックネームは後から変更もできるぴ。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>まずは、ブロックを作ってみるぴ！</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -688,14 +678,6 @@
   <si>
     <t>これで君も
 立派なクラフターだぴ！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最後に、君の名前を教えてほしいぴ！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「OK」ボタンをタップして設定完了だよ！</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -807,41 +789,6 @@
     <rPh sb="33" eb="35">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Home(Clone)/MenuBtn/Image</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PersonalMessage(Clone)/Image/NickName/ChangeNickName/InputField</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ニックネームを入力するぴ。</t>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Menu(Clone)/BG/Btns/PersonalMessageBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「プロフィール」をタップするぴ！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PersonalMessage(Clone)/Image/NickName/Show/ChangeBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PersonalMessage(Clone)/Image/NickName/ChangeNickName/OKBtn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PersonalMessage(Clone)/Image/Title/CloseBtn</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1084,10 +1031,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メッセージにブロックをプレゼントしたので使ってみてほしいぴ！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ぼくからもブロックをプレゼントしておいたぴ。
 このブロックを全部使って家を建ててみよう！</t>
     <phoneticPr fontId="1"/>
@@ -1099,10 +1042,6 @@
   </si>
   <si>
     <t>/Canvas2/Guide/BagMask</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「メニュー」をタップするぴ！</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1998,8 +1937,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}" name="テーブル1" displayName="テーブル1" ref="A1:R146" totalsRowShown="0">
-  <autoFilter ref="A1:R146" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}" name="テーブル1" displayName="テーブル1" ref="A1:R137" totalsRowShown="0">
+  <autoFilter ref="A1:R137" xr:uid="{7BA9975F-C956-4F90-9AA0-F5E2F19CC0A8}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{4DFE80C9-2B21-485D-9D6B-903F491DD911}" name="ID"/>
     <tableColumn id="2" xr3:uid="{26AC1C6D-BEB5-4CFC-A3C3-EA035AA87DC0}" name="Des"/>
@@ -2321,13 +2260,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCE3D9C-AA04-4128-A1A9-BF15679480E0}">
-  <dimension ref="A1:R146"/>
+  <dimension ref="A1:R137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2377,25 +2316,25 @@
         <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M1" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="N1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O1" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="P1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="Q1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="R1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2437,7 +2376,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2463,7 +2402,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2492,7 +2431,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2518,7 +2457,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <v>-150</v>
@@ -2544,10 +2483,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="E8">
         <v>-150</v>
@@ -2564,7 +2503,7 @@
       <c r="I8"/>
       <c r="J8"/>
       <c r="R8" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="4" customFormat="1" ht="37.5">
@@ -2573,7 +2512,7 @@
       </c>
       <c r="C9"/>
       <c r="D9" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9">
         <v>-150</v>
@@ -2599,10 +2538,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <v>-150</v>
@@ -2624,7 +2563,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E11">
         <v>-150</v>
@@ -2650,10 +2589,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E12">
         <v>-150</v>
@@ -2675,7 +2614,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13">
         <v>-150</v>
@@ -2701,10 +2640,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E14">
         <v>-150</v>
@@ -2721,7 +2660,7 @@
       <c r="I14"/>
       <c r="J14"/>
       <c r="Q14" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="4" customFormat="1">
@@ -2729,10 +2668,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2754,7 +2693,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2780,7 +2719,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2806,10 +2745,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2834,7 +2773,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2856,10 +2795,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2881,10 +2820,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2909,7 +2848,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2931,10 +2870,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2956,10 +2895,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2981,10 +2920,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3009,7 +2948,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3031,10 +2970,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3051,7 +2990,7 @@
       <c r="I27"/>
       <c r="J27"/>
       <c r="P27" s="4" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="4" customFormat="1" ht="37.5">
@@ -3062,7 +3001,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3089,10 +3028,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3109,7 +3048,7 @@
       <c r="I29"/>
       <c r="J29"/>
       <c r="P29" s="4" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="4" customFormat="1" ht="37.5">
@@ -3120,7 +3059,7 @@
         <v>14</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3147,7 +3086,7 @@
         <v>29</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3173,7 +3112,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3199,7 +3138,7 @@
         <v>31</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3225,7 +3164,7 @@
         <v>32</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3251,7 +3190,7 @@
         <v>33</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E35">
         <v>-130</v>
@@ -3272,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="4" customFormat="1" ht="37.5">
@@ -3280,10 +3219,10 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E36">
         <v>125</v>
@@ -3305,7 +3244,7 @@
         <v>36</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="4" customFormat="1" ht="37.5">
@@ -3313,7 +3252,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3334,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="4" customFormat="1" ht="37.5">
@@ -3342,7 +3281,7 @@
         <v>36</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3368,7 +3307,7 @@
         <v>37</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3389,12 +3328,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="4" customFormat="1">
+    <row r="40" spans="1:17" ht="37.5">
       <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>116</v>
+      <c r="D40" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3415,24 +3354,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" ht="37.5">
       <c r="A41" s="4">
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F41">
         <v>-100</v>
       </c>
       <c r="G41">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="H41">
         <v>100</v>
@@ -3443,13 +3382,13 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F42">
         <v>-100</v>
@@ -3463,42 +3402,42 @@
     </row>
     <row r="43" spans="1:17" ht="37.5">
       <c r="A43" s="4">
-        <v>41</v>
-      </c>
-      <c r="C43" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="G43">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="H43">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="37.5">
       <c r="A44" s="4">
-        <v>42</v>
-      </c>
-      <c r="C44" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="G44">
         <v>500</v>
@@ -3506,22 +3445,28 @@
       <c r="H44">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="37.5">
       <c r="A45" s="4">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C45" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="G45">
         <v>500</v>
@@ -3530,21 +3475,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="37.5">
+    <row r="46" spans="1:17">
       <c r="A46" s="4">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="G46">
         <v>500</v>
@@ -3553,44 +3498,44 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" ht="37.5">
       <c r="A47" s="4">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>500</v>
       </c>
       <c r="H47">
         <v>100</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="37.5">
       <c r="A48" s="4">
-        <v>46</v>
+        <v>106</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G48">
         <v>500</v>
@@ -3598,20 +3543,16 @@
       <c r="H48">
         <v>100</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="N48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="37.5">
       <c r="A49" s="4">
-        <v>47</v>
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>86</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3624,26 +3565,20 @@
       </c>
       <c r="H49">
         <v>100</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="37.5">
       <c r="A50" s="4">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E50">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>-100</v>
@@ -3654,19 +3589,22 @@
       <c r="H50">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="37.5">
       <c r="A51" s="4">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E51">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>-100</v>
@@ -3676,14 +3614,20 @@
       </c>
       <c r="H51">
         <v>100</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="37.5">
       <c r="A52" s="4">
-        <v>101</v>
+        <v>110</v>
+      </c>
+      <c r="C52" t="s">
+        <v>87</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3692,30 +3636,27 @@
         <v>-100</v>
       </c>
       <c r="G52">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="H52">
         <v>100</v>
       </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="37.5">
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="4">
-        <v>102</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>158</v>
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-100</v>
+        <v>150</v>
       </c>
       <c r="G53">
         <v>500</v>
@@ -3723,28 +3664,22 @@
       <c r="H53">
         <v>100</v>
       </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="37.5">
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="4">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>-100</v>
+        <v>150</v>
       </c>
       <c r="G54">
         <v>500</v>
@@ -3755,19 +3690,19 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="4">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-50</v>
+        <v>150</v>
       </c>
       <c r="G55">
         <v>500</v>
@@ -3778,19 +3713,19 @@
     </row>
     <row r="56" spans="1:10" ht="37.5">
       <c r="A56" s="4">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G56">
         <v>500</v>
@@ -3801,19 +3736,19 @@
     </row>
     <row r="57" spans="1:10" ht="37.5">
       <c r="A57" s="4">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G57">
         <v>500</v>
@@ -3822,21 +3757,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="37.5">
+    <row r="58" spans="1:10">
       <c r="A58" s="4">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>160</v>
+        <v>94</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="G58">
         <v>500</v>
@@ -3847,65 +3782,59 @@
     </row>
     <row r="59" spans="1:10" ht="37.5">
       <c r="A59" s="4">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="G59">
         <v>500</v>
       </c>
       <c r="H59">
         <v>100</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="37.5">
       <c r="A60" s="4">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G60">
         <v>500</v>
       </c>
       <c r="H60">
         <v>100</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="37.5">
       <c r="A61" s="4">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3922,16 +3851,16 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="4">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F62">
         <v>150</v>
@@ -3942,45 +3871,51 @@
       <c r="H62">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="37.5">
       <c r="A63" s="4">
-        <v>112</v>
-      </c>
-      <c r="C63" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>49</v>
+        <v>121</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F63">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="G63">
         <v>500</v>
       </c>
       <c r="H63">
         <v>100</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="4">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>50</v>
+        <v>89</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="G64">
         <v>500</v>
@@ -3989,44 +3924,44 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="37.5">
+    <row r="65" spans="1:14">
       <c r="A65" s="4">
-        <v>114</v>
-      </c>
-      <c r="C65" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="G65">
         <v>500</v>
       </c>
       <c r="H65">
         <v>100</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="37.5">
       <c r="A66" s="4">
-        <v>115</v>
-      </c>
-      <c r="C66" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="G66">
         <v>500</v>
@@ -4034,45 +3969,52 @@
       <c r="H66">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="37.5">
       <c r="A67" s="4">
-        <v>116</v>
-      </c>
-      <c r="C67" t="s">
-        <v>95</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>53</v>
+        <v>125</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="G67">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="H67">
         <v>100</v>
       </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="N67" s="4"/>
     </row>
     <row r="68" spans="1:14" ht="37.5">
       <c r="A68" s="4">
-        <v>117</v>
-      </c>
-      <c r="C68" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="G68">
         <v>500</v>
@@ -4080,22 +4022,29 @@
       <c r="H68">
         <v>100</v>
       </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="N68" s="4"/>
     </row>
     <row r="69" spans="1:14" ht="37.5">
       <c r="A69" s="4">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <v>500</v>
@@ -4104,1073 +4053,1089 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="37.5">
+    <row r="70" spans="1:14">
       <c r="A70" s="4">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D70" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70">
+        <v>150</v>
+      </c>
+      <c r="F70">
+        <v>-100</v>
+      </c>
+      <c r="G70">
+        <v>500</v>
+      </c>
+      <c r="H70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71">
+        <v>201</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>500</v>
+      </c>
+      <c r="H71">
+        <v>100</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72">
+        <v>202</v>
+      </c>
+      <c r="C72" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>-100</v>
+      </c>
+      <c r="G72">
+        <v>500</v>
+      </c>
+      <c r="H72">
+        <v>100</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73">
+        <v>203</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>100</v>
+      </c>
+      <c r="G73">
+        <v>500</v>
+      </c>
+      <c r="H73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74">
+        <v>204</v>
+      </c>
+      <c r="C74" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>-100</v>
+      </c>
+      <c r="G74">
+        <v>500</v>
+      </c>
+      <c r="H74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75">
+        <v>205</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75">
+        <v>-100</v>
+      </c>
+      <c r="F75">
+        <v>150</v>
+      </c>
+      <c r="G75">
+        <v>500</v>
+      </c>
+      <c r="H75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76">
+        <v>206</v>
+      </c>
+      <c r="C76" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>-150</v>
+      </c>
+      <c r="G76">
+        <v>500</v>
+      </c>
+      <c r="H76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77">
+        <v>207</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>-100</v>
+      </c>
+      <c r="G77">
+        <v>500</v>
+      </c>
+      <c r="H77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="37.5">
+      <c r="A78">
+        <v>208</v>
+      </c>
+      <c r="C78" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>100</v>
+      </c>
+      <c r="G78">
+        <v>550</v>
+      </c>
+      <c r="H78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79">
+        <v>209</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E79">
+        <v>-100</v>
+      </c>
+      <c r="F79">
+        <v>-100</v>
+      </c>
+      <c r="G79">
+        <v>500</v>
+      </c>
+      <c r="H79">
+        <v>100</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="37.5">
+      <c r="A80">
+        <v>210</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80">
+        <v>-100</v>
+      </c>
+      <c r="F80">
+        <v>-100</v>
+      </c>
+      <c r="G80">
+        <v>500</v>
+      </c>
+      <c r="H80">
+        <v>100</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81">
+        <v>211</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E81">
+        <v>-100</v>
+      </c>
+      <c r="F81">
+        <v>-100</v>
+      </c>
+      <c r="G81">
+        <v>500</v>
+      </c>
+      <c r="H81">
+        <v>100</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82">
+        <v>212</v>
+      </c>
+      <c r="C82" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E82">
+        <v>100</v>
+      </c>
+      <c r="F82">
+        <v>-100</v>
+      </c>
+      <c r="G82">
+        <v>500</v>
+      </c>
+      <c r="H82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="37.5">
+      <c r="A83">
+        <v>213</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>-100</v>
+      </c>
+      <c r="G83">
+        <v>500</v>
+      </c>
+      <c r="H83">
+        <v>100</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="37.5">
+      <c r="A84">
+        <v>214</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>-100</v>
+      </c>
+      <c r="G84">
+        <v>500</v>
+      </c>
+      <c r="H84">
+        <v>100</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="37.5">
+      <c r="A85">
+        <v>215</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>-100</v>
+      </c>
+      <c r="G85">
+        <v>500</v>
+      </c>
+      <c r="H85">
+        <v>100</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="56.25">
+      <c r="A86">
+        <v>216</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>-100</v>
+      </c>
+      <c r="G86">
+        <v>500</v>
+      </c>
+      <c r="H86">
+        <v>100</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87">
+        <v>217</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>-100</v>
+      </c>
+      <c r="G87">
+        <v>500</v>
+      </c>
+      <c r="H87">
+        <v>100</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="37.5">
+      <c r="A88">
+        <v>218</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>-100</v>
+      </c>
+      <c r="G88">
+        <v>500</v>
+      </c>
+      <c r="H88">
+        <v>100</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89">
+        <v>219</v>
+      </c>
+      <c r="C89" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>100</v>
+      </c>
+      <c r="G89">
+        <v>500</v>
+      </c>
+      <c r="H89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90">
+        <v>220</v>
+      </c>
+      <c r="C90" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>100</v>
+      </c>
+      <c r="G90">
+        <v>500</v>
+      </c>
+      <c r="H90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91">
+        <v>221</v>
+      </c>
+      <c r="C91" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E91">
+        <v>150</v>
+      </c>
+      <c r="F91">
+        <v>-100</v>
+      </c>
+      <c r="G91">
+        <v>500</v>
+      </c>
+      <c r="H91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92">
+        <v>301</v>
+      </c>
+      <c r="D92" t="s">
+        <v>223</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>-100</v>
+      </c>
+      <c r="G92">
+        <v>500</v>
+      </c>
+      <c r="H92">
+        <v>100</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93">
+        <v>302</v>
+      </c>
+      <c r="D93" t="s">
+        <v>224</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>-100</v>
+      </c>
+      <c r="G93">
+        <v>500</v>
+      </c>
+      <c r="H93">
+        <v>100</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94">
+        <v>303</v>
+      </c>
+      <c r="C94" t="s">
+        <v>156</v>
+      </c>
+      <c r="D94" t="s">
+        <v>157</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>-100</v>
+      </c>
+      <c r="G94">
+        <v>500</v>
+      </c>
+      <c r="H94">
+        <v>100</v>
+      </c>
+      <c r="N94" s="4"/>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95">
+        <v>304</v>
+      </c>
+      <c r="C95" t="s">
+        <v>158</v>
+      </c>
+      <c r="D95" t="s">
+        <v>159</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>500</v>
+      </c>
+      <c r="H95">
+        <v>100</v>
+      </c>
+      <c r="N95" s="4"/>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96">
+        <v>305</v>
+      </c>
+      <c r="D96" t="s">
+        <v>160</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>-100</v>
+      </c>
+      <c r="G96">
+        <v>500</v>
+      </c>
+      <c r="H96">
+        <v>100</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="N96" s="4"/>
+    </row>
+    <row r="97" spans="1:18" ht="37.5">
+      <c r="A97">
+        <v>306</v>
+      </c>
+      <c r="C97" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>-100</v>
-      </c>
-      <c r="G70">
-        <v>500</v>
-      </c>
-      <c r="H70">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="4">
-        <v>120</v>
-      </c>
-      <c r="C71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E71">
-        <v>-50</v>
-      </c>
-      <c r="F71">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>550</v>
+      </c>
+      <c r="H97">
+        <v>100</v>
+      </c>
+      <c r="N97" s="4"/>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98">
+        <v>307</v>
+      </c>
+      <c r="D98" t="s">
+        <v>164</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>500</v>
+      </c>
+      <c r="H98">
+        <v>100</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="N98" s="4"/>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99">
+        <v>308</v>
+      </c>
+      <c r="C99" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>500</v>
+      </c>
+      <c r="H99">
+        <v>100</v>
+      </c>
+      <c r="N99" s="4"/>
+    </row>
+    <row r="100" spans="1:18" ht="37.5">
+      <c r="A100">
+        <v>309</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>-150</v>
+      </c>
+      <c r="G100">
+        <v>620</v>
+      </c>
+      <c r="H100">
+        <v>100</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="N100" s="4"/>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101">
+        <v>310</v>
+      </c>
+      <c r="C101" t="s">
+        <v>166</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>-100</v>
+      </c>
+      <c r="G101">
+        <v>500</v>
+      </c>
+      <c r="H101">
+        <v>100</v>
+      </c>
+      <c r="N101" s="4"/>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102">
+        <v>311</v>
+      </c>
+      <c r="C102" t="s">
+        <v>163</v>
+      </c>
+      <c r="D102" t="s">
+        <v>169</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>-100</v>
+      </c>
+      <c r="G102">
+        <v>500</v>
+      </c>
+      <c r="H102">
+        <v>100</v>
+      </c>
+      <c r="N102" s="4"/>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103">
+        <v>312</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>-100</v>
+      </c>
+      <c r="G103">
+        <v>500</v>
+      </c>
+      <c r="H103">
+        <v>100</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="N103" s="4"/>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104">
+        <v>313</v>
+      </c>
+      <c r="D104" t="s">
+        <v>171</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>-100</v>
+      </c>
+      <c r="G104">
+        <v>540</v>
+      </c>
+      <c r="H104">
+        <v>100</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="N104" s="4"/>
+      <c r="P104" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105">
+        <v>314</v>
+      </c>
+      <c r="C105" t="s">
+        <v>172</v>
+      </c>
+      <c r="D105" t="s">
+        <v>222</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>-100</v>
+      </c>
+      <c r="G105">
+        <v>500</v>
+      </c>
+      <c r="H105">
+        <v>100</v>
+      </c>
+      <c r="N105" s="4"/>
+      <c r="Q105" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106">
+        <v>315</v>
+      </c>
+      <c r="C106" t="s">
+        <v>88</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>100</v>
+      </c>
+      <c r="G106">
+        <v>500</v>
+      </c>
+      <c r="H106">
+        <v>100</v>
+      </c>
+      <c r="N106" s="4"/>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107">
+        <v>316</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E107">
         <v>150</v>
       </c>
-      <c r="G71">
-        <v>500</v>
-      </c>
-      <c r="H71">
-        <v>100</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="37.5">
-      <c r="A72" s="4">
-        <v>121</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E72">
-        <v>-50</v>
-      </c>
-      <c r="F72">
-        <v>-100</v>
-      </c>
-      <c r="G72">
-        <v>500</v>
-      </c>
-      <c r="H72">
-        <v>100</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="4">
-        <v>122</v>
-      </c>
-      <c r="C73" t="s">
-        <v>90</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>-100</v>
-      </c>
-      <c r="G73">
-        <v>500</v>
-      </c>
-      <c r="H73">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="4">
-        <v>123</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>-100</v>
-      </c>
-      <c r="G74">
-        <v>500</v>
-      </c>
-      <c r="H74">
-        <v>100</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="37.5">
-      <c r="A75" s="4">
-        <v>124</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>-100</v>
-      </c>
-      <c r="G75">
-        <v>500</v>
-      </c>
-      <c r="H75">
-        <v>100</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="37.5">
-      <c r="A76" s="4">
-        <v>125</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>-100</v>
-      </c>
-      <c r="G76">
-        <v>570</v>
-      </c>
-      <c r="H76">
-        <v>100</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="N76" s="4"/>
-    </row>
-    <row r="77" spans="1:14" ht="37.5">
-      <c r="A77" s="4">
-        <v>126</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>-100</v>
-      </c>
-      <c r="G77">
-        <v>500</v>
-      </c>
-      <c r="H77">
-        <v>100</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="N77" s="4"/>
-    </row>
-    <row r="78" spans="1:14" ht="37.5">
-      <c r="A78" s="4">
-        <v>127</v>
-      </c>
-      <c r="C78" t="s">
-        <v>89</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>500</v>
-      </c>
-      <c r="H78">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="4">
-        <v>128</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="F107">
+        <v>-100</v>
+      </c>
+      <c r="G107">
+        <v>500</v>
+      </c>
+      <c r="H107">
+        <v>100</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="N107" s="4"/>
+    </row>
+    <row r="108" spans="1:18" ht="37.5">
+      <c r="A108">
+        <v>317</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E108">
+        <v>150</v>
+      </c>
+      <c r="F108">
+        <v>-100</v>
+      </c>
+      <c r="G108">
+        <v>500</v>
+      </c>
+      <c r="H108">
+        <v>100</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="N108" s="4"/>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109">
+        <v>318</v>
+      </c>
+      <c r="D109" t="s">
+        <v>176</v>
+      </c>
+      <c r="E109">
+        <v>150</v>
+      </c>
+      <c r="F109">
+        <v>-100</v>
+      </c>
+      <c r="G109">
+        <v>500</v>
+      </c>
+      <c r="H109">
+        <v>100</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="N109" s="4"/>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110">
+        <v>319</v>
+      </c>
+      <c r="C110" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E79">
+      <c r="D110" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E110">
         <v>150</v>
       </c>
-      <c r="F79">
-        <v>-100</v>
-      </c>
-      <c r="G79">
-        <v>500</v>
-      </c>
-      <c r="H79">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80">
-        <v>201</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>500</v>
-      </c>
-      <c r="H80">
-        <v>100</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81">
-        <v>202</v>
-      </c>
-      <c r="C81" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>-100</v>
-      </c>
-      <c r="G81">
-        <v>500</v>
-      </c>
-      <c r="H81">
-        <v>100</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82">
-        <v>203</v>
-      </c>
-      <c r="C82" t="s">
-        <v>33</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>100</v>
-      </c>
-      <c r="G82">
-        <v>500</v>
-      </c>
-      <c r="H82">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83">
-        <v>204</v>
-      </c>
-      <c r="C83" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>-100</v>
-      </c>
-      <c r="G83">
-        <v>500</v>
-      </c>
-      <c r="H83">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84">
-        <v>205</v>
-      </c>
-      <c r="C84" t="s">
-        <v>17</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E84">
-        <v>-100</v>
-      </c>
-      <c r="F84">
-        <v>150</v>
-      </c>
-      <c r="G84">
-        <v>500</v>
-      </c>
-      <c r="H84">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85">
-        <v>206</v>
-      </c>
-      <c r="C85" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>-150</v>
-      </c>
-      <c r="G85">
-        <v>500</v>
-      </c>
-      <c r="H85">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86">
-        <v>207</v>
-      </c>
-      <c r="C86" t="s">
-        <v>35</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>-100</v>
-      </c>
-      <c r="G86">
-        <v>500</v>
-      </c>
-      <c r="H86">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="37.5">
-      <c r="A87">
-        <v>208</v>
-      </c>
-      <c r="C87" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>100</v>
-      </c>
-      <c r="G87">
-        <v>550</v>
-      </c>
-      <c r="H87">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88">
-        <v>209</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E88">
-        <v>-100</v>
-      </c>
-      <c r="F88">
-        <v>-100</v>
-      </c>
-      <c r="G88">
-        <v>500</v>
-      </c>
-      <c r="H88">
-        <v>100</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="37.5">
-      <c r="A89">
+      <c r="F110">
+        <v>-100</v>
+      </c>
+      <c r="G110">
+        <v>500</v>
+      </c>
+      <c r="H110">
+        <v>100</v>
+      </c>
+      <c r="N110" s="4"/>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111">
+        <v>401</v>
+      </c>
+      <c r="D111" t="s">
+        <v>189</v>
+      </c>
+      <c r="E111">
+        <v>40</v>
+      </c>
+      <c r="F111">
+        <v>-130</v>
+      </c>
+      <c r="G111">
+        <v>775</v>
+      </c>
+      <c r="H111">
+        <v>80</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="N111" s="4"/>
+      <c r="R111" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" ht="37.5">
+      <c r="A112">
+        <v>402</v>
+      </c>
+      <c r="D112" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E89">
-        <v>-100</v>
-      </c>
-      <c r="F89">
-        <v>-100</v>
-      </c>
-      <c r="G89">
-        <v>500</v>
-      </c>
-      <c r="H89">
-        <v>100</v>
-      </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90">
-        <v>211</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E90">
-        <v>-100</v>
-      </c>
-      <c r="F90">
-        <v>-100</v>
-      </c>
-      <c r="G90">
-        <v>500</v>
-      </c>
-      <c r="H90">
-        <v>100</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91">
-        <v>212</v>
-      </c>
-      <c r="C91" t="s">
-        <v>38</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E91">
-        <v>100</v>
-      </c>
-      <c r="F91">
-        <v>-100</v>
-      </c>
-      <c r="G91">
-        <v>500</v>
-      </c>
-      <c r="H91">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="37.5">
-      <c r="A92">
-        <v>213</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>-100</v>
-      </c>
-      <c r="G92">
-        <v>500</v>
-      </c>
-      <c r="H92">
-        <v>100</v>
-      </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-      <c r="J92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="37.5">
-      <c r="A93">
-        <v>214</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>-100</v>
-      </c>
-      <c r="G93">
-        <v>500</v>
-      </c>
-      <c r="H93">
-        <v>100</v>
-      </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-      <c r="J93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="37.5">
-      <c r="A94">
-        <v>215</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>-100</v>
-      </c>
-      <c r="G94">
-        <v>500</v>
-      </c>
-      <c r="H94">
-        <v>100</v>
-      </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="J94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="56.25">
-      <c r="A95">
-        <v>216</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>-100</v>
-      </c>
-      <c r="G95">
-        <v>500</v>
-      </c>
-      <c r="H95">
-        <v>100</v>
-      </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-      <c r="J95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96">
-        <v>217</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>-100</v>
-      </c>
-      <c r="G96">
-        <v>500</v>
-      </c>
-      <c r="H96">
-        <v>100</v>
-      </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
-      <c r="J96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="37.5">
-      <c r="A97">
-        <v>218</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>-100</v>
-      </c>
-      <c r="G97">
-        <v>500</v>
-      </c>
-      <c r="H97">
-        <v>100</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-      <c r="J97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="A98">
-        <v>219</v>
-      </c>
-      <c r="C98" t="s">
-        <v>37</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>100</v>
-      </c>
-      <c r="G98">
-        <v>500</v>
-      </c>
-      <c r="H98">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="A99">
-        <v>220</v>
-      </c>
-      <c r="C99" t="s">
-        <v>89</v>
-      </c>
-      <c r="D99" s="6" t="s">
+      <c r="E112">
+        <v>40</v>
+      </c>
+      <c r="F112">
+        <v>-130</v>
+      </c>
+      <c r="G112">
+        <v>775</v>
+      </c>
+      <c r="H112">
         <v>80</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>100</v>
-      </c>
-      <c r="G99">
-        <v>500</v>
-      </c>
-      <c r="H99">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
-      <c r="A100">
-        <v>221</v>
-      </c>
-      <c r="C100" t="s">
-        <v>31</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E100">
-        <v>150</v>
-      </c>
-      <c r="F100">
-        <v>-100</v>
-      </c>
-      <c r="G100">
-        <v>500</v>
-      </c>
-      <c r="H100">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
-      <c r="A101">
-        <v>301</v>
-      </c>
-      <c r="D101" t="s">
-        <v>237</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>-100</v>
-      </c>
-      <c r="G101">
-        <v>500</v>
-      </c>
-      <c r="H101">
-        <v>100</v>
-      </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
-      <c r="J101">
-        <v>1</v>
-      </c>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="A102">
-        <v>302</v>
-      </c>
-      <c r="D102" t="s">
-        <v>238</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>-100</v>
-      </c>
-      <c r="G102">
-        <v>500</v>
-      </c>
-      <c r="H102">
-        <v>100</v>
-      </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-      <c r="J102">
-        <v>1</v>
-      </c>
-      <c r="N102" s="4"/>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="A103">
-        <v>303</v>
-      </c>
-      <c r="C103" t="s">
-        <v>170</v>
-      </c>
-      <c r="D103" t="s">
-        <v>171</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>-100</v>
-      </c>
-      <c r="G103">
-        <v>500</v>
-      </c>
-      <c r="H103">
-        <v>100</v>
-      </c>
-      <c r="N103" s="4"/>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104">
-        <v>304</v>
-      </c>
-      <c r="C104" t="s">
-        <v>172</v>
-      </c>
-      <c r="D104" t="s">
-        <v>173</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>500</v>
-      </c>
-      <c r="H104">
-        <v>100</v>
-      </c>
-      <c r="N104" s="4"/>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="A105">
-        <v>305</v>
-      </c>
-      <c r="D105" t="s">
-        <v>174</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>-100</v>
-      </c>
-      <c r="G105">
-        <v>500</v>
-      </c>
-      <c r="H105">
-        <v>100</v>
-      </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-      <c r="J105">
-        <v>1</v>
-      </c>
-      <c r="N105" s="4"/>
-    </row>
-    <row r="106" spans="1:15" ht="37.5">
-      <c r="A106">
-        <v>306</v>
-      </c>
-      <c r="C106" t="s">
-        <v>176</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>550</v>
-      </c>
-      <c r="H106">
-        <v>100</v>
-      </c>
-      <c r="N106" s="4"/>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107">
-        <v>307</v>
-      </c>
-      <c r="D107" t="s">
-        <v>178</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>500</v>
-      </c>
-      <c r="H107">
-        <v>100</v>
-      </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
-      <c r="J107">
-        <v>1</v>
-      </c>
-      <c r="N107" s="4"/>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="A108">
-        <v>308</v>
-      </c>
-      <c r="C108" t="s">
-        <v>179</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>500</v>
-      </c>
-      <c r="H108">
-        <v>100</v>
-      </c>
-      <c r="N108" s="4"/>
-    </row>
-    <row r="109" spans="1:15" ht="37.5">
-      <c r="A109">
-        <v>309</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>-150</v>
-      </c>
-      <c r="G109">
-        <v>620</v>
-      </c>
-      <c r="H109">
-        <v>100</v>
-      </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
-      <c r="J109">
-        <v>1</v>
-      </c>
-      <c r="N109" s="4"/>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="A110">
-        <v>310</v>
-      </c>
-      <c r="C110" t="s">
-        <v>180</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>-100</v>
-      </c>
-      <c r="G110">
-        <v>500</v>
-      </c>
-      <c r="H110">
-        <v>100</v>
-      </c>
-      <c r="N110" s="4"/>
-    </row>
-    <row r="111" spans="1:15">
-      <c r="A111">
-        <v>311</v>
-      </c>
-      <c r="C111" t="s">
-        <v>177</v>
-      </c>
-      <c r="D111" t="s">
-        <v>183</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>-100</v>
-      </c>
-      <c r="G111">
-        <v>500</v>
-      </c>
-      <c r="H111">
-        <v>100</v>
-      </c>
-      <c r="N111" s="4"/>
-    </row>
-    <row r="112" spans="1:15">
-      <c r="A112">
-        <v>312</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>-100</v>
-      </c>
-      <c r="G112">
-        <v>500</v>
-      </c>
-      <c r="H112">
-        <v>100</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -5182,22 +5147,22 @@
     </row>
     <row r="113" spans="1:18">
       <c r="A113">
-        <v>313</v>
+        <v>403</v>
       </c>
       <c r="D113" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F113">
-        <v>-100</v>
+        <v>-130</v>
       </c>
       <c r="G113">
-        <v>540</v>
+        <v>775</v>
       </c>
       <c r="H113">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -5206,169 +5171,190 @@
         <v>1</v>
       </c>
       <c r="N113" s="4"/>
-      <c r="P113" t="s">
+    </row>
+    <row r="114" spans="1:18">
+      <c r="A114" s="4">
+        <v>404</v>
+      </c>
+      <c r="C114" t="s">
+        <v>220</v>
+      </c>
+      <c r="D114" t="s">
+        <v>191</v>
+      </c>
+      <c r="E114">
+        <v>-15</v>
+      </c>
+      <c r="F114">
+        <v>-130</v>
+      </c>
+      <c r="G114">
+        <v>430</v>
+      </c>
+      <c r="H114">
+        <v>80</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>100</v>
+      </c>
+      <c r="M114" t="s">
+        <v>178</v>
+      </c>
+      <c r="N114" s="4"/>
+    </row>
+    <row r="115" spans="1:18" ht="37.5">
+      <c r="A115" s="4">
+        <v>405</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E115">
+        <v>40</v>
+      </c>
+      <c r="F115">
+        <v>-130</v>
+      </c>
+      <c r="G115">
+        <v>775</v>
+      </c>
+      <c r="H115">
+        <v>80</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="N115" s="4"/>
+    </row>
+    <row r="116" spans="1:18" ht="37.5">
+      <c r="A116" s="4">
+        <v>406</v>
+      </c>
+      <c r="C116" t="s">
+        <v>220</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E116">
+        <v>-15</v>
+      </c>
+      <c r="F116">
+        <v>-130</v>
+      </c>
+      <c r="G116">
+        <v>430</v>
+      </c>
+      <c r="H116">
+        <v>80</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>100</v>
+      </c>
+      <c r="M116" t="s">
+        <v>179</v>
+      </c>
+      <c r="N116" s="4"/>
+    </row>
+    <row r="117" spans="1:18" ht="37.5">
+      <c r="A117" s="4">
+        <v>407</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E117">
+        <v>40</v>
+      </c>
+      <c r="F117">
+        <v>-130</v>
+      </c>
+      <c r="G117">
+        <v>775</v>
+      </c>
+      <c r="H117">
+        <v>80</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="N117" s="4"/>
+    </row>
+    <row r="118" spans="1:18" ht="37.5">
+      <c r="A118" s="4">
+        <v>408</v>
+      </c>
+      <c r="C118" t="s">
+        <v>220</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E118">
+        <v>-15</v>
+      </c>
+      <c r="F118">
+        <v>-130</v>
+      </c>
+      <c r="G118">
+        <v>430</v>
+      </c>
+      <c r="H118">
+        <v>80</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>100</v>
+      </c>
+      <c r="M118" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="114" spans="1:18">
-      <c r="A114">
-        <v>314</v>
-      </c>
-      <c r="C114" t="s">
-        <v>186</v>
-      </c>
-      <c r="D114" t="s">
-        <v>236</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>-100</v>
-      </c>
-      <c r="G114">
-        <v>500</v>
-      </c>
-      <c r="H114">
-        <v>100</v>
-      </c>
-      <c r="N114" s="4"/>
-      <c r="Q114" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18">
-      <c r="A115">
-        <v>315</v>
-      </c>
-      <c r="C115" t="s">
-        <v>89</v>
-      </c>
-      <c r="D115" s="6" t="s">
+      <c r="N118" s="4"/>
+    </row>
+    <row r="119" spans="1:18" ht="37.5">
+      <c r="A119">
+        <v>409</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E119">
+        <v>40</v>
+      </c>
+      <c r="F119">
+        <v>-130</v>
+      </c>
+      <c r="G119">
+        <v>775</v>
+      </c>
+      <c r="H119">
         <v>80</v>
       </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>100</v>
-      </c>
-      <c r="G115">
-        <v>500</v>
-      </c>
-      <c r="H115">
-        <v>100</v>
-      </c>
-      <c r="N115" s="4"/>
-    </row>
-    <row r="116" spans="1:18">
-      <c r="A116">
-        <v>316</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E116">
-        <v>150</v>
-      </c>
-      <c r="F116">
-        <v>-100</v>
-      </c>
-      <c r="G116">
-        <v>500</v>
-      </c>
-      <c r="H116">
-        <v>100</v>
-      </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
-      <c r="J116">
-        <v>1</v>
-      </c>
-      <c r="N116" s="4"/>
-    </row>
-    <row r="117" spans="1:18" ht="37.5">
-      <c r="A117">
-        <v>317</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E117">
-        <v>150</v>
-      </c>
-      <c r="F117">
-        <v>-100</v>
-      </c>
-      <c r="G117">
-        <v>500</v>
-      </c>
-      <c r="H117">
-        <v>100</v>
-      </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
-      <c r="J117">
-        <v>1</v>
-      </c>
-      <c r="N117" s="4"/>
-    </row>
-    <row r="118" spans="1:18">
-      <c r="A118">
-        <v>318</v>
-      </c>
-      <c r="D118" t="s">
-        <v>190</v>
-      </c>
-      <c r="E118">
-        <v>150</v>
-      </c>
-      <c r="F118">
-        <v>-100</v>
-      </c>
-      <c r="G118">
-        <v>500</v>
-      </c>
-      <c r="H118">
-        <v>100</v>
-      </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
-      <c r="J118">
-        <v>1</v>
-      </c>
-      <c r="N118" s="4"/>
-    </row>
-    <row r="119" spans="1:18">
-      <c r="A119">
-        <v>319</v>
-      </c>
-      <c r="C119" t="s">
-        <v>31</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E119">
-        <v>150</v>
-      </c>
-      <c r="F119">
-        <v>-100</v>
-      </c>
-      <c r="G119">
-        <v>500</v>
-      </c>
-      <c r="H119">
-        <v>100</v>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
       </c>
       <c r="N119" s="4"/>
     </row>
     <row r="120" spans="1:18">
       <c r="A120">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="D120" t="s">
         <v>203</v>
@@ -5380,7 +5366,7 @@
         <v>-130</v>
       </c>
       <c r="G120">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="H120">
         <v>80</v>
@@ -5392,46 +5378,49 @@
         <v>1</v>
       </c>
       <c r="N120" s="4"/>
-      <c r="R120" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" ht="37.5">
+      <c r="O120" s="4"/>
+    </row>
+    <row r="121" spans="1:18" ht="56.25">
       <c r="A121">
-        <v>402</v>
+        <v>411</v>
+      </c>
+      <c r="C121" t="s">
+        <v>220</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E121">
-        <v>40</v>
+        <v>-15</v>
       </c>
       <c r="F121">
         <v>-130</v>
       </c>
       <c r="G121">
-        <v>775</v>
+        <v>430</v>
       </c>
       <c r="H121">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>1</v>
-      </c>
-      <c r="N121" s="4"/>
+      <c r="N121" s="4">
+        <v>1</v>
+      </c>
+      <c r="R121" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="122" spans="1:18">
       <c r="A122">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D122" t="s">
         <v>204</v>
       </c>
       <c r="E122">
-        <v>40</v>
+        <v>-15</v>
       </c>
       <c r="F122">
         <v>-130</v>
@@ -5449,16 +5438,14 @@
         <v>1</v>
       </c>
       <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
     </row>
     <row r="123" spans="1:18">
-      <c r="A123" s="4">
-        <v>404</v>
-      </c>
-      <c r="C123" t="s">
-        <v>234</v>
-      </c>
-      <c r="D123" t="s">
-        <v>205</v>
+      <c r="A123">
+        <v>413</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="E123">
         <v>-15</v>
@@ -5467,7 +5454,7 @@
         <v>-130</v>
       </c>
       <c r="G123">
-        <v>430</v>
+        <v>775</v>
       </c>
       <c r="H123">
         <v>80</v>
@@ -5475,50 +5462,49 @@
       <c r="I123">
         <v>1</v>
       </c>
-      <c r="L123">
-        <v>100</v>
-      </c>
-      <c r="M123" t="s">
-        <v>192</v>
+      <c r="J123">
+        <v>1</v>
       </c>
       <c r="N123" s="4"/>
     </row>
     <row r="124" spans="1:18" ht="37.5">
-      <c r="A124" s="4">
-        <v>405</v>
+      <c r="A124">
+        <v>414</v>
+      </c>
+      <c r="C124" t="s">
+        <v>220</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E124">
-        <v>40</v>
+        <v>-15</v>
       </c>
       <c r="F124">
         <v>-130</v>
       </c>
       <c r="G124">
-        <v>775</v>
+        <v>430</v>
       </c>
       <c r="H124">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
-      <c r="J124">
-        <v>1</v>
-      </c>
-      <c r="N124" s="4"/>
-    </row>
-    <row r="125" spans="1:18" ht="37.5">
-      <c r="A125" s="4">
-        <v>406</v>
-      </c>
-      <c r="C125" t="s">
-        <v>234</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>225</v>
+      <c r="N124" s="4">
+        <v>4</v>
+      </c>
+      <c r="R124" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125">
+        <v>415</v>
+      </c>
+      <c r="D125" t="s">
+        <v>205</v>
       </c>
       <c r="E125">
         <v>-15</v>
@@ -5527,7 +5513,7 @@
         <v>-130</v>
       </c>
       <c r="G125">
-        <v>430</v>
+        <v>775</v>
       </c>
       <c r="H125">
         <v>80</v>
@@ -5535,50 +5521,50 @@
       <c r="I125">
         <v>1</v>
       </c>
-      <c r="L125">
-        <v>100</v>
-      </c>
-      <c r="M125" t="s">
-        <v>193</v>
+      <c r="J125">
+        <v>1</v>
       </c>
       <c r="N125" s="4"/>
     </row>
     <row r="126" spans="1:18" ht="37.5">
-      <c r="A126" s="4">
-        <v>407</v>
+      <c r="A126">
+        <v>416</v>
+      </c>
+      <c r="C126" t="s">
+        <v>220</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E126">
-        <v>40</v>
+        <v>-15</v>
       </c>
       <c r="F126">
         <v>-130</v>
       </c>
       <c r="G126">
-        <v>775</v>
+        <v>430</v>
       </c>
       <c r="H126">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
-      <c r="J126">
-        <v>1</v>
-      </c>
       <c r="N126" s="4"/>
-    </row>
-    <row r="127" spans="1:18" ht="37.5">
-      <c r="A127" s="4">
-        <v>408</v>
-      </c>
-      <c r="C127" t="s">
-        <v>234</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>226</v>
+      <c r="O126">
+        <v>107</v>
+      </c>
+      <c r="R126" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
+      <c r="A127">
+        <v>417</v>
+      </c>
+      <c r="D127" t="s">
+        <v>206</v>
       </c>
       <c r="E127">
         <v>-15</v>
@@ -5587,7 +5573,7 @@
         <v>-130</v>
       </c>
       <c r="G127">
-        <v>430</v>
+        <v>775</v>
       </c>
       <c r="H127">
         <v>80</v>
@@ -5595,23 +5581,23 @@
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="L127">
-        <v>100</v>
-      </c>
-      <c r="M127" t="s">
-        <v>201</v>
+      <c r="J127">
+        <v>1</v>
       </c>
       <c r="N127" s="4"/>
-    </row>
-    <row r="128" spans="1:18" ht="37.5">
+      <c r="R127" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128">
-        <v>409</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>216</v>
+        <v>418</v>
+      </c>
+      <c r="D128" t="s">
+        <v>192</v>
       </c>
       <c r="E128">
-        <v>40</v>
+        <v>-15</v>
       </c>
       <c r="F128">
         <v>-130</v>
@@ -5630,78 +5616,78 @@
       </c>
       <c r="N128" s="4"/>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" ht="37.5">
       <c r="A129">
-        <v>410</v>
-      </c>
-      <c r="D129" t="s">
-        <v>217</v>
+        <v>419</v>
+      </c>
+      <c r="C129" t="s">
+        <v>220</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="E129">
-        <v>40</v>
+        <v>-15</v>
       </c>
       <c r="F129">
         <v>-130</v>
       </c>
       <c r="G129">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="H129">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
-      <c r="J129">
-        <v>1</v>
-      </c>
       <c r="N129" s="4"/>
-      <c r="O129" s="4"/>
-    </row>
-    <row r="130" spans="1:18" ht="56.25">
+      <c r="R129" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" ht="37.5">
       <c r="A130">
-        <v>411</v>
-      </c>
-      <c r="C130" t="s">
-        <v>234</v>
+        <v>420</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="E130">
         <v>-15</v>
       </c>
       <c r="F130">
-        <v>-130</v>
+        <v>-110</v>
       </c>
       <c r="G130">
-        <v>430</v>
+        <v>775</v>
       </c>
       <c r="H130">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
-      <c r="N130" s="4">
-        <v>1</v>
-      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="N130" s="4"/>
       <c r="R130" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" ht="37.5">
       <c r="A131">
-        <v>412</v>
-      </c>
-      <c r="D131" t="s">
-        <v>218</v>
+        <v>421</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="E131">
         <v>-15</v>
       </c>
       <c r="F131">
-        <v>-130</v>
+        <v>-110</v>
       </c>
       <c r="G131">
         <v>775</v>
@@ -5720,16 +5706,19 @@
     </row>
     <row r="132" spans="1:18">
       <c r="A132">
-        <v>413</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>232</v>
+        <v>422</v>
+      </c>
+      <c r="C132" t="s">
+        <v>185</v>
+      </c>
+      <c r="D132" t="s">
+        <v>194</v>
       </c>
       <c r="E132">
         <v>-15</v>
       </c>
       <c r="F132">
-        <v>-130</v>
+        <v>-110</v>
       </c>
       <c r="G132">
         <v>775</v>
@@ -5737,49 +5726,38 @@
       <c r="H132">
         <v>80</v>
       </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
-      <c r="J132">
-        <v>1</v>
-      </c>
       <c r="N132" s="4"/>
     </row>
     <row r="133" spans="1:18" ht="37.5">
       <c r="A133">
-        <v>414</v>
-      </c>
-      <c r="C133" t="s">
-        <v>234</v>
+        <v>423</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="E133">
         <v>-15</v>
       </c>
       <c r="F133">
-        <v>-130</v>
+        <v>-110</v>
       </c>
       <c r="G133">
-        <v>430</v>
+        <v>775</v>
       </c>
       <c r="H133">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
-      <c r="N133" s="4">
-        <v>4</v>
-      </c>
+      <c r="N133" s="4"/>
       <c r="R133" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="134" spans="1:18">
       <c r="A134">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="D134" t="s">
         <v>219</v>
@@ -5803,16 +5781,16 @@
         <v>1</v>
       </c>
       <c r="N134" s="4"/>
-    </row>
-    <row r="135" spans="1:18" ht="37.5">
+      <c r="R134" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
       <c r="A135">
-        <v>416</v>
-      </c>
-      <c r="C135" t="s">
-        <v>234</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>228</v>
+        <v>502</v>
+      </c>
+      <c r="D135" t="s">
+        <v>195</v>
       </c>
       <c r="E135">
         <v>-15</v>
@@ -5821,318 +5799,62 @@
         <v>-130</v>
       </c>
       <c r="G135">
-        <v>430</v>
+        <v>775</v>
       </c>
       <c r="H135">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
       <c r="N135" s="4"/>
-      <c r="O135">
-        <v>107</v>
-      </c>
-      <c r="R135" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="136" spans="1:18">
       <c r="A136">
-        <v>417</v>
-      </c>
-      <c r="D136" t="s">
-        <v>220</v>
+        <v>503</v>
+      </c>
+      <c r="C136" t="s">
+        <v>88</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="E136">
-        <v>-15</v>
+        <v>-50</v>
       </c>
       <c r="F136">
-        <v>-130</v>
+        <v>-170</v>
       </c>
       <c r="G136">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="H136">
-        <v>80</v>
-      </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
-      <c r="J136">
-        <v>1</v>
-      </c>
-      <c r="N136" s="4"/>
-      <c r="R136" t="s">
-        <v>213</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:18">
       <c r="A137">
-        <v>418</v>
-      </c>
-      <c r="D137" t="s">
-        <v>206</v>
+        <v>504</v>
+      </c>
+      <c r="C137" t="s">
+        <v>31</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="E137">
-        <v>-15</v>
+        <v>150</v>
       </c>
       <c r="F137">
-        <v>-130</v>
+        <v>-100</v>
       </c>
       <c r="G137">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="H137">
-        <v>80</v>
-      </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
-      <c r="J137">
-        <v>1</v>
-      </c>
-      <c r="N137" s="4"/>
-    </row>
-    <row r="138" spans="1:18" ht="37.5">
-      <c r="A138">
-        <v>419</v>
-      </c>
-      <c r="C138" t="s">
-        <v>234</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E138">
-        <v>-15</v>
-      </c>
-      <c r="F138">
-        <v>-130</v>
-      </c>
-      <c r="G138">
-        <v>450</v>
-      </c>
-      <c r="H138">
-        <v>100</v>
-      </c>
-      <c r="I138">
-        <v>1</v>
-      </c>
-      <c r="N138" s="4"/>
-      <c r="R138" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" ht="37.5">
-      <c r="A139">
-        <v>420</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E139">
-        <v>-15</v>
-      </c>
-      <c r="F139">
-        <v>-110</v>
-      </c>
-      <c r="G139">
-        <v>775</v>
-      </c>
-      <c r="H139">
-        <v>80</v>
-      </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
-      <c r="J139">
-        <v>1</v>
-      </c>
-      <c r="N139" s="4"/>
-      <c r="R139" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" ht="37.5">
-      <c r="A140">
-        <v>421</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="E140">
-        <v>-15</v>
-      </c>
-      <c r="F140">
-        <v>-110</v>
-      </c>
-      <c r="G140">
-        <v>775</v>
-      </c>
-      <c r="H140">
-        <v>80</v>
-      </c>
-      <c r="I140">
-        <v>1</v>
-      </c>
-      <c r="J140">
-        <v>1</v>
-      </c>
-      <c r="N140" s="4"/>
-      <c r="O140" s="4"/>
-    </row>
-    <row r="141" spans="1:18">
-      <c r="A141">
-        <v>422</v>
-      </c>
-      <c r="C141" t="s">
-        <v>199</v>
-      </c>
-      <c r="D141" t="s">
-        <v>208</v>
-      </c>
-      <c r="E141">
-        <v>-15</v>
-      </c>
-      <c r="F141">
-        <v>-110</v>
-      </c>
-      <c r="G141">
-        <v>775</v>
-      </c>
-      <c r="H141">
-        <v>80</v>
-      </c>
-      <c r="N141" s="4"/>
-    </row>
-    <row r="142" spans="1:18" ht="37.5">
-      <c r="A142">
-        <v>423</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E142">
-        <v>-15</v>
-      </c>
-      <c r="F142">
-        <v>-110</v>
-      </c>
-      <c r="G142">
-        <v>775</v>
-      </c>
-      <c r="H142">
-        <v>80</v>
-      </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-      <c r="N142" s="4"/>
-      <c r="R142" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18">
-      <c r="A143">
-        <v>501</v>
-      </c>
-      <c r="D143" t="s">
-        <v>233</v>
-      </c>
-      <c r="E143">
-        <v>-15</v>
-      </c>
-      <c r="F143">
-        <v>-130</v>
-      </c>
-      <c r="G143">
-        <v>775</v>
-      </c>
-      <c r="H143">
-        <v>80</v>
-      </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
-      <c r="J143">
-        <v>1</v>
-      </c>
-      <c r="N143" s="4"/>
-      <c r="R143" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18">
-      <c r="A144">
-        <v>502</v>
-      </c>
-      <c r="D144" t="s">
-        <v>209</v>
-      </c>
-      <c r="E144">
-        <v>-15</v>
-      </c>
-      <c r="F144">
-        <v>-130</v>
-      </c>
-      <c r="G144">
-        <v>775</v>
-      </c>
-      <c r="H144">
-        <v>80</v>
-      </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
-      <c r="J144">
-        <v>1</v>
-      </c>
-      <c r="N144" s="4"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145">
-        <v>503</v>
-      </c>
-      <c r="C145" t="s">
-        <v>89</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E145">
-        <v>-50</v>
-      </c>
-      <c r="F145">
-        <v>-170</v>
-      </c>
-      <c r="G145">
-        <v>750</v>
-      </c>
-      <c r="H145">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146">
-        <v>504</v>
-      </c>
-      <c r="C146" t="s">
-        <v>31</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E146">
-        <v>150</v>
-      </c>
-      <c r="F146">
-        <v>-100</v>
-      </c>
-      <c r="G146">
-        <v>500</v>
-      </c>
-      <c r="H146">
         <v>100</v>
       </c>
     </row>
@@ -6256,47 +5978,47 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
